--- a/data/laboratorie_data.xlsx
+++ b/data/laboratorie_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvmad\Desktop\Ditz3ns-Ice-Cream-Lab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1735A853-4CB2-4889-8334-7E6A046C46CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E04B66-6E81-4F05-9F4F-C168780C070D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduktion" sheetId="1" r:id="rId1"/>
@@ -27,10 +27,10 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Pulver-baserede Smagsgivere" guid="{78FFC831-1D0F-4AD8-8D5F-BA4B980A515D}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Sødemidler &amp; Stabilisatorer" guid="{DDEA0034-8075-451D-A031-0121E8381F0F}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Kopi af Proteinpulvere" guid="{BFC8CB06-61D4-4AB5-8D7C-32259655DEAE}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Proteinpulvere" guid="{2D050267-7263-4CD4-97DE-20ADEF3AA056}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Kopi af Proteinpulvere" guid="{BFC8CB06-61D4-4AB5-8D7C-32259655DEAE}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Sødemidler &amp; Stabilisatorer" guid="{DDEA0034-8075-451D-A031-0121E8381F0F}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Pulver-baserede Smagsgivere" guid="{78FFC831-1D0F-4AD8-8D5F-BA4B980A515D}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="662">
   <si>
     <t>Velkommen til Ditz3n's Ninja CREAMi Laboratorium! 🍦</t>
   </si>
@@ -2162,15 +2162,19 @@
   <si>
     <t>Test</t>
   </si>
+  <si>
+    <t>Milbona High Protein Vanilla Cottage Cheese</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2272,6 +2276,19 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="15">
     <fill>
@@ -2359,7 +2376,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -2437,11 +2454,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2711,6 +2743,42 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="18" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3553,8 +3621,8 @@
   </sheetPr>
   <dimension ref="A1:L659"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A278" workbookViewId="0">
+      <selection activeCell="J294" sqref="J294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -6859,161 +6927,163 @@
       </c>
     </row>
     <row r="193" spans="1:11" ht="14.25">
-      <c r="A193" s="51" t="s">
+      <c r="A193" s="126" t="s">
         <v>174</v>
       </c>
-      <c r="B193" s="52">
+      <c r="B193" s="127">
         <v>78</v>
       </c>
-      <c r="C193" s="52">
+      <c r="C193" s="127">
         <v>2.1</v>
       </c>
-      <c r="D193" s="52">
+      <c r="D193" s="127">
         <v>7.3</v>
       </c>
-      <c r="E193" s="52">
+      <c r="E193" s="127">
         <v>7</v>
       </c>
-      <c r="F193" s="52">
+      <c r="F193" s="127">
         <v>6.2</v>
       </c>
-      <c r="G193" s="52">
+      <c r="G193" s="127">
         <v>0.2</v>
       </c>
-      <c r="H193" s="52">
+      <c r="H193" s="127">
         <v>13.3</v>
       </c>
-      <c r="I193" s="52">
+      <c r="I193" s="127">
         <v>13.5</v>
       </c>
-      <c r="J193" s="52">
+      <c r="J193" s="127">
         <v>1.9</v>
       </c>
-      <c r="K193" s="53" t="s">
+      <c r="K193" s="128" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="194" spans="1:11" ht="14.25">
-      <c r="A194" s="51" t="s">
+      <c r="A194" s="132" t="s">
+        <v>661</v>
+      </c>
+      <c r="B194" s="133">
+        <v>78</v>
+      </c>
+      <c r="C194" s="133">
+        <v>1.3</v>
+      </c>
+      <c r="D194" s="133">
+        <v>5.6</v>
+      </c>
+      <c r="E194" s="133">
+        <v>4.3</v>
+      </c>
+      <c r="F194" s="133">
+        <v>11</v>
+      </c>
+      <c r="G194" s="133">
+        <v>0.71</v>
+      </c>
+      <c r="H194" s="134">
+        <v>13.138999999999999</v>
+      </c>
+      <c r="I194" s="133">
+        <v>6.6</v>
+      </c>
+      <c r="J194" s="135">
+        <v>1.3</v>
+      </c>
+      <c r="K194" s="136" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" ht="14.25">
+      <c r="A195" s="129" t="s">
         <v>175</v>
       </c>
-      <c r="B194" s="52">
+      <c r="B195" s="130">
         <v>103</v>
       </c>
-      <c r="C194" s="52">
+      <c r="C195" s="130">
         <v>3.2</v>
       </c>
-      <c r="D194" s="52">
+      <c r="D195" s="130">
         <v>15</v>
       </c>
-      <c r="E194" s="52">
+      <c r="E195" s="130">
         <v>13</v>
       </c>
-      <c r="F194" s="52">
+      <c r="F195" s="130">
         <v>3.6</v>
       </c>
-      <c r="G194" s="52">
+      <c r="G195" s="130">
         <v>0.12</v>
       </c>
-      <c r="H194" s="52">
+      <c r="H195" s="130">
         <v>13</v>
       </c>
-      <c r="I194" s="52">
+      <c r="I195" s="130">
         <v>18.600000000000001</v>
       </c>
-      <c r="J194" s="52">
+      <c r="J195" s="130">
         <v>2.9</v>
       </c>
-      <c r="K194" s="53" t="s">
+      <c r="K195" s="131" t="s">
         <v>176</v>
-      </c>
-    </row>
-    <row r="195" spans="1:11" ht="14.25">
-      <c r="A195" s="51" t="s">
-        <v>177</v>
-      </c>
-      <c r="B195" s="52">
-        <v>89</v>
-      </c>
-      <c r="C195" s="52">
-        <v>2.7</v>
-      </c>
-      <c r="D195" s="52">
-        <v>12</v>
-      </c>
-      <c r="E195" s="52">
-        <v>12</v>
-      </c>
-      <c r="F195" s="52">
-        <v>3.5</v>
-      </c>
-      <c r="G195" s="52">
-        <v>0.11</v>
-      </c>
-      <c r="H195" s="52">
-        <v>12</v>
-      </c>
-      <c r="I195" s="52">
-        <v>15.5</v>
-      </c>
-      <c r="J195" s="52">
-        <v>2.4</v>
-      </c>
-      <c r="K195" s="53" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="196" spans="1:11" ht="14.25">
       <c r="A196" s="51" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B196" s="52">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="C196" s="52">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="D196" s="52">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E196" s="52">
         <v>12</v>
       </c>
       <c r="F196" s="52">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="G196" s="52">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="H196" s="52">
         <v>12</v>
       </c>
       <c r="I196" s="52">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="J196" s="52">
-        <v>2.9</v>
-      </c>
-      <c r="K196" s="54"/>
+        <v>2.4</v>
+      </c>
+      <c r="K196" s="53" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="197" spans="1:11" ht="14.25">
       <c r="A197" s="51" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B197" s="52">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C197" s="52">
         <v>3.2</v>
       </c>
       <c r="D197" s="52">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E197" s="52">
         <v>12</v>
       </c>
       <c r="F197" s="52">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="G197" s="52">
         <v>0.12</v>
@@ -7022,7 +7092,7 @@
         <v>12</v>
       </c>
       <c r="I197" s="52">
-        <v>19.600000000000001</v>
+        <v>18</v>
       </c>
       <c r="J197" s="52">
         <v>2.9</v>
@@ -7031,22 +7101,22 @@
     </row>
     <row r="198" spans="1:11" ht="14.25">
       <c r="A198" s="51" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B198" s="52">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C198" s="52">
         <v>3.2</v>
       </c>
       <c r="D198" s="52">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E198" s="52">
         <v>12</v>
       </c>
       <c r="F198" s="52">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="G198" s="52">
         <v>0.12</v>
@@ -7055,7 +7125,7 @@
         <v>12</v>
       </c>
       <c r="I198" s="52">
-        <v>17.7</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="J198" s="52">
         <v>2.9</v>
@@ -7064,43 +7134,43 @@
     </row>
     <row r="199" spans="1:11" ht="14.25">
       <c r="A199" s="51" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B199" s="52">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="C199" s="52">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="D199" s="52">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E199" s="52">
         <v>12</v>
       </c>
       <c r="F199" s="52">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="G199" s="52">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="H199" s="52">
         <v>12</v>
       </c>
       <c r="I199" s="52">
-        <v>15.6</v>
+        <v>17.7</v>
       </c>
       <c r="J199" s="52">
-        <v>1.3</v>
+        <v>2.9</v>
       </c>
       <c r="K199" s="54"/>
     </row>
     <row r="200" spans="1:11" ht="14.25">
       <c r="A200" s="51" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B200" s="52">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C200" s="52">
         <v>1.4</v>
@@ -7130,13 +7200,13 @@
     </row>
     <row r="201" spans="1:11" ht="14.25">
       <c r="A201" s="51" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B201" s="52">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C201" s="52">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="D201" s="52">
         <v>12</v>
@@ -7145,7 +7215,7 @@
         <v>12</v>
       </c>
       <c r="F201" s="52">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="G201" s="52">
         <v>0.17</v>
@@ -7154,22 +7224,22 @@
         <v>12</v>
       </c>
       <c r="I201" s="52">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="J201" s="52">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="K201" s="54"/>
     </row>
     <row r="202" spans="1:11" ht="14.25">
       <c r="A202" s="51" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B202" s="52">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C202" s="52">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="D202" s="52">
         <v>12</v>
@@ -7178,134 +7248,134 @@
         <v>12</v>
       </c>
       <c r="F202" s="52">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="G202" s="52">
-        <v>0.09</v>
+        <v>0.17</v>
       </c>
       <c r="H202" s="52">
         <v>12</v>
       </c>
       <c r="I202" s="52">
-        <v>15.2</v>
+        <v>16</v>
       </c>
       <c r="J202" s="52">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="K202" s="54"/>
     </row>
     <row r="203" spans="1:11" ht="14.25">
       <c r="A203" s="51" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B203" s="52">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="C203" s="52">
-        <v>0.2</v>
+        <v>3.1</v>
       </c>
       <c r="D203" s="52">
-        <v>6.6</v>
+        <v>12</v>
       </c>
       <c r="E203" s="52">
-        <v>6.3</v>
+        <v>12</v>
       </c>
       <c r="F203" s="52">
-        <v>10</v>
+        <v>3.2</v>
       </c>
       <c r="G203" s="52">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="H203" s="52">
         <v>12</v>
       </c>
       <c r="I203" s="52">
-        <v>16.600000000000001</v>
+        <v>15.2</v>
       </c>
       <c r="J203" s="52">
-        <v>0.2</v>
-      </c>
-      <c r="K203" s="55" t="s">
-        <v>162</v>
-      </c>
+        <v>2.8</v>
+      </c>
+      <c r="K203" s="54"/>
     </row>
     <row r="204" spans="1:11" ht="14.25">
       <c r="A204" s="51" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B204" s="52">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C204" s="52">
         <v>0.2</v>
       </c>
       <c r="D204" s="52">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="E204" s="52">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="F204" s="52">
         <v>10</v>
       </c>
       <c r="G204" s="52">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="H204" s="52">
-        <v>11.4</v>
+        <v>12</v>
       </c>
       <c r="I204" s="52">
-        <v>16.399999999999999</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="J204" s="52">
         <v>0.2</v>
       </c>
-      <c r="K204" s="53" t="s">
+      <c r="K204" s="55" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="205" spans="1:11" ht="14.25">
       <c r="A205" s="51" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B205" s="52">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C205" s="52">
-        <v>3.1</v>
+        <v>0.2</v>
       </c>
       <c r="D205" s="52">
-        <v>11</v>
+        <v>6.4</v>
       </c>
       <c r="E205" s="52">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F205" s="52">
-        <v>3.2</v>
+        <v>10</v>
       </c>
       <c r="G205" s="52">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="H205" s="52">
-        <v>11</v>
+        <v>11.4</v>
       </c>
       <c r="I205" s="52">
-        <v>14.2</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="J205" s="52">
-        <v>2.8</v>
-      </c>
-      <c r="K205" s="54"/>
+        <v>0.2</v>
+      </c>
+      <c r="K205" s="53" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="206" spans="1:11" ht="14.25">
       <c r="A206" s="51" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B206" s="52">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C206" s="52">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="D206" s="52">
         <v>11</v>
@@ -7314,87 +7384,85 @@
         <v>11</v>
       </c>
       <c r="F206" s="52">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="G206" s="52">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="H206" s="52">
         <v>11</v>
       </c>
       <c r="I206" s="52">
-        <v>14.6</v>
+        <v>14.2</v>
       </c>
       <c r="J206" s="52">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="K206" s="54"/>
     </row>
     <row r="207" spans="1:11" ht="14.25">
       <c r="A207" s="51" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B207" s="52">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="C207" s="52">
-        <v>2.2999999999999998</v>
+        <v>2.1</v>
       </c>
       <c r="D207" s="52">
-        <v>5.7</v>
+        <v>11</v>
       </c>
       <c r="E207" s="52">
-        <v>5.4</v>
+        <v>11</v>
       </c>
       <c r="F207" s="52">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="G207" s="52">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="H207" s="52">
-        <v>10.3</v>
+        <v>11</v>
       </c>
       <c r="I207" s="52">
-        <v>8.8000000000000007</v>
+        <v>14.6</v>
       </c>
       <c r="J207" s="52">
-        <v>2.1</v>
-      </c>
-      <c r="K207" s="53" t="s">
-        <v>162</v>
-      </c>
+        <v>1.9</v>
+      </c>
+      <c r="K207" s="54"/>
     </row>
     <row r="208" spans="1:11" ht="14.25">
       <c r="A208" s="51" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B208" s="52">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C208" s="52">
-        <v>0.9</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D208" s="52">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="E208" s="52">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="F208" s="52">
-        <v>5.6</v>
+        <v>3.1</v>
       </c>
       <c r="G208" s="52">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="H208" s="52">
-        <v>10.1</v>
+        <v>10.3</v>
       </c>
       <c r="I208" s="52">
-        <v>10.9</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="J208" s="52">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="K208" s="53" t="s">
         <v>162</v>
@@ -7402,7 +7470,7 @@
     </row>
     <row r="209" spans="1:11" ht="14.25">
       <c r="A209" s="51" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B209" s="52">
         <v>52</v>
@@ -7437,46 +7505,48 @@
     </row>
     <row r="210" spans="1:11" ht="14.25">
       <c r="A210" s="51" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B210" s="52">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C210" s="52">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="D210" s="52">
-        <v>10</v>
+        <v>5.3</v>
       </c>
       <c r="E210" s="52">
-        <v>9.9</v>
+        <v>5.3</v>
       </c>
       <c r="F210" s="52">
-        <v>3.8</v>
+        <v>5.6</v>
       </c>
       <c r="G210" s="52">
         <v>0.12</v>
       </c>
       <c r="H210" s="52">
-        <v>9.9</v>
+        <v>10.1</v>
       </c>
       <c r="I210" s="52">
-        <v>13.8</v>
+        <v>10.9</v>
       </c>
       <c r="J210" s="52">
-        <v>0.5</v>
-      </c>
-      <c r="K210" s="54"/>
+        <v>0.8</v>
+      </c>
+      <c r="K210" s="53" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="211" spans="1:11" ht="14.25">
       <c r="A211" s="51" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B211" s="52">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C211" s="52">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="D211" s="52">
         <v>10</v>
@@ -7488,7 +7558,7 @@
         <v>3.8</v>
       </c>
       <c r="G211" s="52">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="H211" s="52">
         <v>9.9</v>
@@ -7497,51 +7567,49 @@
         <v>13.8</v>
       </c>
       <c r="J211" s="52">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="K211" s="54"/>
     </row>
     <row r="212" spans="1:11" ht="14.25">
       <c r="A212" s="51" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B212" s="52">
         <v>60</v>
       </c>
       <c r="C212" s="52">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D212" s="52">
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="E212" s="52">
-        <v>5.2</v>
+        <v>9.9</v>
       </c>
       <c r="F212" s="52">
-        <v>8.4</v>
+        <v>3.8</v>
       </c>
       <c r="G212" s="52">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="H212" s="52">
         <v>9.9</v>
       </c>
       <c r="I212" s="52">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="J212" s="52">
-        <v>0.5</v>
-      </c>
-      <c r="K212" s="51" t="s">
-        <v>162</v>
-      </c>
+        <v>0.4</v>
+      </c>
+      <c r="K212" s="54"/>
     </row>
     <row r="213" spans="1:11" ht="14.25">
       <c r="A213" s="51" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B213" s="52">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C213" s="52">
         <v>0.5</v>
@@ -7553,7 +7621,7 @@
         <v>5.2</v>
       </c>
       <c r="F213" s="52">
-        <v>8.3000000000000007</v>
+        <v>8.4</v>
       </c>
       <c r="G213" s="52">
         <v>0.17</v>
@@ -7562,7 +7630,7 @@
         <v>9.9</v>
       </c>
       <c r="I213" s="52">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="J213" s="52">
         <v>0.5</v>
@@ -7573,64 +7641,66 @@
     </row>
     <row r="214" spans="1:11" ht="14.25">
       <c r="A214" s="51" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B214" s="52">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C214" s="52">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="D214" s="52">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="E214" s="52">
-        <v>9.8000000000000007</v>
+        <v>5.2</v>
       </c>
       <c r="F214" s="52">
-        <v>3.9</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="G214" s="52">
-        <v>0.09</v>
+        <v>0.17</v>
       </c>
       <c r="H214" s="52">
-        <v>9.8000000000000007</v>
+        <v>9.9</v>
       </c>
       <c r="I214" s="52">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="J214" s="52">
-        <v>1.3</v>
-      </c>
-      <c r="K214" s="54"/>
+        <v>0.5</v>
+      </c>
+      <c r="K214" s="51" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="215" spans="1:11" ht="14.25">
       <c r="A215" s="51" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B215" s="52">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C215" s="52">
         <v>1.4</v>
       </c>
       <c r="D215" s="52">
-        <v>9.6999999999999993</v>
+        <v>10</v>
       </c>
       <c r="E215" s="52">
-        <v>9.5</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="F215" s="52">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="G215" s="52">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="H215" s="52">
-        <v>9.5</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="I215" s="52">
-        <v>13.5</v>
+        <v>13.9</v>
       </c>
       <c r="J215" s="52">
         <v>1.3</v>
@@ -7639,10 +7709,10 @@
     </row>
     <row r="216" spans="1:11" ht="14.25">
       <c r="A216" s="51" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B216" s="52">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C216" s="52">
         <v>1.4</v>
@@ -7672,22 +7742,22 @@
     </row>
     <row r="217" spans="1:11" ht="14.25">
       <c r="A217" s="51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B217" s="52">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="C217" s="52">
-        <v>2.2999999999999998</v>
+        <v>1.4</v>
       </c>
       <c r="D217" s="52">
-        <v>5.3</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="E217" s="52">
-        <v>5</v>
+        <v>9.5</v>
       </c>
       <c r="F217" s="52">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="G217" s="52">
         <v>0.1</v>
@@ -7696,233 +7766,231 @@
         <v>9.5</v>
       </c>
       <c r="I217" s="52">
-        <v>8.4</v>
+        <v>13.5</v>
       </c>
       <c r="J217" s="52">
-        <v>2.1</v>
-      </c>
-      <c r="K217" s="51" t="s">
-        <v>162</v>
-      </c>
+        <v>1.3</v>
+      </c>
+      <c r="K217" s="54"/>
     </row>
     <row r="218" spans="1:11" ht="14.25">
       <c r="A218" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B218" s="52">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C218" s="52">
-        <v>0.5</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D218" s="52">
+        <v>5.3</v>
+      </c>
+      <c r="E218" s="52">
         <v>5</v>
       </c>
-      <c r="E218" s="52">
-        <v>4.9000000000000004</v>
-      </c>
       <c r="F218" s="52">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="G218" s="52">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="H218" s="52">
-        <v>9.3000000000000007</v>
+        <v>9.5</v>
       </c>
       <c r="I218" s="52">
-        <v>11</v>
+        <v>8.4</v>
       </c>
       <c r="J218" s="52">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="K218" s="51" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="219" spans="1:11" ht="28.5">
-      <c r="A219" s="56" t="s">
+    <row r="219" spans="1:11" ht="14.25">
+      <c r="A219" s="51" t="s">
+        <v>201</v>
+      </c>
+      <c r="B219" s="52">
+        <v>50</v>
+      </c>
+      <c r="C219" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="D219" s="52">
+        <v>5</v>
+      </c>
+      <c r="E219" s="52">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F219" s="52">
+        <v>6</v>
+      </c>
+      <c r="G219" s="52">
+        <v>0.11</v>
+      </c>
+      <c r="H219" s="52">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="I219" s="52">
+        <v>11</v>
+      </c>
+      <c r="J219" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="K219" s="51" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" ht="28.5">
+      <c r="A220" s="56" t="s">
         <v>202</v>
       </c>
-      <c r="B219" s="14">
+      <c r="B220" s="14">
         <v>58</v>
       </c>
-      <c r="C219" s="14">
+      <c r="C220" s="14">
         <v>1.5</v>
       </c>
-      <c r="D219" s="14">
+      <c r="D220" s="14">
         <v>4.9000000000000004</v>
       </c>
-      <c r="E219" s="14">
+      <c r="E220" s="14">
         <v>4.9000000000000004</v>
       </c>
-      <c r="F219" s="14">
+      <c r="F220" s="14">
         <v>6.1</v>
       </c>
-      <c r="G219" s="14">
+      <c r="G220" s="14">
         <v>0.1</v>
       </c>
-      <c r="H219" s="14">
+      <c r="H220" s="14">
         <v>9.3000000000000007</v>
       </c>
-      <c r="I219" s="14">
+      <c r="I220" s="14">
         <v>11</v>
       </c>
-      <c r="J219" s="14">
+      <c r="J220" s="14">
         <v>1.4</v>
       </c>
-      <c r="K219" s="53" t="s">
+      <c r="K220" s="53" t="s">
         <v>203</v>
-      </c>
-    </row>
-    <row r="220" spans="1:11" ht="14.25">
-      <c r="A220" s="51" t="s">
-        <v>204</v>
-      </c>
-      <c r="B220" s="52">
-        <v>65</v>
-      </c>
-      <c r="C220" s="52">
-        <v>1</v>
-      </c>
-      <c r="D220" s="52">
-        <v>6</v>
-      </c>
-      <c r="E220" s="52">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="F220" s="52">
-        <v>6.1</v>
-      </c>
-      <c r="G220" s="52">
-        <v>0.1</v>
-      </c>
-      <c r="H220" s="52">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="I220" s="52">
-        <v>12.1</v>
-      </c>
-      <c r="J220" s="52">
-        <v>0.9</v>
-      </c>
-      <c r="K220" s="51" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="221" spans="1:11" ht="14.25">
       <c r="A221" s="51" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B221" s="52">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C221" s="52">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="D221" s="52">
-        <v>9.6</v>
+        <v>6</v>
       </c>
       <c r="E221" s="52">
-        <v>9.1999999999999993</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F221" s="52">
-        <v>3.8</v>
+        <v>6.1</v>
       </c>
       <c r="G221" s="52">
         <v>0.1</v>
       </c>
       <c r="H221" s="52">
-        <v>9.1999999999999993</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="I221" s="52">
-        <v>13.4</v>
+        <v>12.1</v>
       </c>
       <c r="J221" s="52">
-        <v>1.2</v>
-      </c>
-      <c r="K221" s="54"/>
+        <v>0.9</v>
+      </c>
+      <c r="K221" s="51" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="222" spans="1:11" ht="14.25">
       <c r="A222" s="51" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B222" s="52">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C222" s="52">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="D222" s="52">
-        <v>9.1</v>
+        <v>9.6</v>
       </c>
       <c r="E222" s="52">
-        <v>9.1</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="F222" s="52">
-        <v>4.8</v>
+        <v>3.8</v>
       </c>
       <c r="G222" s="52">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="H222" s="52">
-        <v>9.1</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="I222" s="52">
-        <v>13.9</v>
+        <v>13.4</v>
       </c>
       <c r="J222" s="52">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="K222" s="54"/>
     </row>
     <row r="223" spans="1:11" ht="14.25">
       <c r="A223" s="51" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B223" s="52">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="C223" s="52">
-        <v>1.8</v>
+        <v>0.4</v>
       </c>
       <c r="D223" s="52">
-        <v>8.6999999999999993</v>
+        <v>9.1</v>
       </c>
       <c r="E223" s="52">
-        <v>4.7</v>
+        <v>9.1</v>
       </c>
       <c r="F223" s="52">
-        <v>10</v>
+        <v>4.8</v>
       </c>
       <c r="G223" s="52">
-        <v>0.22</v>
+        <v>0.09</v>
       </c>
       <c r="H223" s="52">
-        <v>8.9</v>
+        <v>9.1</v>
       </c>
       <c r="I223" s="52">
-        <v>18.7</v>
+        <v>13.9</v>
       </c>
       <c r="J223" s="52">
-        <v>1.6</v>
-      </c>
-      <c r="K223" s="51" t="s">
-        <v>162</v>
-      </c>
+        <v>0.4</v>
+      </c>
+      <c r="K223" s="54"/>
     </row>
     <row r="224" spans="1:11" ht="14.25">
       <c r="A224" s="51" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B224" s="52">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C224" s="52">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="D224" s="52">
-        <v>7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="E224" s="52">
         <v>4.7</v>
@@ -7931,16 +7999,16 @@
         <v>10</v>
       </c>
       <c r="G224" s="52">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="H224" s="52">
         <v>8.9</v>
       </c>
       <c r="I224" s="52">
-        <v>17</v>
+        <v>18.7</v>
       </c>
       <c r="J224" s="52">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="K224" s="51" t="s">
         <v>162</v>
@@ -7948,16 +8016,16 @@
     </row>
     <row r="225" spans="1:11" ht="14.25">
       <c r="A225" s="51" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B225" s="52">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C225" s="52">
         <v>1.5</v>
       </c>
       <c r="D225" s="52">
-        <v>7.9</v>
+        <v>7</v>
       </c>
       <c r="E225" s="52">
         <v>4.7</v>
@@ -7966,13 +8034,13 @@
         <v>10</v>
       </c>
       <c r="G225" s="52">
-        <v>0.28999999999999998</v>
+        <v>0.21</v>
       </c>
       <c r="H225" s="52">
         <v>8.9</v>
       </c>
       <c r="I225" s="52">
-        <v>17.899999999999999</v>
+        <v>17</v>
       </c>
       <c r="J225" s="52">
         <v>1.4</v>
@@ -7983,34 +8051,34 @@
     </row>
     <row r="226" spans="1:11" ht="14.25">
       <c r="A226" s="51" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B226" s="52">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="C226" s="52">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="D226" s="52">
-        <v>4.9000000000000004</v>
+        <v>7.9</v>
       </c>
       <c r="E226" s="52">
         <v>4.7</v>
       </c>
       <c r="F226" s="52">
-        <v>5.7</v>
+        <v>10</v>
       </c>
       <c r="G226" s="52">
-        <v>0.17</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="H226" s="52">
         <v>8.9</v>
       </c>
       <c r="I226" s="52">
-        <v>10.6</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="J226" s="52">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="K226" s="51" t="s">
         <v>162</v>
@@ -8018,152 +8086,152 @@
     </row>
     <row r="227" spans="1:11" ht="14.25">
       <c r="A227" s="51" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B227" s="52">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C227" s="52">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="D227" s="52">
-        <v>9.5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="E227" s="52">
-        <v>8.8000000000000007</v>
+        <v>4.7</v>
       </c>
       <c r="F227" s="52">
-        <v>3.8</v>
+        <v>5.7</v>
       </c>
       <c r="G227" s="52">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
       <c r="H227" s="52">
-        <v>8.8000000000000007</v>
+        <v>8.9</v>
       </c>
       <c r="I227" s="52">
-        <v>13.3</v>
+        <v>10.6</v>
       </c>
       <c r="J227" s="52">
-        <v>1.2</v>
-      </c>
-      <c r="K227" s="54"/>
+        <v>0.8</v>
+      </c>
+      <c r="K227" s="51" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="228" spans="1:11" ht="14.25">
       <c r="A228" s="51" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B228" s="52">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="C228" s="52">
-        <v>0.3</v>
+        <v>1.3</v>
       </c>
       <c r="D228" s="52">
-        <v>5.6</v>
+        <v>9.5</v>
       </c>
       <c r="E228" s="52">
-        <v>4.5999999999999996</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="F228" s="52">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="G228" s="52">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="H228" s="52">
-        <v>8.6999999999999993</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="I228" s="52">
-        <v>11.6</v>
+        <v>13.3</v>
       </c>
       <c r="J228" s="52">
-        <v>0.3</v>
-      </c>
-      <c r="K228" s="51" t="s">
-        <v>162</v>
-      </c>
+        <v>1.2</v>
+      </c>
+      <c r="K228" s="54"/>
     </row>
     <row r="229" spans="1:11" ht="14.25">
       <c r="A229" s="51" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B229" s="52">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C229" s="52">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="D229" s="52">
-        <v>8.6999999999999993</v>
+        <v>5.6</v>
       </c>
       <c r="E229" s="52">
-        <v>8.6999999999999993</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F229" s="52">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="G229" s="52">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="H229" s="52">
         <v>8.6999999999999993</v>
       </c>
       <c r="I229" s="52">
-        <v>12.2</v>
+        <v>11.6</v>
       </c>
       <c r="J229" s="52">
-        <v>1.8</v>
-      </c>
-      <c r="K229" s="54"/>
+        <v>0.3</v>
+      </c>
+      <c r="K229" s="51" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="230" spans="1:11" ht="14.25">
       <c r="A230" s="51" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B230" s="52">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="C230" s="52">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="D230" s="52">
-        <v>4.7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="E230" s="52">
-        <v>4.5</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="F230" s="52">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="G230" s="52">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="H230" s="52">
-        <v>8.6</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="I230" s="52">
         <v>12.2</v>
       </c>
       <c r="J230" s="52">
-        <v>0.2</v>
-      </c>
-      <c r="K230" s="51" t="s">
-        <v>162</v>
-      </c>
+        <v>1.8</v>
+      </c>
+      <c r="K230" s="54"/>
     </row>
     <row r="231" spans="1:11" ht="14.25">
       <c r="A231" s="51" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B231" s="52">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C231" s="52">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D231" s="52">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="E231" s="52">
         <v>4.5</v>
@@ -8178,10 +8246,10 @@
         <v>8.6</v>
       </c>
       <c r="I231" s="52">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="J231" s="52">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K231" s="51" t="s">
         <v>162</v>
@@ -8189,34 +8257,34 @@
     </row>
     <row r="232" spans="1:11" ht="14.25">
       <c r="A232" s="51" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B232" s="52">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C232" s="52">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="D232" s="52">
-        <v>5.3</v>
+        <v>4.5</v>
       </c>
       <c r="E232" s="52">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="F232" s="52">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="G232" s="52">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="H232" s="52">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="I232" s="52">
-        <v>11.3</v>
+        <v>12</v>
       </c>
       <c r="J232" s="52">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="K232" s="51" t="s">
         <v>162</v>
@@ -8224,205 +8292,205 @@
     </row>
     <row r="233" spans="1:11" ht="14.25">
       <c r="A233" s="51" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B233" s="52">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C233" s="52">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D233" s="52">
-        <v>8.3000000000000007</v>
+        <v>5.3</v>
       </c>
       <c r="E233" s="52">
-        <v>8.3000000000000007</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F233" s="52">
-        <v>4.9000000000000004</v>
+        <v>6</v>
       </c>
       <c r="G233" s="52">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="H233" s="52">
-        <v>8.3000000000000007</v>
+        <v>8.4</v>
       </c>
       <c r="I233" s="52">
-        <v>13.2</v>
+        <v>11.3</v>
       </c>
       <c r="J233" s="52">
-        <v>0.5</v>
-      </c>
-      <c r="K233" s="54"/>
+        <v>0.3</v>
+      </c>
+      <c r="K233" s="51" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="234" spans="1:11" ht="14.25">
       <c r="A234" s="51" t="s">
+        <v>217</v>
+      </c>
+      <c r="B234" s="52">
+        <v>59</v>
+      </c>
+      <c r="C234" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="D234" s="52">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E234" s="52">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F234" s="52">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G234" s="52">
+        <v>0.1</v>
+      </c>
+      <c r="H234" s="52">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I234" s="52">
+        <v>13.2</v>
+      </c>
+      <c r="J234" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="K234" s="54"/>
+    </row>
+    <row r="235" spans="1:11" ht="14.25">
+      <c r="A235" s="51" t="s">
         <v>218</v>
       </c>
-      <c r="B234" s="52">
+      <c r="B235" s="52">
         <v>146</v>
       </c>
-      <c r="C234" s="52">
+      <c r="C235" s="52">
         <v>13</v>
       </c>
-      <c r="D234" s="52">
+      <c r="D235" s="52">
         <v>4.2</v>
       </c>
-      <c r="E234" s="52">
+      <c r="E235" s="52">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F234" s="52">
+      <c r="F235" s="52">
         <v>3.1</v>
       </c>
-      <c r="G234" s="52">
+      <c r="G235" s="52">
         <v>0.08</v>
       </c>
-      <c r="H234" s="52">
+      <c r="H235" s="52">
         <v>7.8</v>
       </c>
-      <c r="I234" s="52">
+      <c r="I235" s="52">
         <v>7.3</v>
       </c>
-      <c r="J234" s="52">
+      <c r="J235" s="52">
         <v>11.7</v>
       </c>
-      <c r="K234" s="51" t="s">
+      <c r="K235" s="51" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="235" spans="1:11" ht="28.5">
-      <c r="A235" s="29" t="s">
+    <row r="236" spans="1:11" ht="28.5">
+      <c r="A236" s="29" t="s">
         <v>219</v>
       </c>
-      <c r="B235" s="15">
+      <c r="B236" s="15">
         <v>53</v>
       </c>
-      <c r="C235" s="15">
+      <c r="C236" s="15">
         <v>0.4</v>
       </c>
-      <c r="D235" s="15">
+      <c r="D236" s="15">
         <v>7.5</v>
       </c>
-      <c r="E235" s="15">
+      <c r="E236" s="15">
         <v>7.3</v>
       </c>
-      <c r="F235" s="15">
+      <c r="F236" s="15">
         <v>4</v>
       </c>
-      <c r="G235" s="15">
+      <c r="G236" s="15">
         <v>0.1</v>
       </c>
-      <c r="H235" s="15">
+      <c r="H236" s="15">
         <v>7.3</v>
       </c>
-      <c r="I235" s="15">
+      <c r="I236" s="15">
         <v>11.5</v>
       </c>
-      <c r="J235" s="15">
+      <c r="J236" s="15">
         <v>0.4</v>
       </c>
-      <c r="K235" s="57" t="s">
+      <c r="K236" s="57" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="236" spans="1:11" ht="14.25">
-      <c r="A236" s="51" t="s">
-        <v>221</v>
-      </c>
-      <c r="B236" s="52">
-        <v>53</v>
-      </c>
-      <c r="C236" s="52">
-        <v>0.5</v>
-      </c>
-      <c r="D236" s="52">
-        <v>7.5</v>
-      </c>
-      <c r="E236" s="52">
-        <v>7.2</v>
-      </c>
-      <c r="F236" s="52">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="G236" s="52">
-        <v>0.1</v>
-      </c>
-      <c r="H236" s="52">
-        <v>7.2</v>
-      </c>
-      <c r="I236" s="52">
-        <v>11.6</v>
-      </c>
-      <c r="J236" s="52">
-        <v>0.5</v>
-      </c>
-      <c r="K236" s="54"/>
     </row>
     <row r="237" spans="1:11" ht="14.25">
       <c r="A237" s="51" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B237" s="52">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C237" s="52">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="D237" s="52">
-        <v>3.7</v>
+        <v>7.5</v>
       </c>
       <c r="E237" s="52">
-        <v>3.7</v>
+        <v>7.2</v>
       </c>
       <c r="F237" s="52">
-        <v>3.4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G237" s="52">
         <v>0.1</v>
       </c>
       <c r="H237" s="52">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="I237" s="52">
-        <v>7.1</v>
+        <v>11.6</v>
       </c>
       <c r="J237" s="52">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="K237" s="51" t="s">
-        <v>162</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="K237" s="54"/>
     </row>
     <row r="238" spans="1:11" ht="14.25">
       <c r="A238" s="51" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B238" s="52">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C238" s="52">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="D238" s="52">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="E238" s="52">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="F238" s="52">
-        <v>4.3</v>
+        <v>3.4</v>
       </c>
       <c r="G238" s="52">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="H238" s="52">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="I238" s="52">
-        <v>7.9</v>
+        <v>7.1</v>
       </c>
       <c r="J238" s="52">
-        <v>1.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="K238" s="51" t="s">
         <v>162</v>
@@ -8430,34 +8498,34 @@
     </row>
     <row r="239" spans="1:11" ht="14.25">
       <c r="A239" s="51" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B239" s="52">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C239" s="52">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="D239" s="52">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="E239" s="52">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="F239" s="52">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
       <c r="G239" s="52">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="H239" s="52">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="I239" s="52">
-        <v>7.1</v>
+        <v>7.9</v>
       </c>
       <c r="J239" s="52">
-        <v>1.1000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="K239" s="51" t="s">
         <v>162</v>
@@ -8465,34 +8533,34 @@
     </row>
     <row r="240" spans="1:11" ht="14.25">
       <c r="A240" s="51" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B240" s="52">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C240" s="52">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="D240" s="52">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="E240" s="52">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="F240" s="52">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="G240" s="52">
         <v>0.1</v>
       </c>
       <c r="H240" s="52">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="I240" s="52">
-        <v>8.8000000000000007</v>
+        <v>7.1</v>
       </c>
       <c r="J240" s="52">
-        <v>1.3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K240" s="51" t="s">
         <v>162</v>
@@ -8500,34 +8568,34 @@
     </row>
     <row r="241" spans="1:11" ht="14.25">
       <c r="A241" s="51" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B241" s="52">
-        <v>190</v>
+        <v>48</v>
       </c>
       <c r="C241" s="52">
-        <v>16</v>
+        <v>1.4</v>
       </c>
       <c r="D241" s="52">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="E241" s="52">
         <v>3.3</v>
       </c>
       <c r="F241" s="52">
-        <v>7.8</v>
+        <v>5</v>
       </c>
       <c r="G241" s="52">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="H241" s="52">
         <v>6.3</v>
       </c>
       <c r="I241" s="52">
-        <v>11.1</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="J241" s="52">
-        <v>14.4</v>
+        <v>1.3</v>
       </c>
       <c r="K241" s="51" t="s">
         <v>162</v>
@@ -8535,34 +8603,34 @@
     </row>
     <row r="242" spans="1:11" ht="14.25">
       <c r="A242" s="51" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B242" s="52">
-        <v>345</v>
+        <v>190</v>
       </c>
       <c r="C242" s="52">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="D242" s="52">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="E242" s="52">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="F242" s="52">
-        <v>2.2999999999999998</v>
+        <v>7.8</v>
       </c>
       <c r="G242" s="52">
-        <v>0.06</v>
+        <v>0.8</v>
       </c>
       <c r="H242" s="52">
-        <v>5.5</v>
+        <v>6.3</v>
       </c>
       <c r="I242" s="52">
-        <v>5.2</v>
+        <v>11.1</v>
       </c>
       <c r="J242" s="52">
-        <v>32.4</v>
+        <v>14.4</v>
       </c>
       <c r="K242" s="51" t="s">
         <v>162</v>
@@ -8570,34 +8638,34 @@
     </row>
     <row r="243" spans="1:11" ht="14.25">
       <c r="A243" s="51" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B243" s="52">
-        <v>60</v>
+        <v>345</v>
       </c>
       <c r="C243" s="52">
-        <v>0.2</v>
+        <v>36</v>
       </c>
       <c r="D243" s="52">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="E243" s="52">
         <v>2.9</v>
       </c>
       <c r="F243" s="52">
-        <v>12</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G243" s="52">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="H243" s="52">
         <v>5.5</v>
       </c>
       <c r="I243" s="52">
-        <v>15.2</v>
+        <v>5.2</v>
       </c>
       <c r="J243" s="52">
-        <v>0.2</v>
+        <v>32.4</v>
       </c>
       <c r="K243" s="51" t="s">
         <v>162</v>
@@ -8605,13 +8673,13 @@
     </row>
     <row r="244" spans="1:11" ht="14.25">
       <c r="A244" s="51" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B244" s="52">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C244" s="52">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="D244" s="52">
         <v>3.2</v>
@@ -8620,19 +8688,19 @@
         <v>2.9</v>
       </c>
       <c r="F244" s="52">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G244" s="52">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="H244" s="52">
         <v>5.5</v>
       </c>
       <c r="I244" s="52">
-        <v>11.2</v>
+        <v>15.2</v>
       </c>
       <c r="J244" s="52">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="K244" s="51" t="s">
         <v>162</v>
@@ -8640,16 +8708,16 @@
     </row>
     <row r="245" spans="1:11" ht="14.25">
       <c r="A245" s="51" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B245" s="52">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C245" s="52">
         <v>0.3</v>
       </c>
       <c r="D245" s="52">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="E245" s="52">
         <v>2.9</v>
@@ -8664,7 +8732,7 @@
         <v>5.5</v>
       </c>
       <c r="I245" s="52">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="J245" s="52">
         <v>0.3</v>
@@ -8675,7 +8743,7 @@
     </row>
     <row r="246" spans="1:11" ht="14.25">
       <c r="A246" s="51" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B246" s="52">
         <v>47</v>
@@ -8710,88 +8778,90 @@
     </row>
     <row r="247" spans="1:11" ht="14.25">
       <c r="A247" s="51" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B247" s="52">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C247" s="52">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="D247" s="52">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="E247" s="52">
-        <v>5.5</v>
+        <v>2.9</v>
       </c>
       <c r="F247" s="52">
-        <v>4.0999999999999996</v>
+        <v>8</v>
       </c>
       <c r="G247" s="52">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="H247" s="52">
         <v>5.5</v>
       </c>
       <c r="I247" s="52">
-        <v>9.6</v>
+        <v>11.1</v>
       </c>
       <c r="J247" s="52">
-        <v>0.8</v>
-      </c>
-      <c r="K247" s="54"/>
+        <v>0.3</v>
+      </c>
+      <c r="K247" s="51" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="248" spans="1:11" ht="14.25">
       <c r="A248" s="51" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B248" s="52">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C248" s="52">
-        <v>2.6</v>
+        <v>0.9</v>
       </c>
       <c r="D248" s="52">
-        <v>5.0999999999999996</v>
+        <v>5.5</v>
       </c>
       <c r="E248" s="52">
-        <v>5.0999999999999996</v>
+        <v>5.5</v>
       </c>
       <c r="F248" s="52">
-        <v>3.9</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G248" s="52">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="H248" s="52">
-        <v>5.0999999999999996</v>
+        <v>5.5</v>
       </c>
       <c r="I248" s="52">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="J248" s="52">
-        <v>2.2999999999999998</v>
+        <v>0.8</v>
       </c>
       <c r="K248" s="54"/>
     </row>
     <row r="249" spans="1:11" ht="14.25">
       <c r="A249" s="51" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B249" s="52">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C249" s="52">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="D249" s="52">
-        <v>3</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="E249" s="52">
-        <v>2.7</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="F249" s="52">
-        <v>12</v>
+        <v>3.9</v>
       </c>
       <c r="G249" s="52">
         <v>0.09</v>
@@ -8800,18 +8870,16 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="I249" s="52">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="J249" s="52">
-        <v>0.5</v>
-      </c>
-      <c r="K249" s="51" t="s">
-        <v>162</v>
-      </c>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K249" s="54"/>
     </row>
     <row r="250" spans="1:11" ht="14.25">
       <c r="A250" s="51" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B250" s="52">
         <v>65</v>
@@ -8840,19 +8908,19 @@
       <c r="J250" s="52">
         <v>0.5</v>
       </c>
-      <c r="K250" s="53" t="s">
+      <c r="K250" s="51" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="251" spans="1:11" ht="14.25">
       <c r="A251" s="51" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B251" s="52">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C251" s="52">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="D251" s="52">
         <v>3</v>
@@ -8864,7 +8932,7 @@
         <v>12</v>
       </c>
       <c r="G251" s="52">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="H251" s="52">
         <v>5.0999999999999996</v>
@@ -8873,327 +8941,329 @@
         <v>15</v>
       </c>
       <c r="J251" s="52">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="K251" s="53" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="252" spans="1:11" ht="25.5">
-      <c r="A252" s="58" t="s">
+    <row r="252" spans="1:11" ht="14.25">
+      <c r="A252" s="51" t="s">
+        <v>236</v>
+      </c>
+      <c r="B252" s="52">
+        <v>60</v>
+      </c>
+      <c r="C252" s="52">
+        <v>0.2</v>
+      </c>
+      <c r="D252" s="52">
+        <v>3</v>
+      </c>
+      <c r="E252" s="52">
+        <v>2.7</v>
+      </c>
+      <c r="F252" s="52">
+        <v>12</v>
+      </c>
+      <c r="G252" s="52">
+        <v>0.1</v>
+      </c>
+      <c r="H252" s="52">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="I252" s="52">
+        <v>15</v>
+      </c>
+      <c r="J252" s="52">
+        <v>0.2</v>
+      </c>
+      <c r="K252" s="53" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" ht="25.5">
+      <c r="A253" s="58" t="s">
         <v>237</v>
       </c>
-      <c r="B252" s="59">
+      <c r="B253" s="59">
         <v>147</v>
       </c>
-      <c r="C252" s="59">
+      <c r="C253" s="59">
         <v>11</v>
       </c>
-      <c r="D252" s="59">
+      <c r="D253" s="59">
         <v>5.2</v>
       </c>
-      <c r="E252" s="59">
+      <c r="E253" s="59">
         <v>5.0999999999999996</v>
       </c>
-      <c r="F252" s="59">
+      <c r="F253" s="59">
         <v>7.4</v>
       </c>
-      <c r="G252" s="59">
+      <c r="G253" s="59">
         <v>0.7</v>
       </c>
-      <c r="H252" s="59">
+      <c r="H253" s="59">
         <v>5.0999999999999996</v>
       </c>
-      <c r="I252" s="59">
+      <c r="I253" s="59">
         <v>12.6</v>
       </c>
-      <c r="J252" s="59">
+      <c r="J253" s="59">
         <v>9.9</v>
       </c>
-      <c r="K252" s="60" t="s">
+      <c r="K253" s="60" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="253" spans="1:11" ht="14.25">
-      <c r="A253" s="51" t="s">
-        <v>239</v>
-      </c>
-      <c r="B253" s="52">
-        <v>47</v>
-      </c>
-      <c r="C253" s="52">
-        <v>1</v>
-      </c>
-      <c r="D253" s="52">
-        <v>5.2</v>
-      </c>
-      <c r="E253" s="52">
-        <v>5</v>
-      </c>
-      <c r="F253" s="52">
-        <v>3.9</v>
-      </c>
-      <c r="G253" s="52">
-        <v>0.13</v>
-      </c>
-      <c r="H253" s="52">
-        <v>5</v>
-      </c>
-      <c r="I253" s="52">
-        <v>9.1</v>
-      </c>
-      <c r="J253" s="52">
-        <v>0.9</v>
-      </c>
-      <c r="K253" s="54"/>
     </row>
     <row r="254" spans="1:11" ht="14.25">
       <c r="A254" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B254" s="52">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C254" s="52">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="D254" s="52">
-        <v>3</v>
+        <v>5.2</v>
       </c>
       <c r="E254" s="52">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="F254" s="52">
-        <v>12</v>
+        <v>3.9</v>
       </c>
       <c r="G254" s="52">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="H254" s="52">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="I254" s="52">
-        <v>15</v>
+        <v>9.1</v>
       </c>
       <c r="J254" s="52">
-        <v>0.2</v>
-      </c>
-      <c r="K254" s="53" t="s">
-        <v>162</v>
-      </c>
+        <v>0.9</v>
+      </c>
+      <c r="K254" s="54"/>
     </row>
     <row r="255" spans="1:11" ht="14.25">
       <c r="A255" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B255" s="52">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="C255" s="52">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="D255" s="52">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="E255" s="52">
         <v>2.6</v>
       </c>
       <c r="F255" s="52">
-        <v>3.4</v>
+        <v>12</v>
       </c>
       <c r="G255" s="52">
-        <v>7.0000000000000007E-2</v>
+        <v>0.1</v>
       </c>
       <c r="H255" s="52">
         <v>4.9000000000000004</v>
       </c>
       <c r="I255" s="52">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="J255" s="52">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="K255" s="53" t="s">
-        <v>242</v>
+        <v>162</v>
       </c>
     </row>
     <row r="256" spans="1:11" ht="14.25">
       <c r="A256" s="51" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B256" s="52">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C256" s="52">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D256" s="52">
-        <v>5.0999999999999996</v>
+        <v>2.6</v>
       </c>
       <c r="E256" s="52">
-        <v>4.8</v>
+        <v>2.6</v>
       </c>
       <c r="F256" s="52">
-        <v>8.3000000000000007</v>
+        <v>3.4</v>
       </c>
       <c r="G256" s="52">
-        <v>0.12</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H256" s="52">
-        <v>4.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="I256" s="52">
-        <v>13.4</v>
+        <v>6</v>
       </c>
       <c r="J256" s="52">
-        <v>0.2</v>
-      </c>
-      <c r="K256" s="54"/>
+        <v>0.4</v>
+      </c>
+      <c r="K256" s="53" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="257" spans="1:11" ht="14.25">
       <c r="A257" s="51" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B257" s="52">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="C257" s="52">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="D257" s="52">
-        <v>2.6</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="E257" s="52">
-        <v>2.5</v>
+        <v>4.8</v>
       </c>
       <c r="F257" s="52">
-        <v>3.4</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="G257" s="52">
-        <v>7.0000000000000007E-2</v>
+        <v>0.12</v>
       </c>
       <c r="H257" s="52">
         <v>4.8</v>
       </c>
       <c r="I257" s="52">
+        <v>13.4</v>
+      </c>
+      <c r="J257" s="52">
+        <v>0.2</v>
+      </c>
+      <c r="K257" s="54"/>
+    </row>
+    <row r="258" spans="1:11" ht="14.25">
+      <c r="A258" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="B258" s="52">
+        <v>38</v>
+      </c>
+      <c r="C258" s="52">
+        <v>1.5</v>
+      </c>
+      <c r="D258" s="52">
+        <v>2.6</v>
+      </c>
+      <c r="E258" s="52">
+        <v>2.5</v>
+      </c>
+      <c r="F258" s="52">
+        <v>3.4</v>
+      </c>
+      <c r="G258" s="52">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H258" s="52">
+        <v>4.8</v>
+      </c>
+      <c r="I258" s="52">
         <v>6</v>
       </c>
-      <c r="J257" s="52">
+      <c r="J258" s="52">
         <v>1.4</v>
       </c>
-      <c r="K257" s="53" t="s">
+      <c r="K258" s="53" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="258" spans="1:11" ht="28.5">
-      <c r="A258" s="56" t="s">
+    <row r="259" spans="1:11" ht="28.5">
+      <c r="A259" s="56" t="s">
         <v>245</v>
       </c>
-      <c r="B258" s="14">
+      <c r="B259" s="14">
         <v>64</v>
       </c>
-      <c r="C258" s="14">
+      <c r="C259" s="14">
         <v>3.5</v>
       </c>
-      <c r="D258" s="14">
+      <c r="D259" s="14">
         <v>4.5999999999999996</v>
       </c>
-      <c r="E258" s="14">
+      <c r="E259" s="14">
         <v>4.5999999999999996</v>
       </c>
-      <c r="F258" s="14">
+      <c r="F259" s="14">
         <v>3.4</v>
       </c>
-      <c r="G258" s="14">
+      <c r="G259" s="14">
         <v>0.1</v>
       </c>
-      <c r="H258" s="14">
+      <c r="H259" s="14">
         <v>4.5999999999999996</v>
       </c>
-      <c r="I258" s="14">
+      <c r="I259" s="14">
         <v>8</v>
       </c>
-      <c r="J258" s="14">
+      <c r="J259" s="14">
         <v>3.2</v>
       </c>
-      <c r="K258" s="53" t="s">
+      <c r="K259" s="53" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="259" spans="1:11" ht="28.5">
-      <c r="A259" s="51" t="s">
+    <row r="260" spans="1:11" ht="28.5">
+      <c r="A260" s="51" t="s">
         <v>247</v>
       </c>
-      <c r="B259" s="52">
+      <c r="B260" s="52">
         <v>46</v>
       </c>
-      <c r="C259" s="52">
+      <c r="C260" s="52">
         <v>1.5</v>
       </c>
-      <c r="D259" s="52">
+      <c r="D260" s="52">
         <v>4.5999999999999996</v>
       </c>
-      <c r="E259" s="52">
+      <c r="E260" s="52">
         <v>4.5999999999999996</v>
       </c>
-      <c r="F259" s="52">
+      <c r="F260" s="52">
         <v>3.5</v>
       </c>
-      <c r="G259" s="52">
+      <c r="G260" s="52">
         <v>0.11</v>
       </c>
-      <c r="H259" s="52">
+      <c r="H260" s="52">
         <v>4.5999999999999996</v>
       </c>
-      <c r="I259" s="52">
+      <c r="I260" s="52">
         <v>8.1</v>
       </c>
-      <c r="J259" s="52">
+      <c r="J260" s="52">
         <v>1.4</v>
       </c>
-      <c r="K259" s="53" t="s">
+      <c r="K260" s="53" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="260" spans="1:11" ht="14.25">
-      <c r="A260" s="51" t="s">
-        <v>249</v>
-      </c>
-      <c r="B260" s="52">
-        <v>40</v>
-      </c>
-      <c r="C260" s="52">
-        <v>0.1</v>
-      </c>
-      <c r="D260" s="52">
-        <v>4.8</v>
-      </c>
-      <c r="E260" s="52">
-        <v>4.5</v>
-      </c>
-      <c r="F260" s="52">
-        <v>4.2</v>
-      </c>
-      <c r="G260" s="52">
-        <v>0.13</v>
-      </c>
-      <c r="H260" s="52">
-        <v>4.5</v>
-      </c>
-      <c r="I260" s="52">
-        <v>9</v>
-      </c>
-      <c r="J260" s="52">
-        <v>0.1</v>
-      </c>
-      <c r="K260" s="54"/>
     </row>
     <row r="261" spans="1:11" ht="14.25">
       <c r="A261" s="51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B261" s="52">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C261" s="52">
         <v>0.1</v>
@@ -9205,7 +9275,7 @@
         <v>4.5</v>
       </c>
       <c r="F261" s="52">
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="G261" s="52">
         <v>0.13</v>
@@ -9214,7 +9284,7 @@
         <v>4.5</v>
       </c>
       <c r="I261" s="52">
-        <v>9.1999999999999993</v>
+        <v>9</v>
       </c>
       <c r="J261" s="52">
         <v>0.1</v>
@@ -9223,211 +9293,211 @@
     </row>
     <row r="262" spans="1:11" ht="14.25">
       <c r="A262" s="51" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B262" s="52">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="C262" s="52">
-        <v>8</v>
+        <v>0.1</v>
       </c>
       <c r="D262" s="52">
-        <v>6.7</v>
+        <v>4.8</v>
       </c>
       <c r="E262" s="52">
+        <v>4.5</v>
+      </c>
+      <c r="F262" s="52">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F262" s="52">
-        <v>3.5</v>
-      </c>
       <c r="G262" s="52">
+        <v>0.13</v>
+      </c>
+      <c r="H262" s="52">
+        <v>4.5</v>
+      </c>
+      <c r="I262" s="52">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="J262" s="52">
         <v>0.1</v>
       </c>
-      <c r="H262" s="52">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="I262" s="52">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="J262" s="52">
-        <v>7.2</v>
-      </c>
-      <c r="K262" s="53" t="s">
-        <v>252</v>
-      </c>
+      <c r="K262" s="54"/>
     </row>
     <row r="263" spans="1:11" ht="14.25">
       <c r="A263" s="51" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B263" s="52">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C263" s="52">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D263" s="52">
-        <v>4.3</v>
+        <v>6.7</v>
       </c>
       <c r="E263" s="52">
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F263" s="52">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="G263" s="52">
         <v>0.1</v>
       </c>
       <c r="H263" s="52">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I263" s="52">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="J263" s="52">
+        <v>7.2</v>
+      </c>
+      <c r="K263" s="53" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" ht="14.25">
+      <c r="A264" s="51" t="s">
+        <v>253</v>
+      </c>
+      <c r="B264" s="52">
+        <v>120</v>
+      </c>
+      <c r="C264" s="52">
+        <v>10</v>
+      </c>
+      <c r="D264" s="52">
         <v>4.3</v>
       </c>
-      <c r="I263" s="52">
+      <c r="E264" s="52">
+        <v>4.3</v>
+      </c>
+      <c r="F264" s="52">
+        <v>3.1</v>
+      </c>
+      <c r="G264" s="52">
+        <v>0.1</v>
+      </c>
+      <c r="H264" s="52">
+        <v>4.3</v>
+      </c>
+      <c r="I264" s="52">
         <v>7.4</v>
       </c>
-      <c r="J263" s="52">
+      <c r="J264" s="52">
         <v>9</v>
       </c>
-      <c r="K263" s="54"/>
-    </row>
-    <row r="264" spans="1:11" ht="28.5">
-      <c r="A264" s="56" t="s">
+      <c r="K264" s="54"/>
+    </row>
+    <row r="265" spans="1:11" ht="28.5">
+      <c r="A265" s="56" t="s">
         <v>254</v>
       </c>
-      <c r="B264" s="14">
+      <c r="B265" s="14">
         <v>226</v>
       </c>
-      <c r="C264" s="14">
+      <c r="C265" s="14">
         <v>21</v>
       </c>
-      <c r="D264" s="14">
+      <c r="D265" s="14">
         <v>4.3</v>
       </c>
-      <c r="E264" s="14">
+      <c r="E265" s="14">
         <v>4.3</v>
       </c>
-      <c r="F264" s="14">
+      <c r="F265" s="14">
         <v>5.4</v>
       </c>
-      <c r="G264" s="14">
+      <c r="G265" s="14">
         <v>0.75</v>
       </c>
-      <c r="H264" s="14">
+      <c r="H265" s="14">
         <v>4.3</v>
       </c>
-      <c r="I264" s="14">
+      <c r="I265" s="14">
         <v>9.6999999999999993</v>
       </c>
-      <c r="J264" s="14">
+      <c r="J265" s="14">
         <v>18.899999999999999</v>
       </c>
-      <c r="K264" s="53" t="s">
+      <c r="K265" s="53" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="265" spans="1:11" ht="14.25">
-      <c r="A265" s="51" t="s">
-        <v>256</v>
-      </c>
-      <c r="B265" s="52">
-        <v>55</v>
-      </c>
-      <c r="C265" s="52">
-        <v>0.2</v>
-      </c>
-      <c r="D265" s="52">
-        <v>4.5</v>
-      </c>
-      <c r="E265" s="52">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="F265" s="52">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="G265" s="52">
-        <v>0.15</v>
-      </c>
-      <c r="H265" s="52">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="I265" s="52">
-        <v>12.7</v>
-      </c>
-      <c r="J265" s="52">
-        <v>0.2</v>
-      </c>
-      <c r="K265" s="54"/>
     </row>
     <row r="266" spans="1:11" ht="14.25">
       <c r="A266" s="51" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B266" s="52">
-        <v>171</v>
+        <v>55</v>
       </c>
       <c r="C266" s="52">
-        <v>15</v>
+        <v>0.2</v>
       </c>
       <c r="D266" s="52">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="E266" s="52">
         <v>4.0999999999999996</v>
       </c>
       <c r="F266" s="52">
-        <v>3.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="G266" s="52">
-        <v>0.09</v>
+        <v>0.15</v>
       </c>
       <c r="H266" s="52">
         <v>4.0999999999999996</v>
       </c>
       <c r="I266" s="52">
-        <v>9.1999999999999993</v>
+        <v>12.7</v>
       </c>
       <c r="J266" s="52">
-        <v>13.5</v>
-      </c>
-      <c r="K266" s="53" t="s">
-        <v>252</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="K266" s="54"/>
     </row>
     <row r="267" spans="1:11" ht="14.25">
       <c r="A267" s="51" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B267" s="52">
-        <v>37</v>
+        <v>171</v>
       </c>
       <c r="C267" s="52">
-        <v>0.1</v>
+        <v>15</v>
       </c>
       <c r="D267" s="52">
+        <v>6</v>
+      </c>
+      <c r="E267" s="52">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E267" s="52">
-        <v>4</v>
-      </c>
       <c r="F267" s="52">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="G267" s="52">
-        <v>0.13</v>
+        <v>0.09</v>
       </c>
       <c r="H267" s="52">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I267" s="52">
-        <v>8.3000000000000007</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="J267" s="52">
-        <v>0.1</v>
-      </c>
-      <c r="K267" s="54"/>
+        <v>13.5</v>
+      </c>
+      <c r="K267" s="53" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="268" spans="1:11" ht="14.25">
       <c r="A268" s="51" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B268" s="52">
         <v>37</v>
@@ -9436,7 +9506,7 @@
         <v>0.1</v>
       </c>
       <c r="D268" s="52">
-        <v>4.3</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E268" s="52">
         <v>4</v>
@@ -9445,13 +9515,13 @@
         <v>4.2</v>
       </c>
       <c r="G268" s="52">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="H268" s="52">
         <v>4</v>
       </c>
       <c r="I268" s="52">
-        <v>8.5</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="J268" s="52">
         <v>0.1</v>
@@ -9460,93 +9530,93 @@
     </row>
     <row r="269" spans="1:11" ht="14.25">
       <c r="A269" s="51" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B269" s="52">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="C269" s="52">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D269" s="52">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="E269" s="52">
         <v>4</v>
       </c>
       <c r="F269" s="52">
-        <v>10</v>
+        <v>4.2</v>
       </c>
       <c r="G269" s="52">
-        <v>0.14000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="H269" s="52">
         <v>4</v>
       </c>
       <c r="I269" s="52">
-        <v>14</v>
+        <v>8.5</v>
       </c>
       <c r="J269" s="52">
-        <v>0.2</v>
-      </c>
-      <c r="K269" s="51" t="s">
-        <v>261</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="K269" s="54"/>
     </row>
     <row r="270" spans="1:11" ht="14.25">
       <c r="A270" s="51" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B270" s="52">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="C270" s="52">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D270" s="52">
-        <v>4.4000000000000004</v>
+        <v>4</v>
       </c>
       <c r="E270" s="52">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="F270" s="52">
-        <v>4.0999999999999996</v>
+        <v>10</v>
       </c>
       <c r="G270" s="52">
-        <v>0.13</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H270" s="52">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I270" s="52">
-        <v>8.5</v>
+        <v>14</v>
       </c>
       <c r="J270" s="52">
-        <v>0.1</v>
-      </c>
-      <c r="K270" s="54"/>
+        <v>0.2</v>
+      </c>
+      <c r="K270" s="51" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="271" spans="1:11" ht="14.25">
       <c r="A271" s="51" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B271" s="52">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C271" s="52">
         <v>0.1</v>
       </c>
       <c r="D271" s="52">
-        <v>3.9</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E271" s="52">
         <v>3.9</v>
       </c>
       <c r="F271" s="52">
-        <v>4.5999999999999996</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G271" s="52">
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="H271" s="52">
         <v>3.9</v>
@@ -9561,77 +9631,75 @@
     </row>
     <row r="272" spans="1:11" ht="14.25">
       <c r="A272" s="51" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B272" s="52">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="C272" s="52">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="D272" s="52">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="E272" s="52">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="F272" s="52">
-        <v>3</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="G272" s="52">
-        <v>0</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H272" s="52">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I272" s="52">
-        <v>5</v>
+        <v>8.5</v>
       </c>
       <c r="J272" s="52">
-        <v>2.7</v>
-      </c>
-      <c r="K272" s="53" t="s">
-        <v>242</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="K272" s="54"/>
     </row>
     <row r="273" spans="1:11" ht="14.25">
       <c r="A273" s="51" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B273" s="52">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="C273" s="52">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="D273" s="52">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="E273" s="52">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="F273" s="52">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="G273" s="52">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="H273" s="52">
         <v>3.8</v>
       </c>
       <c r="I273" s="52">
-        <v>7.1</v>
+        <v>5</v>
       </c>
       <c r="J273" s="52">
-        <v>0.3</v>
+        <v>2.7</v>
       </c>
       <c r="K273" s="53" t="s">
-        <v>266</v>
+        <v>242</v>
       </c>
     </row>
     <row r="274" spans="1:11" ht="14.25">
       <c r="A274" s="51" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B274" s="52">
         <v>34</v>
@@ -9660,59 +9728,61 @@
       <c r="J274" s="52">
         <v>0.3</v>
       </c>
-      <c r="K274" s="54"/>
+      <c r="K274" s="53" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="275" spans="1:11" ht="14.25">
       <c r="A275" s="51" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B275" s="52">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="C275" s="52">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D275" s="52">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="E275" s="52">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="F275" s="52">
-        <v>8.6</v>
+        <v>3.3</v>
       </c>
       <c r="G275" s="52">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="H275" s="52">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="I275" s="52">
-        <v>12.6</v>
+        <v>7.1</v>
       </c>
       <c r="J275" s="52">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="K275" s="54"/>
     </row>
     <row r="276" spans="1:11" ht="14.25">
       <c r="A276" s="51" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B276" s="52">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="C276" s="52">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D276" s="52">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="E276" s="52">
         <v>3.6</v>
       </c>
       <c r="F276" s="52">
-        <v>4.3</v>
+        <v>8.6</v>
       </c>
       <c r="G276" s="52">
         <v>0.13</v>
@@ -9721,57 +9791,55 @@
         <v>3.6</v>
       </c>
       <c r="I276" s="52">
+        <v>12.6</v>
+      </c>
+      <c r="J276" s="52">
+        <v>0.2</v>
+      </c>
+      <c r="K276" s="54"/>
+    </row>
+    <row r="277" spans="1:11" ht="14.25">
+      <c r="A277" s="51" t="s">
+        <v>269</v>
+      </c>
+      <c r="B277" s="52">
+        <v>36</v>
+      </c>
+      <c r="C277" s="52">
+        <v>0.1</v>
+      </c>
+      <c r="D277" s="52">
+        <v>3.6</v>
+      </c>
+      <c r="E277" s="52">
+        <v>3.6</v>
+      </c>
+      <c r="F277" s="52">
+        <v>4.3</v>
+      </c>
+      <c r="G277" s="52">
+        <v>0.13</v>
+      </c>
+      <c r="H277" s="52">
+        <v>3.6</v>
+      </c>
+      <c r="I277" s="52">
         <v>7.9</v>
       </c>
-      <c r="J276" s="52">
+      <c r="J277" s="52">
         <v>0.1</v>
       </c>
-      <c r="K276" s="54"/>
-    </row>
-    <row r="277" spans="1:11" ht="28.5">
-      <c r="A277" s="29" t="s">
-        <v>270</v>
-      </c>
-      <c r="B277" s="15">
-        <v>46</v>
-      </c>
-      <c r="C277" s="15">
-        <v>1.5</v>
-      </c>
-      <c r="D277" s="15">
-        <v>3.6</v>
-      </c>
-      <c r="E277" s="15">
-        <v>3.6</v>
-      </c>
-      <c r="F277" s="15">
-        <v>3.8</v>
-      </c>
-      <c r="G277" s="15">
-        <v>0.11</v>
-      </c>
-      <c r="H277" s="15">
-        <v>3.6</v>
-      </c>
-      <c r="I277" s="15">
-        <v>7.4</v>
-      </c>
-      <c r="J277" s="15">
-        <v>1.4</v>
-      </c>
-      <c r="K277" s="30" t="s">
-        <v>271</v>
-      </c>
+      <c r="K277" s="54"/>
     </row>
     <row r="278" spans="1:11" ht="28.5">
       <c r="A278" s="29" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B278" s="15">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C278" s="15">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="D278" s="15">
         <v>3.6</v>
@@ -9780,7 +9848,7 @@
         <v>3.6</v>
       </c>
       <c r="F278" s="15">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="G278" s="15">
         <v>0.11</v>
@@ -9789,57 +9857,59 @@
         <v>3.6</v>
       </c>
       <c r="I278" s="15">
+        <v>7.4</v>
+      </c>
+      <c r="J278" s="15">
+        <v>1.4</v>
+      </c>
+      <c r="K278" s="30" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11" ht="28.5">
+      <c r="A279" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="B279" s="15">
+        <v>39</v>
+      </c>
+      <c r="C279" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="D279" s="15">
+        <v>3.6</v>
+      </c>
+      <c r="E279" s="15">
+        <v>3.6</v>
+      </c>
+      <c r="F279" s="15">
+        <v>4.3</v>
+      </c>
+      <c r="G279" s="15">
+        <v>0.11</v>
+      </c>
+      <c r="H279" s="15">
+        <v>3.6</v>
+      </c>
+      <c r="I279" s="15">
         <v>7.9</v>
       </c>
-      <c r="J278" s="15">
+      <c r="J279" s="15">
         <v>0.4</v>
       </c>
-      <c r="K278" s="30" t="s">
+      <c r="K279" s="30" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="279" spans="1:11" ht="14.25">
-      <c r="A279" s="51" t="s">
-        <v>274</v>
-      </c>
-      <c r="B279" s="52">
-        <v>63</v>
-      </c>
-      <c r="C279" s="52">
-        <v>3.5</v>
-      </c>
-      <c r="D279" s="52">
-        <v>3.5</v>
-      </c>
-      <c r="E279" s="52">
-        <v>3.5</v>
-      </c>
-      <c r="F279" s="52">
-        <v>3.5</v>
-      </c>
-      <c r="G279" s="52">
-        <v>0.11</v>
-      </c>
-      <c r="H279" s="52">
-        <v>3.5</v>
-      </c>
-      <c r="I279" s="52">
-        <v>7</v>
-      </c>
-      <c r="J279" s="52">
-        <v>3.2</v>
-      </c>
-      <c r="K279" s="54"/>
     </row>
     <row r="280" spans="1:11" ht="14.25">
       <c r="A280" s="51" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B280" s="52">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="C280" s="52">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="D280" s="52">
         <v>3.5</v>
@@ -9848,7 +9918,7 @@
         <v>3.5</v>
       </c>
       <c r="F280" s="52">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="G280" s="52">
         <v>0.11</v>
@@ -9857,321 +9927,370 @@
         <v>3.5</v>
       </c>
       <c r="I280" s="52">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J280" s="52">
-        <v>0.5</v>
+        <v>3.2</v>
       </c>
       <c r="K280" s="54"/>
     </row>
     <row r="281" spans="1:11" ht="14.25">
       <c r="A281" s="51" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B281" s="52">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="C281" s="52">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="D281" s="52">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="E281" s="52">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="F281" s="52">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="G281" s="52">
         <v>0.11</v>
       </c>
       <c r="H281" s="52">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I281" s="52">
-        <v>8.1999999999999993</v>
+        <v>9</v>
       </c>
       <c r="J281" s="52">
-        <v>4.5</v>
+        <v>0.5</v>
       </c>
       <c r="K281" s="54"/>
     </row>
     <row r="282" spans="1:11" ht="14.25">
       <c r="A282" s="51" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B282" s="52">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="C282" s="52">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D282" s="52">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="E282" s="52">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="F282" s="52">
-        <v>14</v>
+        <v>4.8</v>
       </c>
       <c r="G282" s="52">
-        <v>0.8</v>
+        <v>0.11</v>
       </c>
       <c r="H282" s="52">
         <v>3.4</v>
       </c>
       <c r="I282" s="52">
-        <v>15.8</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="J282" s="52">
-        <v>3.6</v>
-      </c>
-      <c r="K282" s="51" t="s">
-        <v>162</v>
-      </c>
+        <v>4.5</v>
+      </c>
+      <c r="K282" s="54"/>
     </row>
     <row r="283" spans="1:11" ht="14.25">
       <c r="A283" s="51" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B283" s="52">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="C283" s="52">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="D283" s="52">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="E283" s="52">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="F283" s="52">
-        <v>4.0999999999999996</v>
+        <v>14</v>
       </c>
       <c r="G283" s="52">
-        <v>0.12</v>
+        <v>0.8</v>
       </c>
       <c r="H283" s="52">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I283" s="52">
-        <v>8.3000000000000007</v>
+        <v>15.8</v>
       </c>
       <c r="J283" s="52">
-        <v>0.5</v>
-      </c>
-      <c r="K283" s="54"/>
+        <v>3.6</v>
+      </c>
+      <c r="K283" s="51" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="284" spans="1:11" ht="14.25">
       <c r="A284" s="51" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B284" s="52">
-        <v>346</v>
+        <v>41</v>
       </c>
       <c r="C284" s="52">
-        <v>36</v>
+        <v>0.5</v>
       </c>
       <c r="D284" s="52">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="E284" s="52">
         <v>3.3</v>
       </c>
       <c r="F284" s="52">
-        <v>2.2000000000000002</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G284" s="52">
-        <v>7.0000000000000007E-2</v>
+        <v>0.12</v>
       </c>
       <c r="H284" s="52">
         <v>3.3</v>
       </c>
       <c r="I284" s="52">
-        <v>5.5</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="J284" s="52">
-        <v>32.4</v>
-      </c>
-      <c r="K284" s="53" t="s">
-        <v>280</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="K284" s="54"/>
     </row>
     <row r="285" spans="1:11" ht="14.25">
       <c r="A285" s="51" t="s">
+        <v>279</v>
+      </c>
+      <c r="B285" s="52">
+        <v>346</v>
+      </c>
+      <c r="C285" s="52">
+        <v>36</v>
+      </c>
+      <c r="D285" s="52">
+        <v>3.3</v>
+      </c>
+      <c r="E285" s="52">
+        <v>3.3</v>
+      </c>
+      <c r="F285" s="52">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G285" s="52">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H285" s="52">
+        <v>3.3</v>
+      </c>
+      <c r="I285" s="52">
+        <v>5.5</v>
+      </c>
+      <c r="J285" s="52">
+        <v>32.4</v>
+      </c>
+      <c r="K285" s="53" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11" ht="14.25">
+      <c r="A286" s="51" t="s">
         <v>281</v>
       </c>
-      <c r="B285" s="52">
+      <c r="B286" s="52">
         <v>75</v>
-      </c>
-      <c r="C285" s="52">
-        <v>1.5</v>
-      </c>
-      <c r="D285" s="52">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="E285" s="52">
-        <v>1.5</v>
-      </c>
-      <c r="F285" s="52">
-        <v>13</v>
-      </c>
-      <c r="G285" s="52">
-        <v>0.84</v>
-      </c>
-      <c r="H285" s="52">
-        <v>2.9</v>
-      </c>
-      <c r="I285" s="52">
-        <v>15.3</v>
-      </c>
-      <c r="J285" s="52">
-        <v>1.4</v>
-      </c>
-      <c r="K285" s="53" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="286" spans="1:11" ht="28.5">
-      <c r="A286" s="51" t="s">
-        <v>282</v>
-      </c>
-      <c r="B286" s="52">
-        <v>79</v>
       </c>
       <c r="C286" s="52">
         <v>1.5</v>
       </c>
       <c r="D286" s="52">
-        <v>3.1</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E286" s="52">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F286" s="52">
         <v>13</v>
       </c>
       <c r="G286" s="52">
-        <v>0.79</v>
+        <v>0.84</v>
       </c>
       <c r="H286" s="52">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="I286" s="52">
-        <v>16.100000000000001</v>
+        <v>15.3</v>
       </c>
       <c r="J286" s="52">
         <v>1.4</v>
       </c>
       <c r="K286" s="53" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11" ht="28.5">
+      <c r="A287" s="51" t="s">
+        <v>282</v>
+      </c>
+      <c r="B287" s="52">
+        <v>79</v>
+      </c>
+      <c r="C287" s="52">
+        <v>1.5</v>
+      </c>
+      <c r="D287" s="52">
+        <v>3.1</v>
+      </c>
+      <c r="E287" s="52">
+        <v>2.5</v>
+      </c>
+      <c r="F287" s="52">
+        <v>13</v>
+      </c>
+      <c r="G287" s="52">
+        <v>0.79</v>
+      </c>
+      <c r="H287" s="52">
+        <v>2.5</v>
+      </c>
+      <c r="I287" s="52">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="J287" s="52">
+        <v>1.4</v>
+      </c>
+      <c r="K287" s="53" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="287" spans="1:11" ht="14.25">
-      <c r="A287" s="51" t="s">
-        <v>284</v>
-      </c>
-      <c r="B287" s="52">
-        <v>102</v>
-      </c>
-      <c r="C287" s="52">
-        <v>4</v>
-      </c>
-      <c r="D287" s="52">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="E287" s="52">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="F287" s="52">
-        <v>14</v>
-      </c>
-      <c r="G287" s="52">
-        <v>0.84</v>
-      </c>
-      <c r="H287" s="52">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="I287" s="52">
-        <v>16.3</v>
-      </c>
-      <c r="J287" s="52">
-        <v>3.6</v>
-      </c>
-      <c r="K287" s="54"/>
     </row>
     <row r="288" spans="1:11" ht="14.25">
       <c r="A288" s="51" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B288" s="52">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="C288" s="52">
-        <v>0.2</v>
+        <v>4</v>
       </c>
       <c r="D288" s="52">
-        <v>0.7</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E288" s="52">
-        <v>0.7</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F288" s="52">
-        <v>10.9</v>
+        <v>14</v>
       </c>
       <c r="G288" s="52">
-        <v>0.16</v>
+        <v>0.84</v>
       </c>
       <c r="H288" s="52">
-        <v>0.7</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="I288" s="52">
-        <v>11.6</v>
+        <v>16.3</v>
       </c>
       <c r="J288" s="52">
-        <v>0.2</v>
-      </c>
-      <c r="K288" s="53" t="s">
-        <v>286</v>
-      </c>
+        <v>3.6</v>
+      </c>
+      <c r="K288" s="54"/>
     </row>
     <row r="289" spans="1:11" ht="14.25">
       <c r="A289" s="51" t="s">
+        <v>285</v>
+      </c>
+      <c r="B289" s="52">
+        <v>52</v>
+      </c>
+      <c r="C289" s="52">
+        <v>0.2</v>
+      </c>
+      <c r="D289" s="52">
+        <v>0.7</v>
+      </c>
+      <c r="E289" s="52">
+        <v>0.7</v>
+      </c>
+      <c r="F289" s="52">
+        <v>10.9</v>
+      </c>
+      <c r="G289" s="52">
+        <v>0.16</v>
+      </c>
+      <c r="H289" s="52">
+        <v>0.7</v>
+      </c>
+      <c r="I289" s="52">
+        <v>11.6</v>
+      </c>
+      <c r="J289" s="52">
+        <v>0.2</v>
+      </c>
+      <c r="K289" s="53" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A290" s="51" t="s">
         <v>287</v>
       </c>
-      <c r="B289" s="52">
+      <c r="B290" s="52">
         <v>322</v>
       </c>
-      <c r="C289" s="52">
+      <c r="C290" s="52">
         <v>26.5</v>
       </c>
-      <c r="D289" s="52">
+      <c r="D290" s="52">
         <v>3.6</v>
       </c>
-      <c r="E289" s="52">
+      <c r="E290" s="52">
         <v>0.6</v>
       </c>
-      <c r="F289" s="52">
+      <c r="F290" s="52">
         <v>15.9</v>
       </c>
-      <c r="G289" s="52">
+      <c r="G290" s="52">
         <v>0.08</v>
       </c>
-      <c r="H289" s="52">
+      <c r="H290" s="52">
         <v>0.6</v>
       </c>
-      <c r="I289" s="52">
+      <c r="I290" s="52">
         <v>19.5</v>
       </c>
-      <c r="J289" s="52">
+      <c r="J290" s="52">
         <v>23.9</v>
       </c>
-      <c r="K289" s="53" t="s">
+      <c r="K290" s="53" t="s">
         <v>288</v>
       </c>
+    </row>
+    <row r="291" spans="1:11" ht="15.75" customHeight="1">
+      <c r="E291" s="122"/>
+    </row>
+    <row r="292" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A292" s="121"/>
+      <c r="B292" s="122"/>
+      <c r="C292" s="122"/>
+      <c r="D292" s="122"/>
+      <c r="E292" s="122"/>
+      <c r="F292" s="122"/>
+      <c r="G292" s="122"/>
+      <c r="H292" s="124"/>
+      <c r="I292" s="122"/>
+      <c r="J292" s="123"/>
+      <c r="K292" s="125"/>
     </row>
     <row r="296" spans="1:11" ht="21.75">
       <c r="A296" s="61" t="s">
@@ -19853,26 +19972,26 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{BFC8CB06-61D4-4AB5-8D7C-32259655DEAE}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{2D050267-7263-4CD4-97DE-20ADEF3AA056}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A63:K96" xr:uid="{8DE74D48-F98E-413E-AD7D-8DB58BBCFE77}"/>
+      <autoFilter ref="A63:K96" xr:uid="{97A59D0A-7D89-4CE1-B85C-DF9C144E3857}"/>
+    </customSheetView>
+    <customSheetView guid="{DDEA0034-8075-451D-A031-0121E8381F0F}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A13:K40" xr:uid="{C7BD5ABF-3BB9-44C5-B338-36AEA2040D07}"/>
     </customSheetView>
     <customSheetView guid="{78FFC831-1D0F-4AD8-8D5F-BA4B980A515D}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A152:K164" xr:uid="{7D279965-B59E-4005-B95E-804C6DAF124A}">
+      <autoFilter ref="A152:K164" xr:uid="{8E60E02A-DB9F-4F2A-A236-E4A670F2A469}">
         <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A152:K164">
           <sortCondition descending="1" ref="H152:H164"/>
           <sortCondition descending="1" ref="I152:I164"/>
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{DDEA0034-8075-451D-A031-0121E8381F0F}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{BFC8CB06-61D4-4AB5-8D7C-32259655DEAE}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A13:K40" xr:uid="{07BC829B-8B95-432C-ADBB-EE96DA2BE493}"/>
-    </customSheetView>
-    <customSheetView guid="{2D050267-7263-4CD4-97DE-20ADEF3AA056}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A63:K96" xr:uid="{73A548DE-7DB4-4765-AA54-3FEC0C2F7A1F}"/>
+      <autoFilter ref="A63:K96" xr:uid="{8CD9B793-1BA8-481C-B8D9-21FE7676F071}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="5">
@@ -19884,7 +20003,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd"/>
+  <pageSetup paperSize="9" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -21077,7 +21196,7 @@
   </sheetPr>
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>

--- a/data/laboratorie_data.xlsx
+++ b/data/laboratorie_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvmad\Desktop\Ditz3ns-Ice-Cream-Lab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E04B66-6E81-4F05-9F4F-C168780C070D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF753627-54BD-4A63-9A96-C7179AC4D1AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,10 +27,10 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Proteinpulvere" guid="{2D050267-7263-4CD4-97DE-20ADEF3AA056}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Kopi af Proteinpulvere" guid="{BFC8CB06-61D4-4AB5-8D7C-32259655DEAE}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Sødemidler &amp; Stabilisatorer" guid="{DDEA0034-8075-451D-A031-0121E8381F0F}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Pulver-baserede Smagsgivere" guid="{78FFC831-1D0F-4AD8-8D5F-BA4B980A515D}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Sødemidler &amp; Stabilisatorer" guid="{DDEA0034-8075-451D-A031-0121E8381F0F}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Kopi af Proteinpulvere" guid="{BFC8CB06-61D4-4AB5-8D7C-32259655DEAE}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Proteinpulvere" guid="{2D050267-7263-4CD4-97DE-20ADEF3AA056}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="660">
   <si>
     <t>Velkommen til Ditz3n's Ninja CREAMi Laboratorium! 🍦</t>
   </si>
@@ -2157,12 +2157,6 @@
     <t>Total:</t>
   </si>
   <si>
-    <t>Test Ingrediens</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
     <t>Milbona High Protein Vanilla Cottage Cheese</t>
   </si>
 </sst>
@@ -2172,7 +2166,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="169" formatCode="#,##0.0"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="19">
     <font>
@@ -2727,30 +2721,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2768,17 +2746,33 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="18" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3046,27 +3040,27 @@
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:8" ht="50.25" customHeight="1">
-      <c r="A1" s="114" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
+      <c r="A1" s="130" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="30.75" customHeight="1">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="12.75">
@@ -3080,10 +3074,10 @@
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="113" t="s">
+      <c r="A4" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="112"/>
+      <c r="B4" s="128"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -3092,15 +3086,15 @@
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" ht="12.75">
-      <c r="A5" s="111" t="s">
+      <c r="A5" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="112"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
+      <c r="B5" s="128"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="128"/>
+      <c r="F5" s="128"/>
+      <c r="G5" s="128"/>
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" ht="12.75">
@@ -3114,11 +3108,11 @@
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A7" s="113" t="s">
+      <c r="A7" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="112"/>
-      <c r="C7" s="112"/>
+      <c r="B7" s="128"/>
+      <c r="C7" s="128"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -3126,15 +3120,15 @@
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" ht="12.75">
-      <c r="A8" s="111" t="s">
+      <c r="A8" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="112"/>
-      <c r="C8" s="112"/>
-      <c r="D8" s="112"/>
-      <c r="E8" s="112"/>
-      <c r="F8" s="112"/>
-      <c r="G8" s="112"/>
+      <c r="B8" s="128"/>
+      <c r="C8" s="128"/>
+      <c r="D8" s="128"/>
+      <c r="E8" s="128"/>
+      <c r="F8" s="128"/>
+      <c r="G8" s="128"/>
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" ht="12.75">
@@ -3148,10 +3142,10 @@
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A10" s="113" t="s">
+      <c r="A10" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="112"/>
+      <c r="B10" s="128"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -3160,15 +3154,15 @@
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" ht="12.75">
-      <c r="A11" s="111" t="s">
+      <c r="A11" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="112"/>
-      <c r="C11" s="112"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="112"/>
-      <c r="F11" s="112"/>
-      <c r="G11" s="112"/>
+      <c r="B11" s="128"/>
+      <c r="C11" s="128"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
+      <c r="F11" s="128"/>
+      <c r="G11" s="128"/>
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" ht="12.75">
@@ -3182,11 +3176,11 @@
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A13" s="113" t="s">
+      <c r="A13" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="112"/>
-      <c r="C13" s="112"/>
+      <c r="B13" s="128"/>
+      <c r="C13" s="128"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -3194,15 +3188,15 @@
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" ht="12.75">
-      <c r="A14" s="111" t="s">
+      <c r="A14" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="112"/>
-      <c r="C14" s="112"/>
-      <c r="D14" s="112"/>
-      <c r="E14" s="112"/>
-      <c r="F14" s="112"/>
-      <c r="G14" s="112"/>
+      <c r="B14" s="128"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
+      <c r="F14" s="128"/>
+      <c r="G14" s="128"/>
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8" ht="12.75">
@@ -3265,11 +3259,11 @@
       <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="127" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -3455,18 +3449,18 @@
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A14" s="113" t="s">
+      <c r="A14" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="112"/>
+      <c r="B14" s="128"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="115" t="s">
+      <c r="F14" s="131" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="112"/>
-      <c r="H14" s="112"/>
+      <c r="G14" s="128"/>
+      <c r="H14" s="128"/>
       <c r="I14" s="5"/>
       <c r="J14" s="4"/>
     </row>
@@ -3621,8 +3615,8 @@
   </sheetPr>
   <dimension ref="A1:L659"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A278" workbookViewId="0">
-      <selection activeCell="J294" sqref="J294"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3654,15 +3648,15 @@
       <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:12" ht="12.75">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="127" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
@@ -3700,15 +3694,15 @@
       <c r="L4" s="4"/>
     </row>
     <row r="5" spans="1:12" ht="12.75">
-      <c r="A5" s="111" t="s">
+      <c r="A5" s="127" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="112"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
+      <c r="B5" s="128"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="128"/>
+      <c r="F5" s="128"/>
+      <c r="G5" s="128"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
@@ -3716,15 +3710,15 @@
       <c r="L5" s="4"/>
     </row>
     <row r="6" spans="1:12" ht="14.25">
-      <c r="A6" s="116" t="s">
+      <c r="A6" s="132" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="112"/>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
+      <c r="B6" s="128"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="128"/>
+      <c r="G6" s="128"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
@@ -3732,15 +3726,15 @@
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12" ht="14.25">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="132" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="112"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
+      <c r="B7" s="128"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="128"/>
+      <c r="F7" s="128"/>
+      <c r="G7" s="128"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
@@ -3762,16 +3756,16 @@
       <c r="L8" s="4"/>
     </row>
     <row r="9" spans="1:12" ht="14.25">
-      <c r="A9" s="116" t="s">
+      <c r="A9" s="132" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="112"/>
-      <c r="C9" s="112"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="112"/>
-      <c r="F9" s="112"/>
-      <c r="G9" s="112"/>
-      <c r="H9" s="112"/>
+      <c r="B9" s="128"/>
+      <c r="C9" s="128"/>
+      <c r="D9" s="128"/>
+      <c r="E9" s="128"/>
+      <c r="F9" s="128"/>
+      <c r="G9" s="128"/>
+      <c r="H9" s="128"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
@@ -4670,39 +4664,17 @@
       <c r="L36" s="4"/>
     </row>
     <row r="37" spans="1:12" ht="21.75">
-      <c r="A37" s="31" t="s">
-        <v>659</v>
-      </c>
-      <c r="B37" s="15">
-        <v>10</v>
-      </c>
-      <c r="C37" s="15">
-        <v>1</v>
-      </c>
-      <c r="D37" s="15">
-        <v>2</v>
-      </c>
-      <c r="E37" s="15">
-        <v>3</v>
-      </c>
-      <c r="F37" s="15">
-        <v>4</v>
-      </c>
-      <c r="G37" s="15">
-        <v>5</v>
-      </c>
-      <c r="H37" s="15">
-        <v>6</v>
-      </c>
-      <c r="I37" s="15">
-        <v>7</v>
-      </c>
-      <c r="J37" s="32">
-        <v>8</v>
-      </c>
-      <c r="K37" s="110" t="s">
-        <v>660</v>
-      </c>
+      <c r="A37" s="31"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="110"/>
       <c r="L37" s="4"/>
     </row>
     <row r="38" spans="1:12" ht="14.25">
@@ -6927,107 +6899,107 @@
       </c>
     </row>
     <row r="193" spans="1:11" ht="14.25">
-      <c r="A193" s="126" t="s">
+      <c r="A193" s="116" t="s">
         <v>174</v>
       </c>
-      <c r="B193" s="127">
+      <c r="B193" s="117">
         <v>78</v>
       </c>
-      <c r="C193" s="127">
+      <c r="C193" s="117">
         <v>2.1</v>
       </c>
-      <c r="D193" s="127">
+      <c r="D193" s="117">
         <v>7.3</v>
       </c>
-      <c r="E193" s="127">
+      <c r="E193" s="117">
         <v>7</v>
       </c>
-      <c r="F193" s="127">
+      <c r="F193" s="117">
         <v>6.2</v>
       </c>
-      <c r="G193" s="127">
+      <c r="G193" s="117">
         <v>0.2</v>
       </c>
-      <c r="H193" s="127">
+      <c r="H193" s="117">
         <v>13.3</v>
       </c>
-      <c r="I193" s="127">
+      <c r="I193" s="117">
         <v>13.5</v>
       </c>
-      <c r="J193" s="127">
+      <c r="J193" s="117">
         <v>1.9</v>
       </c>
-      <c r="K193" s="128" t="s">
+      <c r="K193" s="118" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="194" spans="1:11" ht="14.25">
-      <c r="A194" s="132" t="s">
-        <v>661</v>
-      </c>
-      <c r="B194" s="133">
+      <c r="A194" s="122" t="s">
+        <v>659</v>
+      </c>
+      <c r="B194" s="123">
         <v>78</v>
       </c>
-      <c r="C194" s="133">
+      <c r="C194" s="123">
         <v>1.3</v>
       </c>
-      <c r="D194" s="133">
+      <c r="D194" s="123">
         <v>5.6</v>
       </c>
-      <c r="E194" s="133">
+      <c r="E194" s="123">
         <v>4.3</v>
       </c>
-      <c r="F194" s="133">
+      <c r="F194" s="123">
         <v>11</v>
       </c>
-      <c r="G194" s="133">
+      <c r="G194" s="123">
         <v>0.71</v>
       </c>
-      <c r="H194" s="134">
+      <c r="H194" s="124">
         <v>13.138999999999999</v>
       </c>
-      <c r="I194" s="133">
+      <c r="I194" s="123">
         <v>6.6</v>
       </c>
-      <c r="J194" s="135">
+      <c r="J194" s="125">
         <v>1.3</v>
       </c>
-      <c r="K194" s="136" t="s">
+      <c r="K194" s="126" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="195" spans="1:11" ht="14.25">
-      <c r="A195" s="129" t="s">
+      <c r="A195" s="119" t="s">
         <v>175</v>
       </c>
-      <c r="B195" s="130">
+      <c r="B195" s="120">
         <v>103</v>
       </c>
-      <c r="C195" s="130">
+      <c r="C195" s="120">
         <v>3.2</v>
       </c>
-      <c r="D195" s="130">
+      <c r="D195" s="120">
         <v>15</v>
       </c>
-      <c r="E195" s="130">
+      <c r="E195" s="120">
         <v>13</v>
       </c>
-      <c r="F195" s="130">
+      <c r="F195" s="120">
         <v>3.6</v>
       </c>
-      <c r="G195" s="130">
+      <c r="G195" s="120">
         <v>0.12</v>
       </c>
-      <c r="H195" s="130">
+      <c r="H195" s="120">
         <v>13</v>
       </c>
-      <c r="I195" s="130">
+      <c r="I195" s="120">
         <v>18.600000000000001</v>
       </c>
-      <c r="J195" s="130">
+      <c r="J195" s="120">
         <v>2.9</v>
       </c>
-      <c r="K195" s="131" t="s">
+      <c r="K195" s="121" t="s">
         <v>176</v>
       </c>
     </row>
@@ -10277,20 +10249,20 @@
       </c>
     </row>
     <row r="291" spans="1:11" ht="15.75" customHeight="1">
-      <c r="E291" s="122"/>
+      <c r="E291" s="112"/>
     </row>
     <row r="292" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A292" s="121"/>
-      <c r="B292" s="122"/>
-      <c r="C292" s="122"/>
-      <c r="D292" s="122"/>
-      <c r="E292" s="122"/>
-      <c r="F292" s="122"/>
-      <c r="G292" s="122"/>
-      <c r="H292" s="124"/>
-      <c r="I292" s="122"/>
-      <c r="J292" s="123"/>
-      <c r="K292" s="125"/>
+      <c r="A292" s="111"/>
+      <c r="B292" s="112"/>
+      <c r="C292" s="112"/>
+      <c r="D292" s="112"/>
+      <c r="E292" s="112"/>
+      <c r="F292" s="112"/>
+      <c r="G292" s="112"/>
+      <c r="H292" s="114"/>
+      <c r="I292" s="112"/>
+      <c r="J292" s="113"/>
+      <c r="K292" s="115"/>
     </row>
     <row r="296" spans="1:11" ht="21.75">
       <c r="A296" s="61" t="s">
@@ -19972,26 +19944,26 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{2D050267-7263-4CD4-97DE-20ADEF3AA056}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{BFC8CB06-61D4-4AB5-8D7C-32259655DEAE}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A63:K96" xr:uid="{97A59D0A-7D89-4CE1-B85C-DF9C144E3857}"/>
-    </customSheetView>
-    <customSheetView guid="{DDEA0034-8075-451D-A031-0121E8381F0F}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A13:K40" xr:uid="{C7BD5ABF-3BB9-44C5-B338-36AEA2040D07}"/>
+      <autoFilter ref="A63:K96" xr:uid="{65E557AC-0B5F-4106-9F06-DE3ADAEE3327}"/>
     </customSheetView>
     <customSheetView guid="{78FFC831-1D0F-4AD8-8D5F-BA4B980A515D}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A152:K164" xr:uid="{8E60E02A-DB9F-4F2A-A236-E4A670F2A469}">
+      <autoFilter ref="A152:K164" xr:uid="{2D47DD10-3FC5-413A-A7A4-225471EE04FD}">
         <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A152:K164">
           <sortCondition descending="1" ref="H152:H164"/>
           <sortCondition descending="1" ref="I152:I164"/>
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{BFC8CB06-61D4-4AB5-8D7C-32259655DEAE}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{DDEA0034-8075-451D-A031-0121E8381F0F}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A63:K96" xr:uid="{8CD9B793-1BA8-481C-B8D9-21FE7676F071}"/>
+      <autoFilter ref="A13:K40" xr:uid="{3321610B-621C-46E1-A6B9-A4B76656BBB4}"/>
+    </customSheetView>
+    <customSheetView guid="{2D050267-7263-4CD4-97DE-20ADEF3AA056}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A63:K96" xr:uid="{E439C743-B806-4389-B3FE-4D6CF1E2F1C2}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="5">
@@ -20029,10 +20001,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="42">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="130" t="s">
         <v>633</v>
       </c>
-      <c r="B1" s="112"/>
+      <c r="B1" s="128"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
@@ -20061,11 +20033,11 @@
       <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:12" ht="14.25">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="127" t="s">
         <v>634</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
       <c r="D3" s="3"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -21210,12 +21182,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="42">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="134" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
       <c r="E1" s="92"/>
       <c r="F1" s="92"/>
       <c r="G1" s="92"/>
@@ -21226,16 +21198,16 @@
       <c r="L1" s="93"/>
     </row>
     <row r="2" spans="1:12" ht="12.75">
-      <c r="A2" s="117" t="s">
+      <c r="A2" s="133" t="s">
         <v>645</v>
       </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
       <c r="I2" s="92"/>
       <c r="J2" s="92"/>
       <c r="K2" s="92"/>
@@ -21256,14 +21228,14 @@
       <c r="L3" s="93"/>
     </row>
     <row r="4" spans="1:12" ht="28.5">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="135" t="s">
         <v>646</v>
       </c>
-      <c r="B4" s="112"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
+      <c r="B4" s="128"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="128"/>
       <c r="G4" s="92"/>
       <c r="H4" s="92"/>
       <c r="I4" s="92"/>
@@ -21272,32 +21244,32 @@
       <c r="L4" s="93"/>
     </row>
     <row r="5" spans="1:12" ht="12.75">
-      <c r="A5" s="117" t="s">
+      <c r="A5" s="133" t="s">
         <v>647</v>
       </c>
-      <c r="B5" s="112"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
+      <c r="B5" s="128"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="128"/>
+      <c r="F5" s="128"/>
+      <c r="G5" s="128"/>
+      <c r="H5" s="128"/>
       <c r="I5" s="92"/>
       <c r="J5" s="92"/>
       <c r="K5" s="92"/>
       <c r="L5" s="93"/>
     </row>
     <row r="6" spans="1:12" ht="14.25">
-      <c r="A6" s="120" t="s">
+      <c r="A6" s="136" t="s">
         <v>648</v>
       </c>
-      <c r="B6" s="112"/>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="112"/>
+      <c r="B6" s="128"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="128"/>
+      <c r="G6" s="128"/>
+      <c r="H6" s="128"/>
       <c r="I6" s="92"/>
       <c r="J6" s="92"/>
       <c r="K6" s="92"/>
@@ -21318,10 +21290,10 @@
       <c r="L7" s="93"/>
     </row>
     <row r="8" spans="1:12" ht="28.5">
-      <c r="A8" s="119" t="s">
+      <c r="A8" s="135" t="s">
         <v>649</v>
       </c>
-      <c r="B8" s="112"/>
+      <c r="B8" s="128"/>
       <c r="C8" s="92"/>
       <c r="D8" s="92"/>
       <c r="E8" s="92"/>
@@ -21334,48 +21306,48 @@
       <c r="L8" s="93"/>
     </row>
     <row r="9" spans="1:12" ht="12.75">
-      <c r="A9" s="117" t="s">
+      <c r="A9" s="133" t="s">
         <v>650</v>
       </c>
-      <c r="B9" s="112"/>
-      <c r="C9" s="112"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="112"/>
-      <c r="F9" s="112"/>
-      <c r="G9" s="112"/>
-      <c r="H9" s="112"/>
+      <c r="B9" s="128"/>
+      <c r="C9" s="128"/>
+      <c r="D9" s="128"/>
+      <c r="E9" s="128"/>
+      <c r="F9" s="128"/>
+      <c r="G9" s="128"/>
+      <c r="H9" s="128"/>
       <c r="I9" s="92"/>
       <c r="J9" s="92"/>
       <c r="K9" s="92"/>
       <c r="L9" s="93"/>
     </row>
     <row r="10" spans="1:12" ht="12.75">
-      <c r="A10" s="117" t="s">
+      <c r="A10" s="133" t="s">
         <v>651</v>
       </c>
-      <c r="B10" s="112"/>
-      <c r="C10" s="112"/>
-      <c r="D10" s="112"/>
-      <c r="E10" s="112"/>
-      <c r="F10" s="112"/>
-      <c r="G10" s="112"/>
-      <c r="H10" s="112"/>
+      <c r="B10" s="128"/>
+      <c r="C10" s="128"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
+      <c r="F10" s="128"/>
+      <c r="G10" s="128"/>
+      <c r="H10" s="128"/>
       <c r="I10" s="92"/>
       <c r="J10" s="92"/>
       <c r="K10" s="92"/>
       <c r="L10" s="93"/>
     </row>
     <row r="11" spans="1:12" ht="12.75">
-      <c r="A11" s="117" t="s">
+      <c r="A11" s="133" t="s">
         <v>652</v>
       </c>
-      <c r="B11" s="112"/>
-      <c r="C11" s="112"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="112"/>
-      <c r="F11" s="112"/>
-      <c r="G11" s="112"/>
-      <c r="H11" s="112"/>
+      <c r="B11" s="128"/>
+      <c r="C11" s="128"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
+      <c r="F11" s="128"/>
+      <c r="G11" s="128"/>
+      <c r="H11" s="128"/>
       <c r="I11" s="92"/>
       <c r="J11" s="92"/>
       <c r="K11" s="92"/>
@@ -21396,10 +21368,10 @@
       <c r="L12" s="96"/>
     </row>
     <row r="13" spans="1:12" ht="28.5">
-      <c r="A13" s="119" t="s">
+      <c r="A13" s="135" t="s">
         <v>653</v>
       </c>
-      <c r="B13" s="112"/>
+      <c r="B13" s="128"/>
       <c r="C13" s="92"/>
       <c r="D13" s="92"/>
       <c r="E13" s="92"/>
@@ -21412,16 +21384,16 @@
       <c r="L13" s="98"/>
     </row>
     <row r="14" spans="1:12" ht="12.75">
-      <c r="A14" s="117" t="s">
+      <c r="A14" s="133" t="s">
         <v>654</v>
       </c>
-      <c r="B14" s="112"/>
-      <c r="C14" s="112"/>
-      <c r="D14" s="112"/>
-      <c r="E14" s="112"/>
-      <c r="F14" s="112"/>
-      <c r="G14" s="112"/>
-      <c r="H14" s="112"/>
+      <c r="B14" s="128"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
+      <c r="F14" s="128"/>
+      <c r="G14" s="128"/>
+      <c r="H14" s="128"/>
       <c r="I14" s="92"/>
       <c r="J14" s="92"/>
       <c r="K14" s="92"/>
@@ -21442,11 +21414,11 @@
       <c r="L15" s="93"/>
     </row>
     <row r="16" spans="1:12" ht="28.5">
-      <c r="A16" s="119" t="s">
+      <c r="A16" s="135" t="s">
         <v>655</v>
       </c>
-      <c r="B16" s="112"/>
-      <c r="C16" s="112"/>
+      <c r="B16" s="128"/>
+      <c r="C16" s="128"/>
       <c r="D16" s="92"/>
       <c r="E16" s="92"/>
       <c r="F16" s="92"/>
@@ -21458,16 +21430,16 @@
       <c r="L16" s="93"/>
     </row>
     <row r="17" spans="1:12" ht="12.75">
-      <c r="A17" s="117" t="s">
+      <c r="A17" s="133" t="s">
         <v>656</v>
       </c>
-      <c r="B17" s="112"/>
-      <c r="C17" s="112"/>
-      <c r="D17" s="112"/>
-      <c r="E17" s="112"/>
-      <c r="F17" s="112"/>
-      <c r="G17" s="112"/>
-      <c r="H17" s="112"/>
+      <c r="B17" s="128"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="128"/>
+      <c r="G17" s="128"/>
+      <c r="H17" s="128"/>
       <c r="I17" s="92"/>
       <c r="J17" s="92"/>
       <c r="K17" s="92"/>
@@ -21488,16 +21460,16 @@
       <c r="L18" s="93"/>
     </row>
     <row r="19" spans="1:12" ht="12.75">
-      <c r="A19" s="117" t="s">
+      <c r="A19" s="133" t="s">
         <v>657</v>
       </c>
-      <c r="B19" s="112"/>
-      <c r="C19" s="112"/>
-      <c r="D19" s="112"/>
-      <c r="E19" s="112"/>
-      <c r="F19" s="112"/>
-      <c r="G19" s="112"/>
-      <c r="H19" s="112"/>
+      <c r="B19" s="128"/>
+      <c r="C19" s="128"/>
+      <c r="D19" s="128"/>
+      <c r="E19" s="128"/>
+      <c r="F19" s="128"/>
+      <c r="G19" s="128"/>
+      <c r="H19" s="128"/>
       <c r="I19" s="92"/>
       <c r="J19" s="92"/>
       <c r="K19" s="92"/>

--- a/data/laboratorie_data.xlsx
+++ b/data/laboratorie_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvmad\Desktop\Ditz3ns-Ice-Cream-Lab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF753627-54BD-4A63-9A96-C7179AC4D1AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A591F638-CD08-4C29-938D-96C1FFDCE108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="668">
   <si>
     <t>Velkommen til Ditz3n's Ninja CREAMi Laboratorium! 🍦</t>
   </si>
@@ -754,9 +754,6 @@
   </si>
   <si>
     <t>Arla® LactoFREE Yoghurt Naturel 1,5%</t>
-  </si>
-  <si>
-    <t>heasy</t>
   </si>
   <si>
     <t>Stay Strong Protein Koldskål</t>
@@ -2159,6 +2156,33 @@
   <si>
     <t>Milbona High Protein Vanilla Cottage Cheese</t>
   </si>
+  <si>
+    <t>Milbona High Protein Chocolate Flavour Drink</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>5.3</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>10.6</t>
+  </si>
+  <si>
+    <t>0.13</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>15.9</t>
+  </si>
+  <si>
+    <t>God base. Højt protein/MSNF, lavt fedt, moderat PAC.</t>
+  </si>
 </sst>
 </file>
 
@@ -2168,7 +2192,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2282,6 +2306,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="15">
@@ -2467,7 +2498,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2599,15 +2630,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2757,6 +2779,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2773,6 +2804,15 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3615,8 +3655,8 @@
   </sheetPr>
   <dimension ref="A1:L659"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A275" workbookViewId="0">
+      <selection activeCell="A251" sqref="A251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -4674,7 +4714,7 @@
       <c r="H37" s="15"/>
       <c r="I37" s="15"/>
       <c r="J37" s="32"/>
-      <c r="K37" s="110"/>
+      <c r="K37" s="107"/>
       <c r="L37" s="4"/>
     </row>
     <row r="38" spans="1:12" ht="14.25">
@@ -6899,107 +6939,107 @@
       </c>
     </row>
     <row r="193" spans="1:11" ht="14.25">
-      <c r="A193" s="116" t="s">
+      <c r="A193" s="113" t="s">
         <v>174</v>
       </c>
-      <c r="B193" s="117">
+      <c r="B193" s="114">
         <v>78</v>
       </c>
-      <c r="C193" s="117">
+      <c r="C193" s="114">
         <v>2.1</v>
       </c>
-      <c r="D193" s="117">
+      <c r="D193" s="114">
         <v>7.3</v>
       </c>
-      <c r="E193" s="117">
+      <c r="E193" s="114">
         <v>7</v>
       </c>
-      <c r="F193" s="117">
+      <c r="F193" s="114">
         <v>6.2</v>
       </c>
-      <c r="G193" s="117">
+      <c r="G193" s="114">
         <v>0.2</v>
       </c>
-      <c r="H193" s="117">
+      <c r="H193" s="114">
         <v>13.3</v>
       </c>
-      <c r="I193" s="117">
+      <c r="I193" s="114">
         <v>13.5</v>
       </c>
-      <c r="J193" s="117">
+      <c r="J193" s="114">
         <v>1.9</v>
       </c>
-      <c r="K193" s="118" t="s">
+      <c r="K193" s="115" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="194" spans="1:11" ht="14.25">
-      <c r="A194" s="122" t="s">
-        <v>659</v>
-      </c>
-      <c r="B194" s="123">
+      <c r="A194" s="119" t="s">
+        <v>658</v>
+      </c>
+      <c r="B194" s="120">
         <v>78</v>
       </c>
-      <c r="C194" s="123">
+      <c r="C194" s="120">
         <v>1.3</v>
       </c>
-      <c r="D194" s="123">
+      <c r="D194" s="120">
         <v>5.6</v>
       </c>
-      <c r="E194" s="123">
+      <c r="E194" s="120">
         <v>4.3</v>
       </c>
-      <c r="F194" s="123">
+      <c r="F194" s="120">
         <v>11</v>
       </c>
-      <c r="G194" s="123">
+      <c r="G194" s="120">
         <v>0.71</v>
       </c>
-      <c r="H194" s="124">
+      <c r="H194" s="121">
         <v>13.138999999999999</v>
       </c>
-      <c r="I194" s="123">
+      <c r="I194" s="120">
         <v>6.6</v>
       </c>
-      <c r="J194" s="125">
+      <c r="J194" s="122">
         <v>1.3</v>
       </c>
-      <c r="K194" s="126" t="s">
+      <c r="K194" s="123" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="195" spans="1:11" ht="14.25">
-      <c r="A195" s="119" t="s">
+      <c r="A195" s="116" t="s">
         <v>175</v>
       </c>
-      <c r="B195" s="120">
+      <c r="B195" s="117">
         <v>103</v>
       </c>
-      <c r="C195" s="120">
+      <c r="C195" s="117">
         <v>3.2</v>
       </c>
-      <c r="D195" s="120">
+      <c r="D195" s="117">
         <v>15</v>
       </c>
-      <c r="E195" s="120">
+      <c r="E195" s="117">
         <v>13</v>
       </c>
-      <c r="F195" s="120">
+      <c r="F195" s="117">
         <v>3.6</v>
       </c>
-      <c r="G195" s="120">
+      <c r="G195" s="117">
         <v>0.12</v>
       </c>
-      <c r="H195" s="120">
+      <c r="H195" s="117">
         <v>13</v>
       </c>
-      <c r="I195" s="120">
+      <c r="I195" s="117">
         <v>18.600000000000001</v>
       </c>
-      <c r="J195" s="120">
+      <c r="J195" s="117">
         <v>2.9</v>
       </c>
-      <c r="K195" s="121" t="s">
+      <c r="K195" s="118" t="s">
         <v>176</v>
       </c>
     </row>
@@ -8508,144 +8548,144 @@
         <v>224</v>
       </c>
       <c r="B240" s="52">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C240" s="52">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="D240" s="52">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="E240" s="52">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="F240" s="52">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="G240" s="52">
         <v>0.1</v>
       </c>
       <c r="H240" s="52">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="I240" s="52">
-        <v>7.1</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="J240" s="52">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="K240" s="51" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="241" spans="1:11" ht="14.25">
-      <c r="A241" s="51" t="s">
+      <c r="A241" s="113" t="s">
         <v>225</v>
       </c>
-      <c r="B241" s="52">
-        <v>48</v>
-      </c>
-      <c r="C241" s="52">
-        <v>1.4</v>
-      </c>
-      <c r="D241" s="52">
-        <v>3.8</v>
-      </c>
-      <c r="E241" s="52">
+      <c r="B241" s="114">
+        <v>190</v>
+      </c>
+      <c r="C241" s="114">
+        <v>16</v>
+      </c>
+      <c r="D241" s="114">
         <v>3.3</v>
       </c>
-      <c r="F241" s="52">
-        <v>5</v>
-      </c>
-      <c r="G241" s="52">
-        <v>0.1</v>
-      </c>
-      <c r="H241" s="52">
+      <c r="E241" s="114">
+        <v>3.3</v>
+      </c>
+      <c r="F241" s="114">
+        <v>7.8</v>
+      </c>
+      <c r="G241" s="114">
+        <v>0.8</v>
+      </c>
+      <c r="H241" s="114">
         <v>6.3</v>
       </c>
-      <c r="I241" s="52">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="J241" s="52">
-        <v>1.3</v>
-      </c>
-      <c r="K241" s="51" t="s">
+      <c r="I241" s="114">
+        <v>11.1</v>
+      </c>
+      <c r="J241" s="114">
+        <v>14.4</v>
+      </c>
+      <c r="K241" s="113" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="242" spans="1:11" ht="14.25">
-      <c r="A242" s="51" t="s">
+    <row r="242" spans="1:11" ht="28.5">
+      <c r="A242" s="125" t="s">
+        <v>659</v>
+      </c>
+      <c r="B242" s="126">
+        <v>67</v>
+      </c>
+      <c r="C242" s="126" t="s">
+        <v>660</v>
+      </c>
+      <c r="D242" s="126" t="s">
+        <v>661</v>
+      </c>
+      <c r="E242" s="126" t="s">
+        <v>662</v>
+      </c>
+      <c r="F242" s="126" t="s">
+        <v>663</v>
+      </c>
+      <c r="G242" s="126" t="s">
+        <v>664</v>
+      </c>
+      <c r="H242" s="126" t="s">
+        <v>665</v>
+      </c>
+      <c r="I242" s="126" t="s">
+        <v>666</v>
+      </c>
+      <c r="J242" s="126" t="s">
+        <v>660</v>
+      </c>
+      <c r="K242" s="124" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" ht="14.25">
+      <c r="A243" s="116" t="s">
         <v>226</v>
       </c>
-      <c r="B242" s="52">
-        <v>190</v>
-      </c>
-      <c r="C242" s="52">
-        <v>16</v>
-      </c>
-      <c r="D242" s="52">
-        <v>3.3</v>
-      </c>
-      <c r="E242" s="52">
-        <v>3.3</v>
-      </c>
-      <c r="F242" s="52">
-        <v>7.8</v>
-      </c>
-      <c r="G242" s="52">
-        <v>0.8</v>
-      </c>
-      <c r="H242" s="52">
-        <v>6.3</v>
-      </c>
-      <c r="I242" s="52">
-        <v>11.1</v>
-      </c>
-      <c r="J242" s="52">
-        <v>14.4</v>
-      </c>
-      <c r="K242" s="51" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="243" spans="1:11" ht="14.25">
-      <c r="A243" s="51" t="s">
-        <v>227</v>
-      </c>
-      <c r="B243" s="52">
+      <c r="B243" s="117">
         <v>345</v>
       </c>
-      <c r="C243" s="52">
+      <c r="C243" s="117">
         <v>36</v>
       </c>
-      <c r="D243" s="52">
+      <c r="D243" s="117">
         <v>2.9</v>
       </c>
-      <c r="E243" s="52">
+      <c r="E243" s="117">
         <v>2.9</v>
       </c>
-      <c r="F243" s="52">
+      <c r="F243" s="117">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G243" s="52">
+      <c r="G243" s="117">
         <v>0.06</v>
       </c>
-      <c r="H243" s="52">
+      <c r="H243" s="117">
         <v>5.5</v>
       </c>
-      <c r="I243" s="52">
+      <c r="I243" s="117">
         <v>5.2</v>
       </c>
-      <c r="J243" s="52">
+      <c r="J243" s="117">
         <v>32.4</v>
       </c>
-      <c r="K243" s="51" t="s">
+      <c r="K243" s="116" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="244" spans="1:11" ht="14.25">
       <c r="A244" s="51" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B244" s="52">
         <v>60</v>
@@ -8680,7 +8720,7 @@
     </row>
     <row r="245" spans="1:11" ht="14.25">
       <c r="A245" s="51" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B245" s="52">
         <v>48</v>
@@ -8715,7 +8755,7 @@
     </row>
     <row r="246" spans="1:11" ht="14.25">
       <c r="A246" s="51" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B246" s="52">
         <v>47</v>
@@ -8750,7 +8790,7 @@
     </row>
     <row r="247" spans="1:11" ht="14.25">
       <c r="A247" s="51" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B247" s="52">
         <v>47</v>
@@ -8785,7 +8825,7 @@
     </row>
     <row r="248" spans="1:11" ht="14.25">
       <c r="A248" s="51" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B248" s="52">
         <v>46</v>
@@ -8818,7 +8858,7 @@
     </row>
     <row r="249" spans="1:11" ht="14.25">
       <c r="A249" s="51" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B249" s="52">
         <v>59</v>
@@ -8851,7 +8891,7 @@
     </row>
     <row r="250" spans="1:11" ht="14.25">
       <c r="A250" s="51" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B250" s="52">
         <v>65</v>
@@ -8886,7 +8926,7 @@
     </row>
     <row r="251" spans="1:11" ht="14.25">
       <c r="A251" s="51" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B251" s="52">
         <v>65</v>
@@ -8921,7 +8961,7 @@
     </row>
     <row r="252" spans="1:11" ht="14.25">
       <c r="A252" s="51" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B252" s="52">
         <v>60</v>
@@ -8954,44 +8994,44 @@
         <v>162</v>
       </c>
     </row>
-    <row r="253" spans="1:11" ht="25.5">
-      <c r="A253" s="58" t="s">
+    <row r="253" spans="1:11" ht="28.5">
+      <c r="A253" s="137" t="s">
+        <v>236</v>
+      </c>
+      <c r="B253" s="138">
+        <v>147</v>
+      </c>
+      <c r="C253" s="138">
+        <v>11</v>
+      </c>
+      <c r="D253" s="138">
+        <v>5.2</v>
+      </c>
+      <c r="E253" s="138">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F253" s="138">
+        <v>7.4</v>
+      </c>
+      <c r="G253" s="138">
+        <v>0.7</v>
+      </c>
+      <c r="H253" s="138">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="I253" s="138">
+        <v>12.6</v>
+      </c>
+      <c r="J253" s="138">
+        <v>9.9</v>
+      </c>
+      <c r="K253" s="139" t="s">
         <v>237</v>
-      </c>
-      <c r="B253" s="59">
-        <v>147</v>
-      </c>
-      <c r="C253" s="59">
-        <v>11</v>
-      </c>
-      <c r="D253" s="59">
-        <v>5.2</v>
-      </c>
-      <c r="E253" s="59">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="F253" s="59">
-        <v>7.4</v>
-      </c>
-      <c r="G253" s="59">
-        <v>0.7</v>
-      </c>
-      <c r="H253" s="59">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="I253" s="59">
-        <v>12.6</v>
-      </c>
-      <c r="J253" s="59">
-        <v>9.9</v>
-      </c>
-      <c r="K253" s="60" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="254" spans="1:11" ht="14.25">
       <c r="A254" s="51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B254" s="52">
         <v>47</v>
@@ -9024,7 +9064,7 @@
     </row>
     <row r="255" spans="1:11" ht="14.25">
       <c r="A255" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B255" s="52">
         <v>60</v>
@@ -9059,7 +9099,7 @@
     </row>
     <row r="256" spans="1:11" ht="14.25">
       <c r="A256" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B256" s="52">
         <v>28</v>
@@ -9089,12 +9129,12 @@
         <v>0.4</v>
       </c>
       <c r="K256" s="53" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="257" spans="1:11" ht="14.25">
       <c r="A257" s="51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B257" s="52">
         <v>59</v>
@@ -9127,7 +9167,7 @@
     </row>
     <row r="258" spans="1:11" ht="14.25">
       <c r="A258" s="51" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B258" s="52">
         <v>38</v>
@@ -9157,12 +9197,12 @@
         <v>1.4</v>
       </c>
       <c r="K258" s="53" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="259" spans="1:11" ht="28.5">
       <c r="A259" s="56" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B259" s="14">
         <v>64</v>
@@ -9192,12 +9232,12 @@
         <v>3.2</v>
       </c>
       <c r="K259" s="53" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="260" spans="1:11" ht="28.5">
       <c r="A260" s="51" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B260" s="52">
         <v>46</v>
@@ -9227,12 +9267,12 @@
         <v>1.4</v>
       </c>
       <c r="K260" s="53" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="261" spans="1:11" ht="14.25">
       <c r="A261" s="51" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B261" s="52">
         <v>40</v>
@@ -9265,7 +9305,7 @@
     </row>
     <row r="262" spans="1:11" ht="14.25">
       <c r="A262" s="51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B262" s="52">
         <v>41</v>
@@ -9298,7 +9338,7 @@
     </row>
     <row r="263" spans="1:11" ht="14.25">
       <c r="A263" s="51" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B263" s="52">
         <v>113</v>
@@ -9328,12 +9368,12 @@
         <v>7.2</v>
       </c>
       <c r="K263" s="53" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="264" spans="1:11" ht="14.25">
       <c r="A264" s="51" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B264" s="52">
         <v>120</v>
@@ -9366,7 +9406,7 @@
     </row>
     <row r="265" spans="1:11" ht="28.5">
       <c r="A265" s="56" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B265" s="14">
         <v>226</v>
@@ -9396,12 +9436,12 @@
         <v>18.899999999999999</v>
       </c>
       <c r="K265" s="53" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="266" spans="1:11" ht="14.25">
       <c r="A266" s="51" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B266" s="52">
         <v>55</v>
@@ -9434,7 +9474,7 @@
     </row>
     <row r="267" spans="1:11" ht="14.25">
       <c r="A267" s="51" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B267" s="52">
         <v>171</v>
@@ -9464,12 +9504,12 @@
         <v>13.5</v>
       </c>
       <c r="K267" s="53" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="268" spans="1:11" ht="14.25">
       <c r="A268" s="51" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B268" s="52">
         <v>37</v>
@@ -9502,7 +9542,7 @@
     </row>
     <row r="269" spans="1:11" ht="14.25">
       <c r="A269" s="51" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B269" s="52">
         <v>37</v>
@@ -9535,7 +9575,7 @@
     </row>
     <row r="270" spans="1:11" ht="14.25">
       <c r="A270" s="51" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B270" s="52">
         <v>61</v>
@@ -9565,12 +9605,12 @@
         <v>0.2</v>
       </c>
       <c r="K270" s="51" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="271" spans="1:11" ht="14.25">
       <c r="A271" s="51" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B271" s="52">
         <v>38</v>
@@ -9603,7 +9643,7 @@
     </row>
     <row r="272" spans="1:11" ht="14.25">
       <c r="A272" s="51" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B272" s="52">
         <v>37</v>
@@ -9636,7 +9676,7 @@
     </row>
     <row r="273" spans="1:11" ht="14.25">
       <c r="A273" s="51" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B273" s="52">
         <v>56</v>
@@ -9666,12 +9706,12 @@
         <v>2.7</v>
       </c>
       <c r="K273" s="53" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="274" spans="1:11" ht="14.25">
       <c r="A274" s="51" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B274" s="52">
         <v>34</v>
@@ -9701,12 +9741,12 @@
         <v>0.3</v>
       </c>
       <c r="K274" s="53" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="275" spans="1:11" ht="14.25">
       <c r="A275" s="51" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B275" s="52">
         <v>34</v>
@@ -9739,7 +9779,7 @@
     </row>
     <row r="276" spans="1:11" ht="14.25">
       <c r="A276" s="51" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B276" s="52">
         <v>55</v>
@@ -9772,7 +9812,7 @@
     </row>
     <row r="277" spans="1:11" ht="14.25">
       <c r="A277" s="51" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B277" s="52">
         <v>36</v>
@@ -9805,7 +9845,7 @@
     </row>
     <row r="278" spans="1:11" ht="28.5">
       <c r="A278" s="29" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B278" s="15">
         <v>46</v>
@@ -9835,12 +9875,12 @@
         <v>1.4</v>
       </c>
       <c r="K278" s="30" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="279" spans="1:11" ht="28.5">
       <c r="A279" s="29" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B279" s="15">
         <v>39</v>
@@ -9870,12 +9910,12 @@
         <v>0.4</v>
       </c>
       <c r="K279" s="30" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="280" spans="1:11" ht="14.25">
       <c r="A280" s="51" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B280" s="52">
         <v>63</v>
@@ -9908,7 +9948,7 @@
     </row>
     <row r="281" spans="1:11" ht="14.25">
       <c r="A281" s="51" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B281" s="52">
         <v>44</v>
@@ -9941,7 +9981,7 @@
     </row>
     <row r="282" spans="1:11" ht="14.25">
       <c r="A282" s="51" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B282" s="52">
         <v>81</v>
@@ -9974,7 +10014,7 @@
     </row>
     <row r="283" spans="1:11" ht="14.25">
       <c r="A283" s="51" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B283" s="52">
         <v>98</v>
@@ -10009,7 +10049,7 @@
     </row>
     <row r="284" spans="1:11" ht="14.25">
       <c r="A284" s="51" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B284" s="52">
         <v>41</v>
@@ -10042,7 +10082,7 @@
     </row>
     <row r="285" spans="1:11" ht="14.25">
       <c r="A285" s="51" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B285" s="52">
         <v>346</v>
@@ -10072,12 +10112,12 @@
         <v>32.4</v>
       </c>
       <c r="K285" s="53" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="286" spans="1:11" ht="14.25">
       <c r="A286" s="51" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B286" s="52">
         <v>75</v>
@@ -10112,7 +10152,7 @@
     </row>
     <row r="287" spans="1:11" ht="28.5">
       <c r="A287" s="51" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B287" s="52">
         <v>79</v>
@@ -10142,12 +10182,12 @@
         <v>1.4</v>
       </c>
       <c r="K287" s="53" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="288" spans="1:11" ht="14.25">
       <c r="A288" s="51" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B288" s="52">
         <v>102</v>
@@ -10180,7 +10220,7 @@
     </row>
     <row r="289" spans="1:11" ht="14.25">
       <c r="A289" s="51" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B289" s="52">
         <v>52</v>
@@ -10210,12 +10250,12 @@
         <v>0.2</v>
       </c>
       <c r="K289" s="53" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="290" spans="1:11" ht="15.75" customHeight="1">
       <c r="A290" s="51" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B290" s="52">
         <v>322</v>
@@ -10245,39 +10285,36 @@
         <v>23.9</v>
       </c>
       <c r="K290" s="53" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A292" s="108"/>
+      <c r="B292" s="109"/>
+      <c r="C292" s="109"/>
+      <c r="D292" s="109"/>
+      <c r="E292" s="109"/>
+      <c r="F292" s="109"/>
+      <c r="G292" s="109"/>
+      <c r="H292" s="111"/>
+      <c r="I292" s="109"/>
+      <c r="J292" s="110"/>
+      <c r="K292" s="112"/>
+    </row>
+    <row r="296" spans="1:11" ht="21.75">
+      <c r="A296" s="58" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="291" spans="1:11" ht="15.75" customHeight="1">
-      <c r="E291" s="112"/>
-    </row>
-    <row r="292" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A292" s="111"/>
-      <c r="B292" s="112"/>
-      <c r="C292" s="112"/>
-      <c r="D292" s="112"/>
-      <c r="E292" s="112"/>
-      <c r="F292" s="112"/>
-      <c r="G292" s="112"/>
-      <c r="H292" s="114"/>
-      <c r="I292" s="112"/>
-      <c r="J292" s="113"/>
-      <c r="K292" s="115"/>
-    </row>
-    <row r="296" spans="1:11" ht="21.75">
-      <c r="A296" s="61" t="s">
-        <v>289</v>
-      </c>
-      <c r="B296" s="62"/>
-      <c r="C296" s="62"/>
-      <c r="D296" s="62"/>
-      <c r="E296" s="62"/>
-      <c r="F296" s="62"/>
-      <c r="G296" s="62"/>
-      <c r="H296" s="62"/>
-      <c r="I296" s="62"/>
-      <c r="J296" s="62"/>
-      <c r="K296" s="62"/>
+      <c r="B296" s="59"/>
+      <c r="C296" s="59"/>
+      <c r="D296" s="59"/>
+      <c r="E296" s="59"/>
+      <c r="F296" s="59"/>
+      <c r="G296" s="59"/>
+      <c r="H296" s="59"/>
+      <c r="I296" s="59"/>
+      <c r="J296" s="59"/>
+      <c r="K296" s="59"/>
     </row>
     <row r="297" spans="1:11" ht="21.75">
       <c r="A297" s="21" t="s">
@@ -10316,7 +10353,7 @@
     </row>
     <row r="298" spans="1:11" ht="28.5">
       <c r="A298" s="29" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B298" s="15">
         <v>95</v>
@@ -10346,12 +10383,12 @@
         <v>2.1</v>
       </c>
       <c r="K298" s="30" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="299" spans="1:11" ht="14.25">
       <c r="A299" s="33" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B299" s="15">
         <v>77</v>
@@ -10384,7 +10421,7 @@
     </row>
     <row r="300" spans="1:11" ht="14.25">
       <c r="A300" s="33" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B300" s="15">
         <v>85</v>
@@ -10417,7 +10454,7 @@
     </row>
     <row r="301" spans="1:11" ht="14.25">
       <c r="A301" s="33" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B301" s="15">
         <v>70</v>
@@ -10450,7 +10487,7 @@
     </row>
     <row r="302" spans="1:11" ht="14.25">
       <c r="A302" s="33" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B302" s="15">
         <v>69</v>
@@ -10483,7 +10520,7 @@
     </row>
     <row r="303" spans="1:11" ht="14.25">
       <c r="A303" s="33" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B303" s="15">
         <v>68</v>
@@ -10516,7 +10553,7 @@
     </row>
     <row r="304" spans="1:11" ht="14.25">
       <c r="A304" s="33" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B304" s="15">
         <v>66</v>
@@ -10549,7 +10586,7 @@
     </row>
     <row r="305" spans="1:11" ht="14.25">
       <c r="A305" s="33" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B305" s="15">
         <v>61</v>
@@ -10582,7 +10619,7 @@
     </row>
     <row r="306" spans="1:11" ht="14.25">
       <c r="A306" s="33" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B306" s="15">
         <v>52</v>
@@ -10615,7 +10652,7 @@
     </row>
     <row r="307" spans="1:11" ht="14.25">
       <c r="A307" s="33" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B307" s="15">
         <v>82</v>
@@ -10648,7 +10685,7 @@
     </row>
     <row r="308" spans="1:11" ht="14.25">
       <c r="A308" s="33" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B308" s="15">
         <v>83</v>
@@ -10681,7 +10718,7 @@
     </row>
     <row r="309" spans="1:11" ht="14.25">
       <c r="A309" s="33" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B309" s="15">
         <v>61</v>
@@ -10714,7 +10751,7 @@
     </row>
     <row r="310" spans="1:11" ht="14.25">
       <c r="A310" s="33" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B310" s="15">
         <v>65</v>
@@ -10747,7 +10784,7 @@
     </row>
     <row r="311" spans="1:11" ht="14.25">
       <c r="A311" s="33" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B311" s="15">
         <v>97</v>
@@ -10780,7 +10817,7 @@
     </row>
     <row r="312" spans="1:11" ht="14.25">
       <c r="A312" s="33" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B312" s="15">
         <v>95</v>
@@ -10813,7 +10850,7 @@
     </row>
     <row r="313" spans="1:11" ht="14.25">
       <c r="A313" s="33" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B313" s="15">
         <v>75</v>
@@ -10846,7 +10883,7 @@
     </row>
     <row r="314" spans="1:11" ht="14.25">
       <c r="A314" s="33" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B314" s="15">
         <v>30</v>
@@ -10879,7 +10916,7 @@
     </row>
     <row r="315" spans="1:11" ht="14.25">
       <c r="A315" s="33" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B315" s="15">
         <v>69</v>
@@ -10912,7 +10949,7 @@
     </row>
     <row r="316" spans="1:11" ht="14.25">
       <c r="A316" s="33" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B316" s="15">
         <v>67</v>
@@ -10945,7 +10982,7 @@
     </row>
     <row r="317" spans="1:11" ht="14.25">
       <c r="A317" s="33" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B317" s="15">
         <v>70</v>
@@ -10978,7 +11015,7 @@
     </row>
     <row r="318" spans="1:11" ht="14.25">
       <c r="A318" s="33" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B318" s="15">
         <v>72</v>
@@ -11011,7 +11048,7 @@
     </row>
     <row r="319" spans="1:11" ht="14.25">
       <c r="A319" s="33" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B319" s="15">
         <v>56</v>
@@ -11044,7 +11081,7 @@
     </row>
     <row r="320" spans="1:11" ht="28.5">
       <c r="A320" s="33" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B320" s="15">
         <v>262</v>
@@ -11074,12 +11111,12 @@
         <v>21.6</v>
       </c>
       <c r="K320" s="30" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="321" spans="1:11" ht="14.25">
       <c r="A321" s="33" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B321" s="15">
         <v>48</v>
@@ -11112,7 +11149,7 @@
     </row>
     <row r="322" spans="1:11" ht="14.25">
       <c r="A322" s="33" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B322" s="15">
         <v>59</v>
@@ -11145,7 +11182,7 @@
     </row>
     <row r="323" spans="1:11" ht="14.25">
       <c r="A323" s="33" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B323" s="15">
         <v>61</v>
@@ -11178,7 +11215,7 @@
     </row>
     <row r="324" spans="1:11" ht="14.25">
       <c r="A324" s="33" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B324" s="15">
         <v>39</v>
@@ -11211,7 +11248,7 @@
     </row>
     <row r="325" spans="1:11" ht="14.25">
       <c r="A325" s="33" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B325" s="15">
         <v>33</v>
@@ -11244,7 +11281,7 @@
     </row>
     <row r="326" spans="1:11" ht="14.25">
       <c r="A326" s="33" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B326" s="15">
         <v>54</v>
@@ -11277,7 +11314,7 @@
     </row>
     <row r="327" spans="1:11" ht="14.25">
       <c r="A327" s="33" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B327" s="15">
         <v>37</v>
@@ -11310,7 +11347,7 @@
     </row>
     <row r="328" spans="1:11" ht="14.25">
       <c r="A328" s="33" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B328" s="15">
         <v>61</v>
@@ -11340,12 +11377,12 @@
         <v>2.7</v>
       </c>
       <c r="K328" s="30" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="329" spans="1:11" ht="14.25">
       <c r="A329" s="33" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B329" s="15">
         <v>42</v>
@@ -11378,7 +11415,7 @@
     </row>
     <row r="330" spans="1:11" ht="14.25">
       <c r="A330" s="33" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B330" s="15">
         <v>25</v>
@@ -11411,7 +11448,7 @@
     </row>
     <row r="331" spans="1:11" ht="14.25">
       <c r="A331" s="33" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B331" s="15">
         <v>51</v>
@@ -11444,7 +11481,7 @@
     </row>
     <row r="332" spans="1:11" ht="14.25">
       <c r="A332" s="33" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B332" s="15">
         <v>54</v>
@@ -11477,7 +11514,7 @@
     </row>
     <row r="333" spans="1:11" ht="14.25">
       <c r="A333" s="33" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B333" s="15">
         <v>59</v>
@@ -11510,7 +11547,7 @@
     </row>
     <row r="334" spans="1:11" ht="14.25">
       <c r="A334" s="33" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B334" s="15">
         <v>20</v>
@@ -11543,7 +11580,7 @@
     </row>
     <row r="335" spans="1:11" ht="14.25">
       <c r="A335" s="33" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B335" s="15">
         <v>142</v>
@@ -11573,12 +11610,12 @@
         <v>12.6</v>
       </c>
       <c r="K335" s="30" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="336" spans="1:11" ht="28.5">
       <c r="A336" s="29" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B336" s="15">
         <v>219</v>
@@ -11608,12 +11645,12 @@
         <v>18.899999999999999</v>
       </c>
       <c r="K336" s="30" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="337" spans="1:11" ht="14.25">
       <c r="A337" s="33" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B337" s="15">
         <v>28</v>
@@ -11646,7 +11683,7 @@
     </row>
     <row r="338" spans="1:11" ht="14.25">
       <c r="A338" s="33" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B338" s="15">
         <v>14</v>
@@ -11679,7 +11716,7 @@
     </row>
     <row r="339" spans="1:11" ht="14.25">
       <c r="A339" s="33" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B339" s="15">
         <v>40</v>
@@ -11712,7 +11749,7 @@
     </row>
     <row r="340" spans="1:11" ht="14.25">
       <c r="A340" s="33" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B340" s="15">
         <v>15</v>
@@ -11745,7 +11782,7 @@
     </row>
     <row r="341" spans="1:11" ht="14.25">
       <c r="A341" s="33" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B341" s="15">
         <v>15</v>
@@ -11778,7 +11815,7 @@
     </row>
     <row r="342" spans="1:11" ht="14.25">
       <c r="A342" s="33" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B342" s="15">
         <v>13</v>
@@ -11810,19 +11847,19 @@
       <c r="K342" s="30"/>
     </row>
     <row r="354" spans="1:11" ht="21.75">
-      <c r="A354" s="63" t="s">
-        <v>340</v>
-      </c>
-      <c r="B354" s="64"/>
-      <c r="C354" s="64"/>
-      <c r="D354" s="64"/>
-      <c r="E354" s="64"/>
-      <c r="F354" s="64"/>
-      <c r="G354" s="64"/>
-      <c r="H354" s="64"/>
-      <c r="I354" s="64"/>
-      <c r="J354" s="64"/>
-      <c r="K354" s="64"/>
+      <c r="A354" s="60" t="s">
+        <v>339</v>
+      </c>
+      <c r="B354" s="61"/>
+      <c r="C354" s="61"/>
+      <c r="D354" s="61"/>
+      <c r="E354" s="61"/>
+      <c r="F354" s="61"/>
+      <c r="G354" s="61"/>
+      <c r="H354" s="61"/>
+      <c r="I354" s="61"/>
+      <c r="J354" s="61"/>
+      <c r="K354" s="61"/>
     </row>
     <row r="355" spans="1:11" ht="21.75">
       <c r="A355" s="21" t="s">
@@ -11861,7 +11898,7 @@
     </row>
     <row r="356" spans="1:11" ht="28.5">
       <c r="A356" s="33" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B356" s="15">
         <v>29</v>
@@ -11891,47 +11928,47 @@
         <v>0.3</v>
       </c>
       <c r="K356" s="30" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="357" spans="1:11" ht="28.5">
       <c r="A357" s="33" t="s">
+        <v>342</v>
+      </c>
+      <c r="B357" s="15">
+        <v>0</v>
+      </c>
+      <c r="C357" s="15">
+        <v>0</v>
+      </c>
+      <c r="D357" s="15">
+        <v>0</v>
+      </c>
+      <c r="E357" s="15">
+        <v>0</v>
+      </c>
+      <c r="F357" s="15">
+        <v>0</v>
+      </c>
+      <c r="G357" s="15">
+        <v>0</v>
+      </c>
+      <c r="H357" s="15">
+        <v>0</v>
+      </c>
+      <c r="I357" s="15">
+        <v>0</v>
+      </c>
+      <c r="J357" s="15">
+        <v>0</v>
+      </c>
+      <c r="K357" s="30" t="s">
         <v>343</v>
       </c>
-      <c r="B357" s="15">
-        <v>0</v>
-      </c>
-      <c r="C357" s="15">
-        <v>0</v>
-      </c>
-      <c r="D357" s="15">
-        <v>0</v>
-      </c>
-      <c r="E357" s="15">
-        <v>0</v>
-      </c>
-      <c r="F357" s="15">
-        <v>0</v>
-      </c>
-      <c r="G357" s="15">
-        <v>0</v>
-      </c>
-      <c r="H357" s="15">
-        <v>0</v>
-      </c>
-      <c r="I357" s="15">
-        <v>0</v>
-      </c>
-      <c r="J357" s="15">
-        <v>0</v>
-      </c>
-      <c r="K357" s="30" t="s">
+    </row>
+    <row r="368" spans="1:11" ht="21.75">
+      <c r="A368" s="62" t="s">
         <v>344</v>
-      </c>
-    </row>
-    <row r="368" spans="1:11" ht="21.75">
-      <c r="A368" s="65" t="s">
-        <v>345</v>
       </c>
       <c r="B368" s="37"/>
       <c r="C368" s="37"/>
@@ -11942,7 +11979,7 @@
       <c r="H368" s="37"/>
       <c r="I368" s="37"/>
       <c r="J368" s="37"/>
-      <c r="K368" s="66"/>
+      <c r="K368" s="63"/>
     </row>
     <row r="369" spans="1:11" ht="21.75">
       <c r="A369" s="21" t="s">
@@ -11981,7 +12018,7 @@
     </row>
     <row r="370" spans="1:11" ht="28.5">
       <c r="A370" s="29" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B370" s="15">
         <v>270</v>
@@ -12011,12 +12048,12 @@
         <v>0.1</v>
       </c>
       <c r="K370" s="30" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="371" spans="1:11" ht="28.5">
       <c r="A371" s="29" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B371" s="15">
         <v>47</v>
@@ -12046,12 +12083,12 @@
         <v>0</v>
       </c>
       <c r="K371" s="30" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="372" spans="1:11" ht="14.25">
       <c r="A372" s="29" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B372" s="15">
         <v>53</v>
@@ -12084,7 +12121,7 @@
     </row>
     <row r="373" spans="1:11" ht="14.25">
       <c r="A373" s="29" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B373" s="15">
         <v>45</v>
@@ -12117,7 +12154,7 @@
     </row>
     <row r="374" spans="1:11" ht="14.25">
       <c r="A374" s="29" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B374" s="15">
         <v>45</v>
@@ -12150,7 +12187,7 @@
     </row>
     <row r="375" spans="1:11" ht="14.25">
       <c r="A375" s="29" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B375" s="15">
         <v>53</v>
@@ -12183,7 +12220,7 @@
     </row>
     <row r="376" spans="1:11" ht="14.25">
       <c r="A376" s="29" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B376" s="15">
         <v>48</v>
@@ -12216,7 +12253,7 @@
     </row>
     <row r="377" spans="1:11" ht="14.25">
       <c r="A377" s="29" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B377" s="15">
         <v>57</v>
@@ -12249,7 +12286,7 @@
     </row>
     <row r="378" spans="1:11" ht="14.25">
       <c r="A378" s="29" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B378" s="15">
         <v>47</v>
@@ -12282,7 +12319,7 @@
     </row>
     <row r="379" spans="1:11" ht="14.25">
       <c r="A379" s="29" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B379" s="15">
         <v>42</v>
@@ -12315,7 +12352,7 @@
     </row>
     <row r="380" spans="1:11" ht="14.25">
       <c r="A380" s="29" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B380" s="15">
         <v>47</v>
@@ -12348,7 +12385,7 @@
     </row>
     <row r="381" spans="1:11" ht="14.25">
       <c r="A381" s="29" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B381" s="15">
         <v>40</v>
@@ -12381,7 +12418,7 @@
     </row>
     <row r="382" spans="1:11" ht="14.25">
       <c r="A382" s="29" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B382" s="15">
         <v>40</v>
@@ -12414,7 +12451,7 @@
     </row>
     <row r="383" spans="1:11" ht="14.25">
       <c r="A383" s="29" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B383" s="15">
         <v>41</v>
@@ -12447,7 +12484,7 @@
     </row>
     <row r="384" spans="1:11" ht="14.25">
       <c r="A384" s="29" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B384" s="15">
         <v>39</v>
@@ -12480,7 +12517,7 @@
     </row>
     <row r="385" spans="1:11" ht="14.25">
       <c r="A385" s="29" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B385" s="15">
         <v>41</v>
@@ -12513,7 +12550,7 @@
     </row>
     <row r="386" spans="1:11" ht="14.25">
       <c r="A386" s="29" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B386" s="15">
         <v>35</v>
@@ -12543,12 +12580,12 @@
         <v>0.2</v>
       </c>
       <c r="K386" s="30" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="387" spans="1:11" ht="14.25">
       <c r="A387" s="29" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B387" s="15">
         <v>43</v>
@@ -12581,7 +12618,7 @@
     </row>
     <row r="388" spans="1:11" ht="28.5">
       <c r="A388" s="29" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B388" s="15">
         <v>14</v>
@@ -12611,23 +12648,23 @@
         <v>0.2</v>
       </c>
       <c r="K388" s="30" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="393" spans="1:11" ht="21.75">
+      <c r="A393" s="62" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="393" spans="1:11" ht="21.75">
-      <c r="A393" s="65" t="s">
-        <v>369</v>
-      </c>
-      <c r="B393" s="66"/>
-      <c r="C393" s="66"/>
-      <c r="D393" s="66"/>
-      <c r="E393" s="66"/>
-      <c r="F393" s="66"/>
-      <c r="G393" s="66"/>
-      <c r="H393" s="66"/>
-      <c r="I393" s="66"/>
-      <c r="J393" s="66"/>
-      <c r="K393" s="66"/>
+      <c r="B393" s="63"/>
+      <c r="C393" s="63"/>
+      <c r="D393" s="63"/>
+      <c r="E393" s="63"/>
+      <c r="F393" s="63"/>
+      <c r="G393" s="63"/>
+      <c r="H393" s="63"/>
+      <c r="I393" s="63"/>
+      <c r="J393" s="63"/>
+      <c r="K393" s="63"/>
     </row>
     <row r="394" spans="1:11" ht="21.75">
       <c r="A394" s="21" t="s">
@@ -12666,7 +12703,7 @@
     </row>
     <row r="395" spans="1:11" ht="42.75">
       <c r="A395" s="29" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B395" s="15">
         <v>277</v>
@@ -12696,12 +12733,12 @@
         <v>0.2</v>
       </c>
       <c r="K395" s="30" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="396" spans="1:11" ht="28.5">
       <c r="A396" s="29" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B396" s="15">
         <v>69</v>
@@ -12731,12 +12768,12 @@
         <v>0</v>
       </c>
       <c r="K396" s="30" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="397" spans="1:11" ht="28.5">
       <c r="A397" s="29" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B397" s="15">
         <v>63</v>
@@ -12766,12 +12803,12 @@
         <v>0</v>
       </c>
       <c r="K397" s="30" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="398" spans="1:11" ht="28.5">
       <c r="A398" s="29" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B398" s="15">
         <v>89</v>
@@ -12801,12 +12838,12 @@
         <v>0</v>
       </c>
       <c r="K398" s="30" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="399" spans="1:11" ht="14.25">
       <c r="A399" s="33" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B399" s="15">
         <v>47</v>
@@ -12836,12 +12873,12 @@
         <v>0</v>
       </c>
       <c r="K399" s="33" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="400" spans="1:11" ht="42.75">
       <c r="A400" s="29" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B400" s="15">
         <v>52</v>
@@ -12871,12 +12908,12 @@
         <v>0</v>
       </c>
       <c r="K400" s="30" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="401" spans="1:11" ht="28.5">
       <c r="A401" s="29" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B401" s="15">
         <v>57</v>
@@ -12906,12 +12943,12 @@
         <v>0</v>
       </c>
       <c r="K401" s="30" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="402" spans="1:11" ht="28.5">
       <c r="A402" s="29" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B402" s="15">
         <v>46</v>
@@ -12941,12 +12978,12 @@
         <v>0</v>
       </c>
       <c r="K402" s="30" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="403" spans="1:11" ht="28.5">
       <c r="A403" s="29" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B403" s="15">
         <v>50</v>
@@ -12976,12 +13013,12 @@
         <v>0</v>
       </c>
       <c r="K403" s="30" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="404" spans="1:11" ht="28.5">
       <c r="A404" s="29" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B404" s="15">
         <v>57</v>
@@ -13011,12 +13048,12 @@
         <v>0</v>
       </c>
       <c r="K404" s="30" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="405" spans="1:11" ht="28.5">
       <c r="A405" s="29" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B405" s="15">
         <v>47</v>
@@ -13046,12 +13083,12 @@
         <v>0</v>
       </c>
       <c r="K405" s="30" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="406" spans="1:11" ht="28.5">
       <c r="A406" s="29" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B406" s="15">
         <v>39</v>
@@ -13081,12 +13118,12 @@
         <v>0</v>
       </c>
       <c r="K406" s="30" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="407" spans="1:11" ht="28.5">
       <c r="A407" s="29" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B407" s="15">
         <v>90</v>
@@ -13116,12 +13153,12 @@
         <v>0</v>
       </c>
       <c r="K407" s="30" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="408" spans="1:11" ht="28.5">
       <c r="A408" s="29" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B408" s="15">
         <v>30</v>
@@ -13151,12 +13188,12 @@
         <v>0</v>
       </c>
       <c r="K408" s="30" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="409" spans="1:11" ht="28.5">
       <c r="A409" s="29" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B409" s="15">
         <v>32</v>
@@ -13186,12 +13223,12 @@
         <v>0</v>
       </c>
       <c r="K409" s="30" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="410" spans="1:11" ht="28.5">
       <c r="A410" s="29" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B410" s="15">
         <v>52</v>
@@ -13221,12 +13258,12 @@
         <v>0</v>
       </c>
       <c r="K410" s="30" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="411" spans="1:11" ht="28.5">
       <c r="A411" s="29" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B411" s="15">
         <v>29</v>
@@ -13256,12 +13293,12 @@
         <v>0</v>
       </c>
       <c r="K411" s="30" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="412" spans="1:11" ht="28.5">
       <c r="A412" s="29" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B412" s="15">
         <v>35</v>
@@ -13291,12 +13328,12 @@
         <v>0</v>
       </c>
       <c r="K412" s="30" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="413" spans="1:11" ht="42.75">
       <c r="A413" s="29" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B413" s="15">
         <v>160</v>
@@ -13326,12 +13363,12 @@
         <v>132</v>
       </c>
       <c r="K413" s="30" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="414" spans="1:11" ht="28.5">
       <c r="A414" s="29" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B414" s="15">
         <v>23</v>
@@ -13361,12 +13398,12 @@
         <v>0</v>
       </c>
       <c r="K414" s="30" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="415" spans="1:11" ht="28.5">
+      <c r="A415" s="64" t="s">
         <v>409</v>
-      </c>
-    </row>
-    <row r="415" spans="1:11" ht="28.5">
-      <c r="A415" s="67" t="s">
-        <v>410</v>
       </c>
       <c r="B415" s="15">
         <v>324</v>
@@ -13395,24 +13432,24 @@
       <c r="J415" s="15">
         <v>0</v>
       </c>
-      <c r="K415" s="68" t="s">
+      <c r="K415" s="65" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="426" spans="1:11" ht="21.75">
+      <c r="A426" s="62" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="426" spans="1:11" ht="21.75">
-      <c r="A426" s="65" t="s">
-        <v>412</v>
-      </c>
-      <c r="B426" s="66"/>
-      <c r="C426" s="66"/>
-      <c r="D426" s="66"/>
-      <c r="E426" s="66"/>
-      <c r="F426" s="66"/>
-      <c r="G426" s="66"/>
-      <c r="H426" s="66"/>
-      <c r="I426" s="66"/>
-      <c r="J426" s="66"/>
-      <c r="K426" s="66"/>
+      <c r="B426" s="63"/>
+      <c r="C426" s="63"/>
+      <c r="D426" s="63"/>
+      <c r="E426" s="63"/>
+      <c r="F426" s="63"/>
+      <c r="G426" s="63"/>
+      <c r="H426" s="63"/>
+      <c r="I426" s="63"/>
+      <c r="J426" s="63"/>
+      <c r="K426" s="63"/>
     </row>
     <row r="427" spans="1:11" ht="21.75">
       <c r="A427" s="21" t="s">
@@ -13451,7 +13488,7 @@
     </row>
     <row r="428" spans="1:11" ht="28.5">
       <c r="A428" s="29" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B428" s="15">
         <v>69</v>
@@ -13481,12 +13518,12 @@
         <v>0</v>
       </c>
       <c r="K428" s="30" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="429" spans="1:11" ht="28.5">
       <c r="A429" s="29" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B429" s="15">
         <v>67</v>
@@ -13516,12 +13553,12 @@
         <v>0</v>
       </c>
       <c r="K429" s="30" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="430" spans="1:11" ht="28.5">
       <c r="A430" s="29" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B430" s="15">
         <v>48</v>
@@ -13551,12 +13588,12 @@
         <v>0</v>
       </c>
       <c r="K430" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="431" spans="1:11" ht="28.5">
       <c r="A431" s="29" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B431" s="15">
         <v>53</v>
@@ -13586,12 +13623,12 @@
         <v>0</v>
       </c>
       <c r="K431" s="30" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="432" spans="1:11" ht="28.5">
       <c r="A432" s="29" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B432" s="15">
         <v>34</v>
@@ -13621,12 +13658,12 @@
         <v>0</v>
       </c>
       <c r="K432" s="30" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="433" spans="1:11" ht="28.5">
       <c r="A433" s="29" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B433" s="15">
         <v>41</v>
@@ -13656,12 +13693,12 @@
         <v>0</v>
       </c>
       <c r="K433" s="30" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="434" spans="1:11" ht="42.75">
       <c r="A434" s="29" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B434" s="15">
         <v>29</v>
@@ -13691,23 +13728,23 @@
         <v>0</v>
       </c>
       <c r="K434" s="30" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="441" spans="1:11" ht="21.75">
+      <c r="A441" s="62" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="441" spans="1:11" ht="21.75">
-      <c r="A441" s="65" t="s">
-        <v>427</v>
-      </c>
-      <c r="B441" s="66"/>
-      <c r="C441" s="66"/>
-      <c r="D441" s="66"/>
-      <c r="E441" s="66"/>
-      <c r="F441" s="66"/>
-      <c r="G441" s="66"/>
-      <c r="H441" s="66"/>
-      <c r="I441" s="66"/>
-      <c r="J441" s="66"/>
-      <c r="K441" s="66"/>
+      <c r="B441" s="63"/>
+      <c r="C441" s="63"/>
+      <c r="D441" s="63"/>
+      <c r="E441" s="63"/>
+      <c r="F441" s="63"/>
+      <c r="G441" s="63"/>
+      <c r="H441" s="63"/>
+      <c r="I441" s="63"/>
+      <c r="J441" s="63"/>
+      <c r="K441" s="63"/>
     </row>
     <row r="442" spans="1:11" ht="21.75">
       <c r="A442" s="21" t="s">
@@ -13746,7 +13783,7 @@
     </row>
     <row r="443" spans="1:11" ht="28.5">
       <c r="A443" s="29" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B443" s="15">
         <v>57</v>
@@ -13776,23 +13813,23 @@
         <v>0.5</v>
       </c>
       <c r="K443" s="30" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="456" spans="1:11" ht="21.75">
+      <c r="A456" s="66" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="456" spans="1:11" ht="21.75">
-      <c r="A456" s="69" t="s">
-        <v>430</v>
-      </c>
-      <c r="B456" s="70"/>
-      <c r="C456" s="70"/>
-      <c r="D456" s="70"/>
-      <c r="E456" s="70"/>
-      <c r="F456" s="70"/>
-      <c r="G456" s="70"/>
-      <c r="H456" s="70"/>
-      <c r="I456" s="70"/>
-      <c r="J456" s="70"/>
-      <c r="K456" s="70"/>
+      <c r="B456" s="67"/>
+      <c r="C456" s="67"/>
+      <c r="D456" s="67"/>
+      <c r="E456" s="67"/>
+      <c r="F456" s="67"/>
+      <c r="G456" s="67"/>
+      <c r="H456" s="67"/>
+      <c r="I456" s="67"/>
+      <c r="J456" s="67"/>
+      <c r="K456" s="67"/>
     </row>
     <row r="457" spans="1:11" ht="21.75">
       <c r="A457" s="21" t="s">
@@ -13831,42 +13868,42 @@
     </row>
     <row r="458" spans="1:11" ht="14.25">
       <c r="A458" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="B458" s="68">
+        <v>281</v>
+      </c>
+      <c r="C458" s="68">
+        <v>0.5</v>
+      </c>
+      <c r="D458" s="68">
+        <v>68</v>
+      </c>
+      <c r="E458" s="68">
+        <v>67</v>
+      </c>
+      <c r="F458" s="68">
+        <v>0.5</v>
+      </c>
+      <c r="G458" s="68">
+        <v>0</v>
+      </c>
+      <c r="H458" s="68">
+        <v>73.7</v>
+      </c>
+      <c r="I458" s="68">
+        <v>68.5</v>
+      </c>
+      <c r="J458" s="68">
+        <v>0.5</v>
+      </c>
+      <c r="K458" s="33" t="s">
         <v>431</v>
-      </c>
-      <c r="B458" s="71">
-        <v>281</v>
-      </c>
-      <c r="C458" s="71">
-        <v>0.5</v>
-      </c>
-      <c r="D458" s="71">
-        <v>68</v>
-      </c>
-      <c r="E458" s="71">
-        <v>67</v>
-      </c>
-      <c r="F458" s="71">
-        <v>0.5</v>
-      </c>
-      <c r="G458" s="71">
-        <v>0</v>
-      </c>
-      <c r="H458" s="71">
-        <v>73.7</v>
-      </c>
-      <c r="I458" s="71">
-        <v>68.5</v>
-      </c>
-      <c r="J458" s="71">
-        <v>0.5</v>
-      </c>
-      <c r="K458" s="33" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="459" spans="1:11" ht="28.5">
       <c r="A459" s="29" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B459" s="15">
         <v>26</v>
@@ -13896,12 +13933,12 @@
         <v>0.5</v>
       </c>
       <c r="K459" s="30" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="460" spans="1:11" ht="14.25">
       <c r="A460" s="29" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B460" s="15">
         <v>35</v>
@@ -13931,12 +13968,12 @@
         <v>0.5</v>
       </c>
       <c r="K460" s="30" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="461" spans="1:11" ht="14.25">
       <c r="A461" s="29" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B461" s="15">
         <v>224</v>
@@ -13969,7 +14006,7 @@
     </row>
     <row r="462" spans="1:11" ht="14.25">
       <c r="A462" s="29" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B462" s="15">
         <v>212</v>
@@ -14002,7 +14039,7 @@
     </row>
     <row r="463" spans="1:11" ht="14.25">
       <c r="A463" s="29" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B463" s="15">
         <v>214</v>
@@ -14035,7 +14072,7 @@
     </row>
     <row r="464" spans="1:11" ht="14.25">
       <c r="A464" s="29" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B464" s="15">
         <v>205</v>
@@ -14068,7 +14105,7 @@
     </row>
     <row r="465" spans="1:11" ht="14.25">
       <c r="A465" s="33" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B465" s="15">
         <v>204</v>
@@ -14101,7 +14138,7 @@
     </row>
     <row r="466" spans="1:11" ht="14.25">
       <c r="A466" s="33" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B466" s="15">
         <v>201</v>
@@ -14134,7 +14171,7 @@
     </row>
     <row r="467" spans="1:11" ht="14.25">
       <c r="A467" s="33" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B467" s="15">
         <v>200</v>
@@ -14167,7 +14204,7 @@
     </row>
     <row r="468" spans="1:11" ht="14.25">
       <c r="A468" s="33" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B468" s="15">
         <v>204</v>
@@ -14200,7 +14237,7 @@
     </row>
     <row r="469" spans="1:11" ht="14.25">
       <c r="A469" s="33" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B469" s="15">
         <v>199</v>
@@ -14233,7 +14270,7 @@
     </row>
     <row r="470" spans="1:11" ht="14.25">
       <c r="A470" s="33" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B470" s="15">
         <v>201</v>
@@ -14266,7 +14303,7 @@
     </row>
     <row r="471" spans="1:11" ht="14.25">
       <c r="A471" s="33" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B471" s="15">
         <v>196</v>
@@ -14299,7 +14336,7 @@
     </row>
     <row r="472" spans="1:11" ht="14.25">
       <c r="A472" s="33" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B472" s="15">
         <v>198</v>
@@ -14332,7 +14369,7 @@
     </row>
     <row r="473" spans="1:11" ht="14.25">
       <c r="A473" s="33" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B473" s="15">
         <v>199</v>
@@ -14365,7 +14402,7 @@
     </row>
     <row r="474" spans="1:11" ht="14.25">
       <c r="A474" s="33" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B474" s="15">
         <v>30</v>
@@ -14395,12 +14432,12 @@
         <v>0.5</v>
       </c>
       <c r="K474" s="30" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="475" spans="1:11" ht="14.25">
       <c r="A475" s="33" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B475" s="15">
         <v>198</v>
@@ -14433,7 +14470,7 @@
     </row>
     <row r="476" spans="1:11" ht="14.25">
       <c r="A476" s="33" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B476" s="15">
         <v>203</v>
@@ -14466,7 +14503,7 @@
     </row>
     <row r="477" spans="1:11" ht="14.25">
       <c r="A477" s="33" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B477" s="15">
         <v>203</v>
@@ -14499,7 +14536,7 @@
     </row>
     <row r="478" spans="1:11" ht="14.25">
       <c r="A478" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B478" s="15">
         <v>190</v>
@@ -14532,7 +14569,7 @@
     </row>
     <row r="479" spans="1:11" ht="14.25">
       <c r="A479" s="29" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B479" s="15">
         <v>190</v>
@@ -14565,7 +14602,7 @@
     </row>
     <row r="480" spans="1:11" ht="14.25">
       <c r="A480" s="29" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B480" s="15">
         <v>175</v>
@@ -14598,7 +14635,7 @@
     </row>
     <row r="481" spans="1:11" ht="28.5">
       <c r="A481" s="29" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B481" s="15">
         <v>22</v>
@@ -14628,12 +14665,12 @@
         <v>0</v>
       </c>
       <c r="K481" s="30" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="482" spans="1:11" ht="14.25">
       <c r="A482" s="29" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B482" s="15">
         <v>27</v>
@@ -14663,12 +14700,12 @@
         <v>0.5</v>
       </c>
       <c r="K482" s="30" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="483" spans="1:11" ht="14.25">
       <c r="A483" s="29" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B483" s="15">
         <v>32</v>
@@ -14698,12 +14735,12 @@
         <v>0.5</v>
       </c>
       <c r="K483" s="30" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="484" spans="1:11" ht="14.25">
       <c r="A484" s="29" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B484" s="15">
         <v>45</v>
@@ -14733,12 +14770,12 @@
         <v>0.5</v>
       </c>
       <c r="K484" s="30" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="485" spans="1:11" ht="14.25">
       <c r="A485" s="29" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B485" s="15">
         <v>59</v>
@@ -14768,12 +14805,12 @@
         <v>0.5</v>
       </c>
       <c r="K485" s="30" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="486" spans="1:11" ht="14.25">
       <c r="A486" s="29" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B486" s="15">
         <v>34</v>
@@ -14803,12 +14840,12 @@
         <v>0.5</v>
       </c>
       <c r="K486" s="30" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="487" spans="1:11" ht="14.25">
       <c r="A487" s="29" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B487" s="15">
         <v>37</v>
@@ -14841,7 +14878,7 @@
     </row>
     <row r="488" spans="1:11" ht="14.25">
       <c r="A488" s="29" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B488" s="15">
         <v>33</v>
@@ -14874,7 +14911,7 @@
     </row>
     <row r="489" spans="1:11" ht="14.25">
       <c r="A489" s="29" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B489" s="15">
         <v>35</v>
@@ -14907,7 +14944,7 @@
     </row>
     <row r="490" spans="1:11" ht="14.25">
       <c r="A490" s="29" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B490" s="15">
         <v>30</v>
@@ -14940,7 +14977,7 @@
     </row>
     <row r="491" spans="1:11" ht="14.25">
       <c r="A491" s="29" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B491" s="15">
         <v>37</v>
@@ -14973,7 +15010,7 @@
     </row>
     <row r="492" spans="1:11" ht="14.25">
       <c r="A492" s="29" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B492" s="15">
         <v>32</v>
@@ -15006,7 +15043,7 @@
     </row>
     <row r="493" spans="1:11" ht="14.25">
       <c r="A493" s="29" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B493" s="15">
         <v>38</v>
@@ -15069,12 +15106,12 @@
         <v>0</v>
       </c>
       <c r="K494" s="30" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="500" spans="1:11" ht="21.75">
+      <c r="A500" s="69" t="s">
         <v>471</v>
-      </c>
-    </row>
-    <row r="500" spans="1:11" ht="21.75">
-      <c r="A500" s="72" t="s">
-        <v>472</v>
       </c>
       <c r="B500" s="19"/>
       <c r="C500" s="19"/>
@@ -15124,7 +15161,7 @@
     </row>
     <row r="502" spans="1:11" ht="14.25">
       <c r="A502" s="29" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B502" s="15">
         <v>372</v>
@@ -15153,13 +15190,13 @@
       <c r="J502" s="15">
         <v>0.9</v>
       </c>
-      <c r="K502" s="68" t="s">
-        <v>474</v>
+      <c r="K502" s="65" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="503" spans="1:11" ht="28.5">
       <c r="A503" s="29" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B503" s="15">
         <v>119</v>
@@ -15188,13 +15225,13 @@
       <c r="J503" s="15">
         <v>2</v>
       </c>
-      <c r="K503" s="68" t="s">
-        <v>476</v>
+      <c r="K503" s="65" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="504" spans="1:11" ht="14.25">
       <c r="A504" s="29" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B504" s="15">
         <v>107</v>
@@ -15223,13 +15260,13 @@
       <c r="J504" s="15">
         <v>0.9</v>
       </c>
-      <c r="K504" s="68" t="s">
-        <v>478</v>
+      <c r="K504" s="65" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="505" spans="1:11" ht="28.5">
       <c r="A505" s="29" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B505" s="15">
         <v>101</v>
@@ -15258,13 +15295,13 @@
       <c r="J505" s="15">
         <v>0.6</v>
       </c>
-      <c r="K505" s="68" t="s">
-        <v>480</v>
+      <c r="K505" s="65" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="506" spans="1:11" ht="14.25">
       <c r="A506" s="29" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B506" s="15">
         <v>144</v>
@@ -15294,12 +15331,12 @@
         <v>7</v>
       </c>
       <c r="K506" s="33" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="507" spans="1:11" ht="28.5">
       <c r="A507" s="29" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B507" s="15">
         <v>125</v>
@@ -15329,12 +15366,12 @@
         <v>6.8</v>
       </c>
       <c r="K507" s="30" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="508" spans="1:11" ht="28.5">
       <c r="A508" s="29" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B508" s="15">
         <v>64</v>
@@ -15364,12 +15401,12 @@
         <v>2.7</v>
       </c>
       <c r="K508" s="30" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="509" spans="1:11" ht="28.5">
       <c r="A509" s="29" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B509" s="15">
         <v>183</v>
@@ -15399,12 +15436,12 @@
         <v>16.2</v>
       </c>
       <c r="K509" s="30" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="510" spans="1:11" ht="28.5">
       <c r="A510" s="29" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B510" s="15">
         <v>185</v>
@@ -15434,12 +15471,12 @@
         <v>16.2</v>
       </c>
       <c r="K510" s="30" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="511" spans="1:11" ht="28.5">
       <c r="A511" s="29" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B511" s="15">
         <v>103</v>
@@ -15469,12 +15506,12 @@
         <v>9</v>
       </c>
       <c r="K511" s="30" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="512" spans="1:11" ht="28.5">
       <c r="A512" s="29" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B512" s="15">
         <v>86</v>
@@ -15504,23 +15541,23 @@
         <v>8</v>
       </c>
       <c r="K512" s="30" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="517" spans="1:11" ht="21.75">
+      <c r="A517" s="70" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="517" spans="1:11" ht="21.75">
-      <c r="A517" s="73" t="s">
-        <v>495</v>
-      </c>
-      <c r="B517" s="74"/>
-      <c r="C517" s="74"/>
-      <c r="D517" s="74"/>
-      <c r="E517" s="74"/>
-      <c r="F517" s="74"/>
-      <c r="G517" s="74"/>
-      <c r="H517" s="74"/>
-      <c r="I517" s="74"/>
-      <c r="J517" s="75"/>
-      <c r="K517" s="76"/>
+      <c r="B517" s="71"/>
+      <c r="C517" s="71"/>
+      <c r="D517" s="71"/>
+      <c r="E517" s="71"/>
+      <c r="F517" s="71"/>
+      <c r="G517" s="71"/>
+      <c r="H517" s="71"/>
+      <c r="I517" s="71"/>
+      <c r="J517" s="72"/>
+      <c r="K517" s="73"/>
     </row>
     <row r="518" spans="1:11" ht="21.75">
       <c r="A518" s="21" t="s">
@@ -15559,42 +15596,42 @@
     </row>
     <row r="519" spans="1:11" ht="28.5">
       <c r="A519" s="24" t="s">
-        <v>496</v>
-      </c>
-      <c r="B519" s="77">
+        <v>495</v>
+      </c>
+      <c r="B519" s="74">
         <v>380</v>
       </c>
-      <c r="C519" s="77">
+      <c r="C519" s="74">
         <v>21</v>
       </c>
-      <c r="D519" s="77">
+      <c r="D519" s="74">
         <v>10</v>
       </c>
-      <c r="E519" s="77">
+      <c r="E519" s="74">
         <v>0.5</v>
       </c>
-      <c r="F519" s="77">
+      <c r="F519" s="74">
         <v>20</v>
       </c>
-      <c r="G519" s="77">
-        <v>0</v>
-      </c>
-      <c r="H519" s="77">
+      <c r="G519" s="74">
+        <v>0</v>
+      </c>
+      <c r="H519" s="74">
         <v>0.5</v>
       </c>
-      <c r="I519" s="77">
+      <c r="I519" s="74">
         <v>30</v>
       </c>
       <c r="J519" s="26">
         <v>160</v>
       </c>
       <c r="K519" s="27" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="520" spans="1:11" ht="28.5">
       <c r="A520" s="24" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B520" s="25">
         <v>900</v>
@@ -15624,23 +15661,23 @@
         <v>90</v>
       </c>
       <c r="K520" s="27" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="529" spans="1:11" ht="21.75">
+      <c r="A529" s="75" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="529" spans="1:11" ht="21.75">
-      <c r="A529" s="78" t="s">
-        <v>500</v>
-      </c>
-      <c r="B529" s="79"/>
-      <c r="C529" s="79"/>
-      <c r="D529" s="79"/>
-      <c r="E529" s="79"/>
-      <c r="F529" s="79"/>
-      <c r="G529" s="79"/>
-      <c r="H529" s="79"/>
-      <c r="I529" s="79"/>
-      <c r="J529" s="79"/>
-      <c r="K529" s="79"/>
+      <c r="B529" s="76"/>
+      <c r="C529" s="76"/>
+      <c r="D529" s="76"/>
+      <c r="E529" s="76"/>
+      <c r="F529" s="76"/>
+      <c r="G529" s="76"/>
+      <c r="H529" s="76"/>
+      <c r="I529" s="76"/>
+      <c r="J529" s="76"/>
+      <c r="K529" s="76"/>
     </row>
     <row r="530" spans="1:11" ht="21.75">
       <c r="A530" s="21" t="s">
@@ -15679,7 +15716,7 @@
     </row>
     <row r="531" spans="1:11" ht="14.25">
       <c r="A531" s="29" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B531" s="15">
         <v>490</v>
@@ -15712,7 +15749,7 @@
     </row>
     <row r="532" spans="1:11" ht="14.25">
       <c r="A532" s="33" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B532" s="15">
         <v>532</v>
@@ -15745,7 +15782,7 @@
     </row>
     <row r="533" spans="1:11" ht="14.25">
       <c r="A533" s="33" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B533" s="15">
         <v>489</v>
@@ -15778,7 +15815,7 @@
     </row>
     <row r="534" spans="1:11" ht="14.25">
       <c r="A534" s="33" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B534" s="15">
         <v>479</v>
@@ -15811,7 +15848,7 @@
     </row>
     <row r="535" spans="1:11" ht="14.25">
       <c r="A535" s="33" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B535" s="15">
         <v>463</v>
@@ -15844,7 +15881,7 @@
     </row>
     <row r="536" spans="1:11" ht="14.25">
       <c r="A536" s="33" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B536" s="15">
         <v>498</v>
@@ -15877,7 +15914,7 @@
     </row>
     <row r="537" spans="1:11" ht="14.25">
       <c r="A537" s="33" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B537" s="15">
         <v>480</v>
@@ -15910,7 +15947,7 @@
     </row>
     <row r="538" spans="1:11" ht="14.25">
       <c r="A538" s="33" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B538" s="15">
         <v>510</v>
@@ -15943,7 +15980,7 @@
     </row>
     <row r="539" spans="1:11" ht="14.25">
       <c r="A539" s="33" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B539" s="15">
         <v>522</v>
@@ -15976,7 +16013,7 @@
     </row>
     <row r="540" spans="1:11" ht="14.25">
       <c r="A540" s="33" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B540" s="15">
         <v>558</v>
@@ -16009,7 +16046,7 @@
     </row>
     <row r="541" spans="1:11" ht="14.25">
       <c r="A541" s="33" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B541" s="15">
         <v>542</v>
@@ -16042,7 +16079,7 @@
     </row>
     <row r="542" spans="1:11" ht="14.25">
       <c r="A542" s="33" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B542" s="15">
         <v>520</v>
@@ -16075,7 +16112,7 @@
     </row>
     <row r="543" spans="1:11" ht="14.25">
       <c r="A543" s="33" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B543" s="15">
         <v>520</v>
@@ -16108,7 +16145,7 @@
     </row>
     <row r="544" spans="1:11" ht="14.25">
       <c r="A544" s="33" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B544" s="15">
         <v>552</v>
@@ -16141,7 +16178,7 @@
     </row>
     <row r="545" spans="1:11" ht="14.25">
       <c r="A545" s="33" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B545" s="15">
         <v>470</v>
@@ -16174,7 +16211,7 @@
     </row>
     <row r="546" spans="1:11" ht="14.25">
       <c r="A546" s="33" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B546" s="15">
         <v>588</v>
@@ -16207,40 +16244,40 @@
     </row>
     <row r="547" spans="1:11" ht="14.25">
       <c r="A547" s="33" t="s">
-        <v>517</v>
-      </c>
-      <c r="B547" s="71">
+        <v>516</v>
+      </c>
+      <c r="B547" s="68">
         <v>532</v>
       </c>
-      <c r="C547" s="71">
+      <c r="C547" s="68">
         <v>32</v>
       </c>
-      <c r="D547" s="71">
+      <c r="D547" s="68">
         <v>52</v>
       </c>
-      <c r="E547" s="71">
+      <c r="E547" s="68">
         <v>48</v>
       </c>
-      <c r="F547" s="71">
+      <c r="F547" s="68">
         <v>4.2</v>
       </c>
-      <c r="G547" s="71">
+      <c r="G547" s="68">
         <v>0.36</v>
       </c>
-      <c r="H547" s="71">
+      <c r="H547" s="68">
         <v>52.8</v>
       </c>
-      <c r="I547" s="71">
+      <c r="I547" s="68">
         <v>56.2</v>
       </c>
-      <c r="J547" s="71">
+      <c r="J547" s="68">
         <v>28.8</v>
       </c>
       <c r="K547" s="33"/>
     </row>
     <row r="548" spans="1:11" ht="14.25">
       <c r="A548" s="33" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B548" s="15">
         <v>544</v>
@@ -16273,7 +16310,7 @@
     </row>
     <row r="549" spans="1:11" ht="14.25">
       <c r="A549" s="33" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B549" s="15">
         <v>553</v>
@@ -16306,7 +16343,7 @@
     </row>
     <row r="550" spans="1:11" ht="14.25">
       <c r="A550" s="33" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B550" s="15">
         <v>411</v>
@@ -16339,7 +16376,7 @@
     </row>
     <row r="551" spans="1:11" ht="14.25">
       <c r="A551" s="33" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B551" s="15">
         <v>506</v>
@@ -16372,7 +16409,7 @@
     </row>
     <row r="552" spans="1:11" ht="14.25">
       <c r="A552" s="33" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B552" s="15">
         <v>508</v>
@@ -16405,7 +16442,7 @@
     </row>
     <row r="553" spans="1:11" ht="14.25">
       <c r="A553" s="33" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B553" s="15">
         <v>516</v>
@@ -16438,7 +16475,7 @@
     </row>
     <row r="554" spans="1:11" ht="14.25">
       <c r="A554" s="33" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B554" s="15">
         <v>511</v>
@@ -16471,7 +16508,7 @@
     </row>
     <row r="555" spans="1:11" ht="14.25">
       <c r="A555" s="33" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B555" s="15">
         <v>502</v>
@@ -16504,7 +16541,7 @@
     </row>
     <row r="556" spans="1:11" ht="14.25">
       <c r="A556" s="33" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B556" s="15">
         <v>487</v>
@@ -16537,7 +16574,7 @@
     </row>
     <row r="557" spans="1:11" ht="14.25">
       <c r="A557" s="33" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B557" s="15">
         <v>429</v>
@@ -16570,7 +16607,7 @@
     </row>
     <row r="558" spans="1:11" ht="14.25">
       <c r="A558" s="33" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B558" s="15">
         <v>467</v>
@@ -16603,7 +16640,7 @@
     </row>
     <row r="559" spans="1:11" ht="14.25">
       <c r="A559" s="33" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B559" s="15">
         <v>358</v>
@@ -16636,7 +16673,7 @@
     </row>
     <row r="560" spans="1:11" ht="14.25">
       <c r="A560" s="33" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B560" s="15">
         <v>405</v>
@@ -16669,7 +16706,7 @@
     </row>
     <row r="561" spans="1:11" ht="14.25">
       <c r="A561" s="33" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B561" s="15">
         <v>444</v>
@@ -16702,7 +16739,7 @@
     </row>
     <row r="562" spans="1:11" ht="14.25">
       <c r="A562" s="33" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B562" s="15">
         <v>415</v>
@@ -16735,7 +16772,7 @@
     </row>
     <row r="563" spans="1:11" ht="14.25">
       <c r="A563" s="33" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B563" s="15">
         <v>374</v>
@@ -16768,7 +16805,7 @@
     </row>
     <row r="564" spans="1:11" ht="14.25">
       <c r="A564" s="33" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B564" s="15">
         <v>482</v>
@@ -16801,7 +16838,7 @@
     </row>
     <row r="565" spans="1:11" ht="14.25">
       <c r="A565" s="33" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B565" s="15">
         <v>479</v>
@@ -16834,7 +16871,7 @@
     </row>
     <row r="566" spans="1:11" ht="14.25">
       <c r="A566" s="33" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B566" s="15">
         <v>467</v>
@@ -16867,7 +16904,7 @@
     </row>
     <row r="567" spans="1:11" ht="14.25">
       <c r="A567" s="33" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B567" s="15">
         <v>464</v>
@@ -16900,7 +16937,7 @@
     </row>
     <row r="568" spans="1:11" ht="14.25">
       <c r="A568" s="33" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B568" s="15">
         <v>526</v>
@@ -16933,7 +16970,7 @@
     </row>
     <row r="569" spans="1:11" ht="14.25">
       <c r="A569" s="33" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B569" s="15">
         <v>536</v>
@@ -16966,7 +17003,7 @@
     </row>
     <row r="570" spans="1:11" ht="14.25">
       <c r="A570" s="33" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B570" s="15">
         <v>469</v>
@@ -16996,12 +17033,12 @@
         <v>35.1</v>
       </c>
       <c r="K570" s="30" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="571" spans="1:11" ht="14.25">
       <c r="A571" s="33" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B571" s="15">
         <v>330</v>
@@ -17031,12 +17068,12 @@
         <v>14.4</v>
       </c>
       <c r="K571" s="30" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="572" spans="1:11" ht="14.25">
       <c r="A572" s="33" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B572" s="15">
         <v>345</v>
@@ -17066,12 +17103,12 @@
         <v>15.3</v>
       </c>
       <c r="K572" s="30" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="573" spans="1:11" ht="14.25">
       <c r="A573" s="33" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B573" s="15">
         <v>474</v>
@@ -17104,7 +17141,7 @@
     </row>
     <row r="574" spans="1:11" ht="14.25">
       <c r="A574" s="33" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B574" s="15">
         <v>521</v>
@@ -17137,7 +17174,7 @@
     </row>
     <row r="575" spans="1:11" ht="14.25">
       <c r="A575" s="33" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B575" s="15">
         <v>515</v>
@@ -17170,7 +17207,7 @@
     </row>
     <row r="576" spans="1:11" ht="14.25">
       <c r="A576" s="33" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B576" s="15">
         <v>603</v>
@@ -17203,7 +17240,7 @@
     </row>
     <row r="577" spans="1:11" ht="14.25">
       <c r="A577" s="33" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B577" s="15">
         <v>502</v>
@@ -17236,7 +17273,7 @@
     </row>
     <row r="578" spans="1:11" ht="14.25">
       <c r="A578" s="33" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B578" s="15">
         <v>572</v>
@@ -17269,7 +17306,7 @@
     </row>
     <row r="579" spans="1:11" ht="14.25">
       <c r="A579" s="33" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B579" s="15">
         <v>571</v>
@@ -17302,7 +17339,7 @@
     </row>
     <row r="580" spans="1:11" ht="14.25">
       <c r="A580" s="33" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B580" s="15">
         <v>516</v>
@@ -17335,7 +17372,7 @@
     </row>
     <row r="581" spans="1:11" ht="14.25">
       <c r="A581" s="33" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B581" s="15">
         <v>583</v>
@@ -17368,7 +17405,7 @@
     </row>
     <row r="582" spans="1:11" ht="14.25">
       <c r="A582" s="33" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B582" s="15">
         <v>561</v>
@@ -17401,7 +17438,7 @@
     </row>
     <row r="583" spans="1:11" ht="14.25">
       <c r="A583" s="33" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B583" s="15">
         <v>573</v>
@@ -17434,7 +17471,7 @@
     </row>
     <row r="584" spans="1:11" ht="14.25">
       <c r="A584" s="33" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B584" s="15">
         <v>593</v>
@@ -17467,7 +17504,7 @@
     </row>
     <row r="585" spans="1:11" ht="14.25">
       <c r="A585" s="33" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B585" s="15">
         <v>550</v>
@@ -17500,7 +17537,7 @@
     </row>
     <row r="586" spans="1:11" ht="14.25">
       <c r="A586" s="33" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B586" s="15">
         <v>566</v>
@@ -17533,7 +17570,7 @@
     </row>
     <row r="587" spans="1:11" ht="14.25">
       <c r="A587" s="33" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B587" s="15">
         <v>521</v>
@@ -17566,7 +17603,7 @@
     </row>
     <row r="588" spans="1:11" ht="14.25">
       <c r="A588" s="33" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B588" s="15">
         <v>421</v>
@@ -17599,7 +17636,7 @@
     </row>
     <row r="589" spans="1:11" ht="14.25">
       <c r="A589" s="33" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B589" s="15">
         <v>450</v>
@@ -17632,7 +17669,7 @@
     </row>
     <row r="590" spans="1:11" ht="14.25">
       <c r="A590" s="33" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B590" s="15">
         <v>576</v>
@@ -17665,7 +17702,7 @@
     </row>
     <row r="591" spans="1:11" ht="14.25">
       <c r="A591" s="33" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B591" s="15">
         <v>561</v>
@@ -17698,7 +17735,7 @@
     </row>
     <row r="592" spans="1:11" ht="14.25">
       <c r="A592" s="33" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B592" s="15">
         <v>523</v>
@@ -17731,7 +17768,7 @@
     </row>
     <row r="593" spans="1:11" ht="14.25">
       <c r="A593" s="33" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B593" s="15">
         <v>486</v>
@@ -17764,7 +17801,7 @@
     </row>
     <row r="594" spans="1:11" ht="14.25">
       <c r="A594" s="33" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B594" s="15">
         <v>511</v>
@@ -17797,7 +17834,7 @@
     </row>
     <row r="595" spans="1:11" ht="14.25">
       <c r="A595" s="33" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B595" s="15">
         <v>500</v>
@@ -17830,7 +17867,7 @@
     </row>
     <row r="596" spans="1:11" ht="14.25">
       <c r="A596" s="33" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B596" s="15">
         <v>502</v>
@@ -17863,7 +17900,7 @@
     </row>
     <row r="597" spans="1:11" ht="14.25">
       <c r="A597" s="33" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B597" s="15">
         <v>482</v>
@@ -17896,7 +17933,7 @@
     </row>
     <row r="598" spans="1:11" ht="14.25">
       <c r="A598" s="33" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B598" s="15">
         <v>484</v>
@@ -17929,7 +17966,7 @@
     </row>
     <row r="599" spans="1:11" ht="14.25">
       <c r="A599" s="33" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B599" s="15">
         <v>493</v>
@@ -17962,7 +17999,7 @@
     </row>
     <row r="600" spans="1:11" ht="14.25">
       <c r="A600" s="33" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B600" s="15">
         <v>524</v>
@@ -17995,7 +18032,7 @@
     </row>
     <row r="601" spans="1:11" ht="14.25">
       <c r="A601" s="33" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B601" s="15">
         <v>503</v>
@@ -18028,7 +18065,7 @@
     </row>
     <row r="602" spans="1:11" ht="14.25">
       <c r="A602" s="33" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B602" s="15">
         <v>550</v>
@@ -18061,7 +18098,7 @@
     </row>
     <row r="603" spans="1:11" ht="14.25">
       <c r="A603" s="33" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B603" s="15">
         <v>466</v>
@@ -18094,7 +18131,7 @@
     </row>
     <row r="604" spans="1:11" ht="14.25">
       <c r="A604" s="33" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B604" s="15">
         <v>468</v>
@@ -18127,7 +18164,7 @@
     </row>
     <row r="605" spans="1:11" ht="14.25">
       <c r="A605" s="33" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B605" s="15">
         <v>540</v>
@@ -18160,7 +18197,7 @@
     </row>
     <row r="606" spans="1:11" ht="14.25">
       <c r="A606" s="33" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B606" s="15">
         <v>503</v>
@@ -18193,7 +18230,7 @@
     </row>
     <row r="607" spans="1:11" ht="14.25">
       <c r="A607" s="33" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B607" s="15">
         <v>536</v>
@@ -18226,7 +18263,7 @@
     </row>
     <row r="608" spans="1:11" ht="14.25">
       <c r="A608" s="33" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B608" s="15">
         <v>440</v>
@@ -18259,7 +18296,7 @@
     </row>
     <row r="609" spans="1:11" ht="14.25">
       <c r="A609" s="33" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B609" s="15">
         <v>511</v>
@@ -18292,7 +18329,7 @@
     </row>
     <row r="610" spans="1:11" ht="14.25">
       <c r="A610" s="33" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B610" s="15">
         <v>514</v>
@@ -18325,7 +18362,7 @@
     </row>
     <row r="611" spans="1:11" ht="14.25">
       <c r="A611" s="33" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B611" s="15">
         <v>485</v>
@@ -18358,7 +18395,7 @@
     </row>
     <row r="612" spans="1:11" ht="14.25">
       <c r="A612" s="33" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B612" s="15">
         <v>544</v>
@@ -18391,7 +18428,7 @@
     </row>
     <row r="613" spans="1:11" ht="14.25">
       <c r="A613" s="33" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B613" s="15">
         <v>544</v>
@@ -18424,7 +18461,7 @@
     </row>
     <row r="614" spans="1:11" ht="14.25">
       <c r="A614" s="33" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B614" s="15">
         <v>538</v>
@@ -18457,7 +18494,7 @@
     </row>
     <row r="615" spans="1:11" ht="14.25">
       <c r="A615" s="33" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B615" s="15">
         <v>510</v>
@@ -18490,7 +18527,7 @@
     </row>
     <row r="616" spans="1:11" ht="14.25">
       <c r="A616" s="33" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B616" s="15">
         <v>504</v>
@@ -18523,7 +18560,7 @@
     </row>
     <row r="617" spans="1:11" ht="14.25">
       <c r="A617" s="33" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B617" s="15">
         <v>600</v>
@@ -18556,7 +18593,7 @@
     </row>
     <row r="618" spans="1:11" ht="14.25">
       <c r="A618" s="33" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B618" s="15">
         <v>595</v>
@@ -18589,7 +18626,7 @@
     </row>
     <row r="619" spans="1:11" ht="14.25">
       <c r="A619" s="33" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B619" s="15">
         <v>595</v>
@@ -18622,7 +18659,7 @@
     </row>
     <row r="620" spans="1:11" ht="14.25">
       <c r="A620" s="33" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B620" s="15">
         <v>576</v>
@@ -18655,7 +18692,7 @@
     </row>
     <row r="621" spans="1:11" ht="14.25">
       <c r="A621" s="33" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B621" s="15">
         <v>570</v>
@@ -18688,7 +18725,7 @@
     </row>
     <row r="622" spans="1:11" ht="14.25">
       <c r="A622" s="33" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B622" s="15">
         <v>590</v>
@@ -18721,7 +18758,7 @@
     </row>
     <row r="623" spans="1:11" ht="28.5">
       <c r="A623" s="29" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B623" s="15">
         <v>640</v>
@@ -18751,12 +18788,12 @@
         <v>51.3</v>
       </c>
       <c r="K623" s="30" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="624" spans="1:11" ht="14.25">
       <c r="A624" s="33" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B624" s="15">
         <v>494</v>
@@ -18789,7 +18826,7 @@
     </row>
     <row r="625" spans="1:11" ht="14.25">
       <c r="A625" s="33" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B625" s="15">
         <v>443</v>
@@ -18822,7 +18859,7 @@
     </row>
     <row r="626" spans="1:11" ht="14.25">
       <c r="A626" s="33" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B626" s="15">
         <v>556</v>
@@ -18855,7 +18892,7 @@
     </row>
     <row r="627" spans="1:11" ht="14.25">
       <c r="A627" s="33" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B627" s="15">
         <v>404</v>
@@ -18888,7 +18925,7 @@
     </row>
     <row r="628" spans="1:11" ht="14.25">
       <c r="A628" s="33" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B628" s="15">
         <v>513</v>
@@ -18921,7 +18958,7 @@
     </row>
     <row r="629" spans="1:11" ht="14.25">
       <c r="A629" s="33" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B629" s="15">
         <v>509</v>
@@ -18954,990 +18991,990 @@
     </row>
     <row r="630" spans="1:11" ht="14.25">
       <c r="A630" s="33" t="s">
-        <v>603</v>
-      </c>
-      <c r="B630" s="71">
+        <v>602</v>
+      </c>
+      <c r="B630" s="68">
         <v>527</v>
       </c>
-      <c r="C630" s="71">
+      <c r="C630" s="68">
         <v>28.3</v>
       </c>
-      <c r="D630" s="71">
+      <c r="D630" s="68">
         <v>61.5</v>
       </c>
-      <c r="E630" s="71">
+      <c r="E630" s="68">
         <v>48.7</v>
       </c>
-      <c r="F630" s="71">
+      <c r="F630" s="68">
         <v>6.3</v>
       </c>
-      <c r="G630" s="71">
+      <c r="G630" s="68">
         <v>0.4</v>
       </c>
-      <c r="H630" s="71">
+      <c r="H630" s="68">
         <v>53.6</v>
       </c>
-      <c r="I630" s="71">
+      <c r="I630" s="68">
         <v>67.8</v>
       </c>
-      <c r="J630" s="71">
+      <c r="J630" s="68">
         <v>25.5</v>
       </c>
       <c r="K630" s="33"/>
     </row>
     <row r="631" spans="1:11" ht="14.25">
       <c r="A631" s="33" t="s">
-        <v>604</v>
-      </c>
-      <c r="B631" s="71">
+        <v>603</v>
+      </c>
+      <c r="B631" s="68">
         <v>523</v>
       </c>
-      <c r="C631" s="71">
+      <c r="C631" s="68">
         <v>27.1</v>
       </c>
-      <c r="D631" s="71">
+      <c r="D631" s="68">
         <v>62.5</v>
       </c>
-      <c r="E631" s="71">
+      <c r="E631" s="68">
         <v>47.8</v>
       </c>
-      <c r="F631" s="71">
+      <c r="F631" s="68">
         <v>6</v>
       </c>
-      <c r="G631" s="71">
+      <c r="G631" s="68">
         <v>0.68</v>
       </c>
-      <c r="H631" s="71">
+      <c r="H631" s="68">
         <v>52.6</v>
       </c>
-      <c r="I631" s="71">
+      <c r="I631" s="68">
         <v>68.5</v>
       </c>
-      <c r="J631" s="71">
+      <c r="J631" s="68">
         <v>24.4</v>
       </c>
       <c r="K631" s="33"/>
     </row>
     <row r="632" spans="1:11" ht="14.25">
       <c r="A632" s="33" t="s">
-        <v>605</v>
-      </c>
-      <c r="B632" s="71">
+        <v>604</v>
+      </c>
+      <c r="B632" s="68">
         <v>484</v>
       </c>
-      <c r="C632" s="71">
+      <c r="C632" s="68">
         <v>21.5</v>
       </c>
-      <c r="D632" s="71">
+      <c r="D632" s="68">
         <v>66.3</v>
       </c>
-      <c r="E632" s="71">
+      <c r="E632" s="68">
         <v>50.3</v>
       </c>
-      <c r="F632" s="71">
+      <c r="F632" s="68">
         <v>5.2</v>
       </c>
-      <c r="G632" s="71">
+      <c r="G632" s="68">
         <v>0.63</v>
       </c>
-      <c r="H632" s="71">
+      <c r="H632" s="68">
         <v>55.3</v>
       </c>
-      <c r="I632" s="71">
+      <c r="I632" s="68">
         <v>71.5</v>
       </c>
-      <c r="J632" s="71">
+      <c r="J632" s="68">
         <v>19.399999999999999</v>
       </c>
       <c r="K632" s="33"/>
     </row>
     <row r="633" spans="1:11" ht="14.25">
       <c r="A633" s="33" t="s">
-        <v>606</v>
-      </c>
-      <c r="B633" s="71">
+        <v>605</v>
+      </c>
+      <c r="B633" s="68">
         <v>465</v>
       </c>
-      <c r="C633" s="71">
+      <c r="C633" s="68">
         <v>20</v>
       </c>
-      <c r="D633" s="71">
+      <c r="D633" s="68">
         <v>65</v>
       </c>
-      <c r="E633" s="71">
+      <c r="E633" s="68">
         <v>36</v>
       </c>
-      <c r="F633" s="71">
+      <c r="F633" s="68">
         <v>4.8</v>
       </c>
-      <c r="G633" s="71">
+      <c r="G633" s="68">
         <v>0.45</v>
       </c>
-      <c r="H633" s="71">
+      <c r="H633" s="68">
         <v>39.6</v>
       </c>
-      <c r="I633" s="71">
+      <c r="I633" s="68">
         <v>69.8</v>
       </c>
-      <c r="J633" s="71">
+      <c r="J633" s="68">
         <v>18</v>
       </c>
       <c r="K633" s="33"/>
     </row>
     <row r="634" spans="1:11" ht="14.25">
       <c r="A634" s="33" t="s">
-        <v>607</v>
-      </c>
-      <c r="B634" s="71">
+        <v>606</v>
+      </c>
+      <c r="B634" s="68">
         <v>463</v>
       </c>
-      <c r="C634" s="71">
+      <c r="C634" s="68">
         <v>20</v>
       </c>
-      <c r="D634" s="71">
+      <c r="D634" s="68">
         <v>63</v>
       </c>
-      <c r="E634" s="71">
+      <c r="E634" s="68">
         <v>36</v>
       </c>
-      <c r="F634" s="71">
+      <c r="F634" s="68">
         <v>4.8</v>
       </c>
-      <c r="G634" s="71">
+      <c r="G634" s="68">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H634" s="71">
+      <c r="H634" s="68">
         <v>39.6</v>
       </c>
-      <c r="I634" s="71">
+      <c r="I634" s="68">
         <v>67.8</v>
       </c>
-      <c r="J634" s="71">
+      <c r="J634" s="68">
         <v>18</v>
       </c>
       <c r="K634" s="33"/>
     </row>
     <row r="635" spans="1:11" ht="14.25">
       <c r="A635" s="33" t="s">
-        <v>608</v>
-      </c>
-      <c r="B635" s="71">
+        <v>607</v>
+      </c>
+      <c r="B635" s="68">
         <v>497</v>
       </c>
-      <c r="C635" s="71">
+      <c r="C635" s="68">
         <v>23</v>
       </c>
-      <c r="D635" s="71">
+      <c r="D635" s="68">
         <v>68</v>
       </c>
-      <c r="E635" s="71">
+      <c r="E635" s="68">
         <v>43</v>
       </c>
-      <c r="F635" s="71">
+      <c r="F635" s="68">
         <v>4.2</v>
       </c>
-      <c r="G635" s="71">
+      <c r="G635" s="68">
         <v>0.56999999999999995</v>
       </c>
-      <c r="H635" s="71">
+      <c r="H635" s="68">
         <v>47.3</v>
       </c>
-      <c r="I635" s="71">
+      <c r="I635" s="68">
         <v>72.2</v>
       </c>
-      <c r="J635" s="71">
+      <c r="J635" s="68">
         <v>20.7</v>
       </c>
       <c r="K635" s="33"/>
     </row>
     <row r="636" spans="1:11" ht="14.25">
       <c r="A636" s="33" t="s">
-        <v>609</v>
-      </c>
-      <c r="B636" s="71">
+        <v>608</v>
+      </c>
+      <c r="B636" s="68">
         <v>530</v>
       </c>
-      <c r="C636" s="71">
+      <c r="C636" s="68">
         <v>25</v>
       </c>
-      <c r="D636" s="71">
+      <c r="D636" s="68">
         <v>69</v>
       </c>
-      <c r="E636" s="71">
+      <c r="E636" s="68">
         <v>49</v>
       </c>
-      <c r="F636" s="71">
+      <c r="F636" s="68">
         <v>5.2</v>
       </c>
-      <c r="G636" s="71">
+      <c r="G636" s="68">
         <v>0.49</v>
       </c>
-      <c r="H636" s="71">
+      <c r="H636" s="68">
         <v>53.9</v>
       </c>
-      <c r="I636" s="71">
+      <c r="I636" s="68">
         <v>74.2</v>
       </c>
-      <c r="J636" s="71">
+      <c r="J636" s="68">
         <v>22.5</v>
       </c>
       <c r="K636" s="33"/>
     </row>
     <row r="637" spans="1:11" ht="14.25">
       <c r="A637" s="33" t="s">
-        <v>610</v>
-      </c>
-      <c r="B637" s="71">
+        <v>609</v>
+      </c>
+      <c r="B637" s="68">
         <v>532</v>
       </c>
-      <c r="C637" s="71">
+      <c r="C637" s="68">
         <v>25</v>
       </c>
-      <c r="D637" s="71">
+      <c r="D637" s="68">
         <v>70</v>
       </c>
-      <c r="E637" s="71">
+      <c r="E637" s="68">
         <v>51</v>
       </c>
-      <c r="F637" s="71">
+      <c r="F637" s="68">
         <v>4.9000000000000004</v>
       </c>
-      <c r="G637" s="71">
+      <c r="G637" s="68">
         <v>0.54</v>
       </c>
-      <c r="H637" s="71">
+      <c r="H637" s="68">
         <v>56.1</v>
       </c>
-      <c r="I637" s="71">
+      <c r="I637" s="68">
         <v>74.900000000000006</v>
       </c>
-      <c r="J637" s="71">
+      <c r="J637" s="68">
         <v>22.5</v>
       </c>
       <c r="K637" s="33"/>
     </row>
     <row r="638" spans="1:11" ht="14.25">
       <c r="A638" s="33" t="s">
-        <v>611</v>
-      </c>
-      <c r="B638" s="71">
+        <v>610</v>
+      </c>
+      <c r="B638" s="68">
         <v>484</v>
       </c>
-      <c r="C638" s="71">
+      <c r="C638" s="68">
         <v>20</v>
       </c>
-      <c r="D638" s="71">
+      <c r="D638" s="68">
         <v>69</v>
       </c>
-      <c r="E638" s="71">
+      <c r="E638" s="68">
         <v>35</v>
       </c>
-      <c r="F638" s="71">
+      <c r="F638" s="68">
         <v>5.3</v>
       </c>
-      <c r="G638" s="71">
+      <c r="G638" s="68">
         <v>0.79</v>
       </c>
-      <c r="H638" s="71">
+      <c r="H638" s="68">
         <v>38.5</v>
       </c>
-      <c r="I638" s="71">
+      <c r="I638" s="68">
         <v>74.3</v>
       </c>
-      <c r="J638" s="71">
+      <c r="J638" s="68">
         <v>18</v>
       </c>
       <c r="K638" s="33"/>
     </row>
     <row r="639" spans="1:11" ht="14.25">
       <c r="A639" s="33" t="s">
-        <v>612</v>
-      </c>
-      <c r="B639" s="71">
+        <v>611</v>
+      </c>
+      <c r="B639" s="68">
         <v>479</v>
       </c>
-      <c r="C639" s="71">
+      <c r="C639" s="68">
         <v>20</v>
       </c>
-      <c r="D639" s="71">
+      <c r="D639" s="68">
         <v>69</v>
       </c>
-      <c r="E639" s="71">
+      <c r="E639" s="68">
         <v>37</v>
       </c>
-      <c r="F639" s="71">
+      <c r="F639" s="68">
         <v>5.2</v>
       </c>
-      <c r="G639" s="71">
+      <c r="G639" s="68">
         <v>0.9</v>
       </c>
-      <c r="H639" s="71">
+      <c r="H639" s="68">
         <v>40.700000000000003</v>
       </c>
-      <c r="I639" s="71">
+      <c r="I639" s="68">
         <v>74.2</v>
       </c>
-      <c r="J639" s="71">
+      <c r="J639" s="68">
         <v>18</v>
       </c>
       <c r="K639" s="33"/>
     </row>
     <row r="640" spans="1:11" ht="14.25">
       <c r="A640" s="33" t="s">
-        <v>613</v>
-      </c>
-      <c r="B640" s="71">
+        <v>612</v>
+      </c>
+      <c r="B640" s="68">
         <v>467</v>
       </c>
-      <c r="C640" s="71">
+      <c r="C640" s="68">
         <v>17</v>
       </c>
-      <c r="D640" s="71">
+      <c r="D640" s="68">
         <v>69</v>
       </c>
-      <c r="E640" s="71">
+      <c r="E640" s="68">
         <v>32</v>
       </c>
-      <c r="F640" s="71">
+      <c r="F640" s="68">
         <v>6.3</v>
       </c>
-      <c r="G640" s="71">
+      <c r="G640" s="68">
         <v>0.49</v>
       </c>
-      <c r="H640" s="71">
+      <c r="H640" s="68">
         <v>35.200000000000003</v>
       </c>
-      <c r="I640" s="71">
+      <c r="I640" s="68">
         <v>75.3</v>
       </c>
-      <c r="J640" s="71">
+      <c r="J640" s="68">
         <v>15.3</v>
       </c>
       <c r="K640" s="33"/>
     </row>
     <row r="641" spans="1:11" ht="14.25">
       <c r="A641" s="33" t="s">
-        <v>614</v>
-      </c>
-      <c r="B641" s="71">
+        <v>613</v>
+      </c>
+      <c r="B641" s="68">
         <v>541</v>
       </c>
-      <c r="C641" s="71">
+      <c r="C641" s="68">
         <v>30.6</v>
       </c>
-      <c r="D641" s="71">
+      <c r="D641" s="68">
         <v>56.2</v>
       </c>
-      <c r="E641" s="71">
+      <c r="E641" s="68">
         <v>42</v>
       </c>
-      <c r="F641" s="71">
+      <c r="F641" s="68">
         <v>10.1</v>
       </c>
-      <c r="G641" s="71">
+      <c r="G641" s="68">
         <v>0.79</v>
       </c>
-      <c r="H641" s="71">
+      <c r="H641" s="68">
         <v>46.2</v>
       </c>
-      <c r="I641" s="71">
+      <c r="I641" s="68">
         <v>66.3</v>
       </c>
-      <c r="J641" s="71">
+      <c r="J641" s="68">
         <v>27.5</v>
       </c>
       <c r="K641" s="33"/>
     </row>
     <row r="642" spans="1:11" ht="14.25">
       <c r="A642" s="33" t="s">
-        <v>615</v>
-      </c>
-      <c r="B642" s="71">
+        <v>614</v>
+      </c>
+      <c r="B642" s="68">
         <v>540</v>
       </c>
-      <c r="C642" s="71">
+      <c r="C642" s="68">
         <v>33</v>
       </c>
-      <c r="D642" s="71">
+      <c r="D642" s="68">
         <v>52</v>
       </c>
-      <c r="E642" s="71">
+      <c r="E642" s="68">
         <v>39</v>
       </c>
-      <c r="F642" s="71">
+      <c r="F642" s="68">
         <v>8.1</v>
       </c>
-      <c r="G642" s="71">
+      <c r="G642" s="68">
         <v>0.87</v>
       </c>
-      <c r="H642" s="71">
+      <c r="H642" s="68">
         <v>42.9</v>
       </c>
-      <c r="I642" s="71">
+      <c r="I642" s="68">
         <v>60.1</v>
       </c>
-      <c r="J642" s="71">
+      <c r="J642" s="68">
         <v>29.7</v>
       </c>
       <c r="K642" s="33"/>
     </row>
     <row r="643" spans="1:11" ht="14.25">
       <c r="A643" s="33" t="s">
-        <v>616</v>
-      </c>
-      <c r="B643" s="71">
+        <v>615</v>
+      </c>
+      <c r="B643" s="68">
         <v>481</v>
       </c>
-      <c r="C643" s="71">
+      <c r="C643" s="68">
         <v>23</v>
       </c>
-      <c r="D643" s="71">
+      <c r="D643" s="68">
         <v>61</v>
       </c>
-      <c r="E643" s="71">
+      <c r="E643" s="68">
         <v>52</v>
       </c>
-      <c r="F643" s="71">
+      <c r="F643" s="68">
         <v>8.6</v>
       </c>
-      <c r="G643" s="71">
+      <c r="G643" s="68">
         <v>0.63</v>
       </c>
-      <c r="H643" s="71">
+      <c r="H643" s="68">
         <v>57.2</v>
       </c>
-      <c r="I643" s="71">
+      <c r="I643" s="68">
         <v>69.599999999999994</v>
       </c>
-      <c r="J643" s="71">
+      <c r="J643" s="68">
         <v>20.7</v>
       </c>
       <c r="K643" s="33"/>
     </row>
     <row r="644" spans="1:11" ht="14.25">
       <c r="A644" s="33" t="s">
-        <v>617</v>
-      </c>
-      <c r="B644" s="71">
+        <v>616</v>
+      </c>
+      <c r="B644" s="68">
         <v>522</v>
       </c>
-      <c r="C644" s="71">
+      <c r="C644" s="68">
         <v>28.8</v>
       </c>
-      <c r="D644" s="71">
+      <c r="D644" s="68">
         <v>59</v>
       </c>
-      <c r="E644" s="71">
+      <c r="E644" s="68">
         <v>48.9</v>
       </c>
-      <c r="F644" s="71">
+      <c r="F644" s="68">
         <v>6</v>
       </c>
-      <c r="G644" s="71">
+      <c r="G644" s="68">
         <v>0.26</v>
       </c>
-      <c r="H644" s="71">
+      <c r="H644" s="68">
         <v>53.8</v>
       </c>
-      <c r="I644" s="71">
+      <c r="I644" s="68">
         <v>65</v>
       </c>
-      <c r="J644" s="71">
+      <c r="J644" s="68">
         <v>25.9</v>
       </c>
       <c r="K644" s="33"/>
     </row>
     <row r="645" spans="1:11" ht="14.25">
       <c r="A645" s="33" t="s">
-        <v>618</v>
-      </c>
-      <c r="B645" s="71">
+        <v>617</v>
+      </c>
+      <c r="B645" s="68">
         <v>516</v>
       </c>
-      <c r="C645" s="71">
+      <c r="C645" s="68">
         <v>30</v>
       </c>
-      <c r="D645" s="71">
+      <c r="D645" s="68">
         <v>50</v>
       </c>
-      <c r="E645" s="71">
+      <c r="E645" s="68">
         <v>47</v>
       </c>
-      <c r="F645" s="71">
+      <c r="F645" s="68">
         <v>5.9</v>
       </c>
-      <c r="G645" s="71">
+      <c r="G645" s="68">
         <v>0.01</v>
       </c>
-      <c r="H645" s="71">
+      <c r="H645" s="68">
         <v>51.7</v>
       </c>
-      <c r="I645" s="71">
+      <c r="I645" s="68">
         <v>55.9</v>
       </c>
-      <c r="J645" s="71">
+      <c r="J645" s="68">
         <v>27</v>
       </c>
       <c r="K645" s="33"/>
     </row>
     <row r="646" spans="1:11" ht="14.25">
       <c r="A646" s="33" t="s">
-        <v>619</v>
-      </c>
-      <c r="B646" s="71">
+        <v>618</v>
+      </c>
+      <c r="B646" s="68">
         <v>528</v>
       </c>
-      <c r="C646" s="71">
+      <c r="C646" s="68">
         <v>28</v>
       </c>
-      <c r="D646" s="71">
+      <c r="D646" s="68">
         <v>61</v>
       </c>
-      <c r="E646" s="71">
+      <c r="E646" s="68">
         <v>60</v>
       </c>
-      <c r="F646" s="71">
+      <c r="F646" s="68">
         <v>5.6</v>
       </c>
-      <c r="G646" s="71">
+      <c r="G646" s="68">
         <v>0.12</v>
       </c>
-      <c r="H646" s="71">
+      <c r="H646" s="68">
         <v>66</v>
       </c>
-      <c r="I646" s="71">
+      <c r="I646" s="68">
         <v>66.599999999999994</v>
       </c>
-      <c r="J646" s="71">
+      <c r="J646" s="68">
         <v>25.2</v>
       </c>
       <c r="K646" s="33"/>
     </row>
     <row r="647" spans="1:11" ht="14.25">
       <c r="A647" s="33" t="s">
-        <v>620</v>
-      </c>
-      <c r="B647" s="71">
+        <v>619</v>
+      </c>
+      <c r="B647" s="68">
         <v>537</v>
       </c>
-      <c r="C647" s="71">
+      <c r="C647" s="68">
         <v>29</v>
       </c>
-      <c r="D647" s="71">
+      <c r="D647" s="68">
         <v>62</v>
       </c>
-      <c r="E647" s="71">
+      <c r="E647" s="68">
         <v>62</v>
       </c>
-      <c r="F647" s="71">
+      <c r="F647" s="68">
         <v>6.1</v>
       </c>
-      <c r="G647" s="71">
+      <c r="G647" s="68">
         <v>0.18</v>
       </c>
-      <c r="H647" s="71">
+      <c r="H647" s="68">
         <v>68.2</v>
       </c>
-      <c r="I647" s="71">
+      <c r="I647" s="68">
         <v>68.099999999999994</v>
       </c>
-      <c r="J647" s="71">
+      <c r="J647" s="68">
         <v>26.1</v>
       </c>
       <c r="K647" s="33"/>
     </row>
     <row r="648" spans="1:11" ht="14.25">
       <c r="A648" s="33" t="s">
-        <v>621</v>
-      </c>
-      <c r="B648" s="71">
+        <v>620</v>
+      </c>
+      <c r="B648" s="68">
         <v>522</v>
       </c>
-      <c r="C648" s="71">
+      <c r="C648" s="68">
         <v>29</v>
       </c>
-      <c r="D648" s="71">
+      <c r="D648" s="68">
         <v>56</v>
       </c>
-      <c r="E648" s="71">
+      <c r="E648" s="68">
         <v>54</v>
       </c>
-      <c r="F648" s="71">
+      <c r="F648" s="68">
         <v>8.5</v>
       </c>
-      <c r="G648" s="71">
+      <c r="G648" s="68">
         <v>0.13</v>
       </c>
-      <c r="H648" s="71">
+      <c r="H648" s="68">
         <v>59.4</v>
       </c>
-      <c r="I648" s="71">
+      <c r="I648" s="68">
         <v>64.5</v>
       </c>
-      <c r="J648" s="71">
+      <c r="J648" s="68">
         <v>26.1</v>
       </c>
       <c r="K648" s="33"/>
     </row>
     <row r="649" spans="1:11" ht="14.25">
       <c r="A649" s="33" t="s">
-        <v>622</v>
-      </c>
-      <c r="B649" s="71">
+        <v>621</v>
+      </c>
+      <c r="B649" s="68">
         <v>410</v>
       </c>
-      <c r="C649" s="71">
+      <c r="C649" s="68">
         <v>14</v>
       </c>
-      <c r="D649" s="71">
+      <c r="D649" s="68">
         <v>67</v>
       </c>
-      <c r="E649" s="71">
+      <c r="E649" s="68">
         <v>42</v>
       </c>
-      <c r="F649" s="71">
+      <c r="F649" s="68">
         <v>3</v>
       </c>
-      <c r="G649" s="71">
+      <c r="G649" s="68">
         <v>0.44</v>
       </c>
-      <c r="H649" s="71">
+      <c r="H649" s="68">
         <v>46.2</v>
       </c>
-      <c r="I649" s="71">
+      <c r="I649" s="68">
         <v>70</v>
       </c>
-      <c r="J649" s="71">
+      <c r="J649" s="68">
         <v>12.6</v>
       </c>
       <c r="K649" s="33"/>
     </row>
     <row r="650" spans="1:11" ht="14.25">
       <c r="A650" s="33" t="s">
-        <v>623</v>
-      </c>
-      <c r="B650" s="71">
+        <v>622</v>
+      </c>
+      <c r="B650" s="68">
         <v>511</v>
       </c>
-      <c r="C650" s="71">
+      <c r="C650" s="68">
         <v>28</v>
       </c>
-      <c r="D650" s="71">
+      <c r="D650" s="68">
         <v>58</v>
       </c>
-      <c r="E650" s="71">
+      <c r="E650" s="68">
         <v>43</v>
       </c>
-      <c r="F650" s="71">
+      <c r="F650" s="68">
         <v>4.8</v>
       </c>
-      <c r="G650" s="71">
+      <c r="G650" s="68">
         <v>0.37</v>
       </c>
-      <c r="H650" s="71">
+      <c r="H650" s="68">
         <v>47.3</v>
       </c>
-      <c r="I650" s="71">
+      <c r="I650" s="68">
         <v>62.8</v>
       </c>
-      <c r="J650" s="71">
+      <c r="J650" s="68">
         <v>25.2</v>
       </c>
       <c r="K650" s="33"/>
     </row>
     <row r="651" spans="1:11" ht="14.25">
       <c r="A651" s="33" t="s">
-        <v>624</v>
-      </c>
-      <c r="B651" s="71">
+        <v>623</v>
+      </c>
+      <c r="B651" s="68">
         <v>489</v>
       </c>
-      <c r="C651" s="71">
+      <c r="C651" s="68">
         <v>26</v>
       </c>
-      <c r="D651" s="71">
+      <c r="D651" s="68">
         <v>58</v>
       </c>
-      <c r="E651" s="71">
+      <c r="E651" s="68">
         <v>44</v>
       </c>
-      <c r="F651" s="71">
+      <c r="F651" s="68">
         <v>4.8</v>
       </c>
-      <c r="G651" s="71">
+      <c r="G651" s="68">
         <v>0.41</v>
       </c>
-      <c r="H651" s="71">
+      <c r="H651" s="68">
         <v>48.4</v>
       </c>
-      <c r="I651" s="71">
+      <c r="I651" s="68">
         <v>62.8</v>
       </c>
-      <c r="J651" s="71">
+      <c r="J651" s="68">
         <v>23.4</v>
       </c>
       <c r="K651" s="33"/>
     </row>
     <row r="652" spans="1:11" ht="14.25">
       <c r="A652" s="33" t="s">
-        <v>625</v>
-      </c>
-      <c r="B652" s="71">
+        <v>624</v>
+      </c>
+      <c r="B652" s="68">
         <v>473</v>
       </c>
-      <c r="C652" s="71">
+      <c r="C652" s="68">
         <v>21</v>
       </c>
-      <c r="D652" s="71">
+      <c r="D652" s="68">
         <v>63</v>
       </c>
-      <c r="E652" s="71">
+      <c r="E652" s="68">
         <v>50</v>
       </c>
-      <c r="F652" s="71">
+      <c r="F652" s="68">
         <v>2.8</v>
       </c>
-      <c r="G652" s="71">
+      <c r="G652" s="68">
         <v>0.18</v>
       </c>
-      <c r="H652" s="71">
+      <c r="H652" s="68">
         <v>55</v>
       </c>
-      <c r="I652" s="71">
+      <c r="I652" s="68">
         <v>65.8</v>
       </c>
-      <c r="J652" s="71">
+      <c r="J652" s="68">
         <v>18.899999999999999</v>
       </c>
       <c r="K652" s="33"/>
     </row>
     <row r="653" spans="1:11" ht="14.25">
       <c r="A653" s="33" t="s">
-        <v>626</v>
-      </c>
-      <c r="B653" s="71">
+        <v>625</v>
+      </c>
+      <c r="B653" s="68">
         <v>546</v>
       </c>
-      <c r="C653" s="71">
+      <c r="C653" s="68">
         <v>32</v>
       </c>
-      <c r="D653" s="71">
+      <c r="D653" s="68">
         <v>58</v>
       </c>
-      <c r="E653" s="71">
+      <c r="E653" s="68">
         <v>57</v>
       </c>
-      <c r="F653" s="71">
+      <c r="F653" s="68">
         <v>5.2</v>
       </c>
-      <c r="G653" s="71">
+      <c r="G653" s="68">
         <v>0.31</v>
       </c>
-      <c r="H653" s="71">
+      <c r="H653" s="68">
         <v>62.7</v>
       </c>
-      <c r="I653" s="71">
+      <c r="I653" s="68">
         <v>63.2</v>
       </c>
-      <c r="J653" s="71">
+      <c r="J653" s="68">
         <v>28.8</v>
       </c>
       <c r="K653" s="33"/>
     </row>
     <row r="654" spans="1:11" ht="14.25">
       <c r="A654" s="33" t="s">
-        <v>627</v>
-      </c>
-      <c r="B654" s="71">
+        <v>626</v>
+      </c>
+      <c r="B654" s="68">
         <v>427</v>
       </c>
-      <c r="C654" s="71">
+      <c r="C654" s="68">
         <v>12</v>
       </c>
-      <c r="D654" s="71">
+      <c r="D654" s="68">
         <v>76</v>
       </c>
-      <c r="E654" s="71">
+      <c r="E654" s="68">
         <v>72</v>
       </c>
-      <c r="F654" s="71">
+      <c r="F654" s="68">
         <v>2.4</v>
       </c>
-      <c r="G654" s="71">
+      <c r="G654" s="68">
         <v>0.02</v>
       </c>
-      <c r="H654" s="71">
+      <c r="H654" s="68">
         <v>79.2</v>
       </c>
-      <c r="I654" s="71">
+      <c r="I654" s="68">
         <v>78.400000000000006</v>
       </c>
-      <c r="J654" s="71">
+      <c r="J654" s="68">
         <v>10.8</v>
       </c>
       <c r="K654" s="33"/>
     </row>
     <row r="655" spans="1:11" ht="14.25">
       <c r="A655" s="33" t="s">
-        <v>628</v>
-      </c>
-      <c r="B655" s="71">
+        <v>627</v>
+      </c>
+      <c r="B655" s="68">
         <v>469</v>
       </c>
-      <c r="C655" s="71">
+      <c r="C655" s="68">
         <v>21</v>
       </c>
-      <c r="D655" s="71">
+      <c r="D655" s="68">
         <v>67</v>
       </c>
-      <c r="E655" s="71">
+      <c r="E655" s="68">
         <v>51</v>
       </c>
-      <c r="F655" s="71">
+      <c r="F655" s="68">
         <v>2.9</v>
       </c>
-      <c r="G655" s="71">
+      <c r="G655" s="68">
         <v>0.46</v>
       </c>
-      <c r="H655" s="71">
+      <c r="H655" s="68">
         <v>56.1</v>
       </c>
-      <c r="I655" s="71">
+      <c r="I655" s="68">
         <v>69.900000000000006</v>
       </c>
-      <c r="J655" s="71">
+      <c r="J655" s="68">
         <v>18.899999999999999</v>
       </c>
       <c r="K655" s="33"/>
     </row>
     <row r="656" spans="1:11" ht="14.25">
       <c r="A656" s="33" t="s">
-        <v>629</v>
-      </c>
-      <c r="B656" s="71">
+        <v>628</v>
+      </c>
+      <c r="B656" s="68">
         <v>494</v>
       </c>
-      <c r="C656" s="71">
+      <c r="C656" s="68">
         <v>27</v>
       </c>
-      <c r="D656" s="71">
+      <c r="D656" s="68">
         <v>57</v>
       </c>
-      <c r="E656" s="71">
+      <c r="E656" s="68">
         <v>43</v>
       </c>
-      <c r="F656" s="71">
+      <c r="F656" s="68">
         <v>6.5</v>
       </c>
-      <c r="G656" s="71">
+      <c r="G656" s="68">
         <v>0.37</v>
       </c>
-      <c r="H656" s="71">
+      <c r="H656" s="68">
         <v>47.3</v>
       </c>
-      <c r="I656" s="71">
+      <c r="I656" s="68">
         <v>63.5</v>
       </c>
-      <c r="J656" s="71">
+      <c r="J656" s="68">
         <v>24.3</v>
       </c>
       <c r="K656" s="33"/>
     </row>
     <row r="657" spans="1:11" ht="14.25">
       <c r="A657" s="33" t="s">
-        <v>630</v>
-      </c>
-      <c r="B657" s="71">
+        <v>629</v>
+      </c>
+      <c r="B657" s="68">
         <v>467</v>
       </c>
-      <c r="C657" s="71">
+      <c r="C657" s="68">
         <v>21</v>
       </c>
-      <c r="D657" s="71">
+      <c r="D657" s="68">
         <v>67</v>
       </c>
-      <c r="E657" s="71">
+      <c r="E657" s="68">
         <v>50</v>
       </c>
-      <c r="F657" s="71">
+      <c r="F657" s="68">
         <v>2.9</v>
       </c>
-      <c r="G657" s="71">
+      <c r="G657" s="68">
         <v>0.45</v>
       </c>
-      <c r="H657" s="71">
+      <c r="H657" s="68">
         <v>55</v>
       </c>
-      <c r="I657" s="71">
+      <c r="I657" s="68">
         <v>69.900000000000006</v>
       </c>
-      <c r="J657" s="71">
+      <c r="J657" s="68">
         <v>18.899999999999999</v>
       </c>
       <c r="K657" s="33"/>
     </row>
     <row r="658" spans="1:11" ht="14.25">
       <c r="A658" s="33" t="s">
-        <v>631</v>
-      </c>
-      <c r="B658" s="71">
+        <v>630</v>
+      </c>
+      <c r="B658" s="68">
         <v>493</v>
       </c>
-      <c r="C658" s="71">
+      <c r="C658" s="68">
         <v>24</v>
       </c>
-      <c r="D658" s="71">
+      <c r="D658" s="68">
         <v>65</v>
       </c>
-      <c r="E658" s="71">
+      <c r="E658" s="68">
         <v>48</v>
       </c>
-      <c r="F658" s="71">
+      <c r="F658" s="68">
         <v>4.5999999999999996</v>
       </c>
-      <c r="G658" s="71">
+      <c r="G658" s="68">
         <v>0.4</v>
       </c>
-      <c r="H658" s="71">
+      <c r="H658" s="68">
         <v>52.8</v>
       </c>
-      <c r="I658" s="71">
+      <c r="I658" s="68">
         <v>69.599999999999994</v>
       </c>
-      <c r="J658" s="71">
+      <c r="J658" s="68">
         <v>21.6</v>
       </c>
       <c r="K658" s="33"/>
     </row>
     <row r="659" spans="1:11" ht="14.25">
       <c r="A659" s="33" t="s">
-        <v>632</v>
-      </c>
-      <c r="B659" s="71">
+        <v>631</v>
+      </c>
+      <c r="B659" s="68">
         <v>502</v>
       </c>
-      <c r="C659" s="71">
+      <c r="C659" s="68">
         <v>25</v>
       </c>
-      <c r="D659" s="71">
+      <c r="D659" s="68">
         <v>63</v>
       </c>
-      <c r="E659" s="71">
+      <c r="E659" s="68">
         <v>47</v>
       </c>
-      <c r="F659" s="71">
+      <c r="F659" s="68">
         <v>5</v>
       </c>
-      <c r="G659" s="71">
+      <c r="G659" s="68">
         <v>0.4</v>
       </c>
-      <c r="H659" s="71">
+      <c r="H659" s="68">
         <v>51.7</v>
       </c>
-      <c r="I659" s="71">
+      <c r="I659" s="68">
         <v>68</v>
       </c>
-      <c r="J659" s="71">
+      <c r="J659" s="68">
         <v>22.5</v>
       </c>
       <c r="K659" s="33"/>
@@ -19946,11 +19983,11 @@
   <customSheetViews>
     <customSheetView guid="{BFC8CB06-61D4-4AB5-8D7C-32259655DEAE}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A63:K96" xr:uid="{65E557AC-0B5F-4106-9F06-DE3ADAEE3327}"/>
+      <autoFilter ref="A63:K96" xr:uid="{8D5A35B4-8DBE-44B3-8A95-221563617860}"/>
     </customSheetView>
     <customSheetView guid="{78FFC831-1D0F-4AD8-8D5F-BA4B980A515D}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A152:K164" xr:uid="{2D47DD10-3FC5-413A-A7A4-225471EE04FD}">
+      <autoFilter ref="A152:K164" xr:uid="{9BE72ECB-BCEC-48F6-A6E7-A201489DA149}">
         <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A152:K164">
           <sortCondition descending="1" ref="H152:H164"/>
           <sortCondition descending="1" ref="I152:I164"/>
@@ -19959,11 +19996,11 @@
     </customSheetView>
     <customSheetView guid="{DDEA0034-8075-451D-A031-0121E8381F0F}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A13:K40" xr:uid="{3321610B-621C-46E1-A6B9-A4B76656BBB4}"/>
+      <autoFilter ref="A13:K40" xr:uid="{295DC922-099E-4BF1-845A-761A21CAF9E1}"/>
     </customSheetView>
     <customSheetView guid="{2D050267-7263-4CD4-97DE-20ADEF3AA056}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A63:K96" xr:uid="{E439C743-B806-4389-B3FE-4D6CF1E2F1C2}"/>
+      <autoFilter ref="A63:K96" xr:uid="{FCED233E-BD51-4FD6-B9AE-54D809D30256}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="5">
@@ -20002,7 +20039,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="42">
       <c r="A1" s="130" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B1" s="128"/>
       <c r="C1" s="5"/>
@@ -20020,7 +20057,7 @@
       <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="80"/>
+      <c r="B2" s="77"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -20034,7 +20071,7 @@
     </row>
     <row r="3" spans="1:12" ht="14.25">
       <c r="A3" s="127" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B3" s="128"/>
       <c r="C3" s="128"/>
@@ -20064,7 +20101,7 @@
     </row>
     <row r="5" spans="1:12" ht="15">
       <c r="A5" s="17" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -20080,7 +20117,7 @@
     </row>
     <row r="6" spans="1:12" ht="15">
       <c r="A6" s="17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -20110,7 +20147,7 @@
     </row>
     <row r="8" spans="1:12" ht="14.25">
       <c r="A8" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -20139,880 +20176,880 @@
       <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:12" ht="15">
-      <c r="A10" s="81" t="s">
+      <c r="A10" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="82" t="s">
+      <c r="B10" s="79" t="s">
+        <v>637</v>
+      </c>
+      <c r="C10" s="79" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="79" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="79" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="79" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="79" t="s">
         <v>638</v>
       </c>
-      <c r="C10" s="82" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="82" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="82" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" s="82" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="82" t="s">
-        <v>63</v>
-      </c>
-      <c r="H10" s="82" t="s">
-        <v>64</v>
-      </c>
-      <c r="I10" s="82" t="s">
+      <c r="J10" s="79" t="s">
         <v>639</v>
       </c>
-      <c r="J10" s="82" t="s">
+      <c r="K10" s="79" t="s">
         <v>640</v>
       </c>
-      <c r="K10" s="82" t="s">
-        <v>641</v>
-      </c>
       <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:12" ht="14.25">
-      <c r="A11" s="83" t="s">
+      <c r="A11" s="80" t="s">
         <v>160</v>
       </c>
-      <c r="B11" s="84">
+      <c r="B11" s="81">
         <v>200</v>
       </c>
-      <c r="C11" s="84">
+      <c r="C11" s="81">
         <f>IFERROR((B11/100) * VLOOKUP(A11, Ingrediensdatabase!A:J, 2, FALSE), "")</f>
         <v>256</v>
       </c>
-      <c r="D11" s="84">
+      <c r="D11" s="81">
         <f>IFERROR((B11/100) * VLOOKUP(A11, Ingrediensdatabase!A:J, 3, FALSE), "")</f>
         <v>8</v>
       </c>
-      <c r="E11" s="84">
+      <c r="E11" s="81">
         <f>IFERROR((B11/100) * VLOOKUP(A11, Ingrediensdatabase!A:J, 4, FALSE), "")</f>
         <v>38</v>
       </c>
-      <c r="F11" s="84">
+      <c r="F11" s="81">
         <f>IFERROR((B11/100) * VLOOKUP(A11, Ingrediensdatabase!A:J, 5, FALSE), "")</f>
         <v>38</v>
       </c>
-      <c r="G11" s="84">
+      <c r="G11" s="81">
         <f>IFERROR((B11/100) * VLOOKUP(A11, Ingrediensdatabase!A:J, 6, FALSE), "")</f>
         <v>7.6</v>
       </c>
-      <c r="H11" s="84">
+      <c r="H11" s="81">
         <f>IFERROR((B11/100) * VLOOKUP(A11, Ingrediensdatabase!A:J, 7, FALSE), "")</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="I11" s="84">
+      <c r="I11" s="81">
         <f>IFERROR((B11/100) * VLOOKUP(A11, Ingrediensdatabase!A:J, 8, FALSE), "")</f>
         <v>38</v>
       </c>
-      <c r="J11" s="84">
+      <c r="J11" s="81">
         <f>IFERROR((B11/100) * VLOOKUP(A11, Ingrediensdatabase!A:J, 9, FALSE), "")</f>
         <v>45.6</v>
       </c>
-      <c r="K11" s="84">
+      <c r="K11" s="81">
         <f>IFERROR((B11/100) * VLOOKUP(A11, Ingrediensdatabase!A:K, 10, FALSE), "")</f>
         <v>7.2</v>
       </c>
       <c r="L11" s="4"/>
     </row>
     <row r="12" spans="1:12" ht="14.25">
-      <c r="A12" s="83" t="s">
+      <c r="A12" s="80" t="s">
         <v>191</v>
       </c>
-      <c r="B12" s="84">
+      <c r="B12" s="81">
         <v>250</v>
       </c>
-      <c r="C12" s="84">
+      <c r="C12" s="81">
         <f>IFERROR((B12/100) * VLOOKUP(A12, Ingrediensdatabase!A:J, 2, FALSE), "")</f>
         <v>130</v>
       </c>
-      <c r="D12" s="84">
+      <c r="D12" s="81">
         <f>IFERROR((B12/100) * VLOOKUP(A12, Ingrediensdatabase!A:J, 3, FALSE), "")</f>
         <v>2.25</v>
       </c>
-      <c r="E12" s="84">
+      <c r="E12" s="81">
         <f>IFERROR((B12/100) * VLOOKUP(A12, Ingrediensdatabase!A:J, 4, FALSE), "")</f>
         <v>13.25</v>
       </c>
-      <c r="F12" s="84">
+      <c r="F12" s="81">
         <f>IFERROR((B12/100) * VLOOKUP(A12, Ingrediensdatabase!A:J, 5, FALSE), "")</f>
         <v>13.25</v>
       </c>
-      <c r="G12" s="84">
+      <c r="G12" s="81">
         <f>IFERROR((B12/100) * VLOOKUP(A12, Ingrediensdatabase!A:J, 6, FALSE), "")</f>
         <v>14</v>
       </c>
-      <c r="H12" s="84">
+      <c r="H12" s="81">
         <f>IFERROR((B12/100) * VLOOKUP(A12, Ingrediensdatabase!A:J, 7, FALSE), "")</f>
         <v>0.3</v>
       </c>
-      <c r="I12" s="84">
+      <c r="I12" s="81">
         <f>IFERROR((B12/100) * VLOOKUP(A12, Ingrediensdatabase!A:J, 8, FALSE), "")</f>
         <v>25.25</v>
       </c>
-      <c r="J12" s="84">
+      <c r="J12" s="81">
         <f>IFERROR((B12/100) * VLOOKUP(A12, Ingrediensdatabase!A:J, 9, FALSE), "")</f>
         <v>27.25</v>
       </c>
-      <c r="K12" s="84">
+      <c r="K12" s="81">
         <f>IFERROR((B12/100) * VLOOKUP(A12, Ingrediensdatabase!A:K, 10, FALSE), "")</f>
         <v>2</v>
       </c>
       <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12" ht="14.25">
-      <c r="A13" s="83" t="s">
-        <v>245</v>
-      </c>
-      <c r="B13" s="84">
+      <c r="A13" s="80" t="s">
+        <v>244</v>
+      </c>
+      <c r="B13" s="81">
         <v>200</v>
       </c>
-      <c r="C13" s="84">
+      <c r="C13" s="81">
         <f>IFERROR((B13/100) * VLOOKUP(A13, Ingrediensdatabase!A:J, 2, FALSE), "")</f>
         <v>128</v>
       </c>
-      <c r="D13" s="84">
+      <c r="D13" s="81">
         <f>IFERROR((B13/100) * VLOOKUP(A13, Ingrediensdatabase!A:J, 3, FALSE), "")</f>
         <v>7</v>
       </c>
-      <c r="E13" s="84">
+      <c r="E13" s="81">
         <f>IFERROR((B13/100) * VLOOKUP(A13, Ingrediensdatabase!A:J, 4, FALSE), "")</f>
         <v>9.1999999999999993</v>
       </c>
-      <c r="F13" s="84">
+      <c r="F13" s="81">
         <f>IFERROR((B13/100) * VLOOKUP(A13, Ingrediensdatabase!A:J, 5, FALSE), "")</f>
         <v>9.1999999999999993</v>
       </c>
-      <c r="G13" s="84">
+      <c r="G13" s="81">
         <f>IFERROR((B13/100) * VLOOKUP(A13, Ingrediensdatabase!A:J, 6, FALSE), "")</f>
         <v>6.8</v>
       </c>
-      <c r="H13" s="84">
+      <c r="H13" s="81">
         <f>IFERROR((B13/100) * VLOOKUP(A13, Ingrediensdatabase!A:J, 7, FALSE), "")</f>
         <v>0.2</v>
       </c>
-      <c r="I13" s="84">
+      <c r="I13" s="81">
         <f>IFERROR((B13/100) * VLOOKUP(A13, Ingrediensdatabase!A:J, 8, FALSE), "")</f>
         <v>9.1999999999999993</v>
       </c>
-      <c r="J13" s="84">
+      <c r="J13" s="81">
         <f>IFERROR((B13/100) * VLOOKUP(A13, Ingrediensdatabase!A:J, 9, FALSE), "")</f>
         <v>16</v>
       </c>
-      <c r="K13" s="84">
+      <c r="K13" s="81">
         <f>IFERROR((B13/100) * VLOOKUP(A13, Ingrediensdatabase!A:K, 10, FALSE), "")</f>
         <v>6.4</v>
       </c>
       <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12" ht="14.25">
-      <c r="A14" s="83" t="s">
+      <c r="A14" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="B14" s="84">
+      <c r="B14" s="81">
         <v>30</v>
       </c>
-      <c r="C14" s="84">
+      <c r="C14" s="81">
         <f>IFERROR((B14/100) * VLOOKUP(A14, Ingrediensdatabase!A:J, 2, FALSE), "")</f>
         <v>33.299999999999997</v>
       </c>
-      <c r="D14" s="84">
+      <c r="D14" s="81">
         <f>IFERROR((B14/100) * VLOOKUP(A14, Ingrediensdatabase!A:J, 3, FALSE), "")</f>
         <v>0</v>
       </c>
-      <c r="E14" s="84">
+      <c r="E14" s="81">
         <f>IFERROR((B14/100) * VLOOKUP(A14, Ingrediensdatabase!A:J, 4, FALSE), "")</f>
         <v>27.87</v>
       </c>
-      <c r="F14" s="84">
+      <c r="F14" s="81">
         <f>IFERROR((B14/100) * VLOOKUP(A14, Ingrediensdatabase!A:J, 5, FALSE), "")</f>
         <v>1.1100000000000001</v>
       </c>
-      <c r="G14" s="84">
+      <c r="G14" s="81">
         <f>IFERROR((B14/100) * VLOOKUP(A14, Ingrediensdatabase!A:J, 6, FALSE), "")</f>
         <v>0.03</v>
       </c>
-      <c r="H14" s="84">
+      <c r="H14" s="81">
         <f>IFERROR((B14/100) * VLOOKUP(A14, Ingrediensdatabase!A:J, 7, FALSE), "")</f>
         <v>0.75</v>
       </c>
-      <c r="I14" s="84">
+      <c r="I14" s="81">
         <f>IFERROR((B14/100) * VLOOKUP(A14, Ingrediensdatabase!A:J, 8, FALSE), "")</f>
         <v>42.48</v>
       </c>
-      <c r="J14" s="84">
+      <c r="J14" s="81">
         <f>IFERROR((B14/100) * VLOOKUP(A14, Ingrediensdatabase!A:J, 9, FALSE), "")</f>
         <v>27.9</v>
       </c>
-      <c r="K14" s="84">
+      <c r="K14" s="81">
         <f>IFERROR((B14/100) * VLOOKUP(A14, Ingrediensdatabase!A:K, 10, FALSE), "")</f>
         <v>0</v>
       </c>
       <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:12" ht="14.25">
-      <c r="A15" s="83" t="s">
+      <c r="A15" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="84">
+      <c r="B15" s="81">
         <v>20</v>
       </c>
-      <c r="C15" s="84">
+      <c r="C15" s="81">
         <f>IFERROR((B15/100) * VLOOKUP(A15, Ingrediensdatabase!A:J, 2, FALSE), "")</f>
         <v>80</v>
       </c>
-      <c r="D15" s="84">
+      <c r="D15" s="81">
         <f>IFERROR((B15/100) * VLOOKUP(A15, Ingrediensdatabase!A:J, 3, FALSE), "")</f>
         <v>0</v>
       </c>
-      <c r="E15" s="84">
+      <c r="E15" s="81">
         <f>IFERROR((B15/100) * VLOOKUP(A15, Ingrediensdatabase!A:J, 4, FALSE), "")</f>
         <v>19.8</v>
       </c>
-      <c r="F15" s="84">
+      <c r="F15" s="81">
         <f>IFERROR((B15/100) * VLOOKUP(A15, Ingrediensdatabase!A:J, 5, FALSE), "")</f>
         <v>0</v>
       </c>
-      <c r="G15" s="84">
+      <c r="G15" s="81">
         <f>IFERROR((B15/100) * VLOOKUP(A15, Ingrediensdatabase!A:J, 6, FALSE), "")</f>
         <v>0</v>
       </c>
-      <c r="H15" s="84">
+      <c r="H15" s="81">
         <f>IFERROR((B15/100) * VLOOKUP(A15, Ingrediensdatabase!A:J, 7, FALSE), "")</f>
         <v>0</v>
       </c>
-      <c r="I15" s="84">
+      <c r="I15" s="81">
         <f>IFERROR((B15/100) * VLOOKUP(A15, Ingrediensdatabase!A:J, 8, FALSE), "")</f>
         <v>73.260000000000005</v>
       </c>
-      <c r="J15" s="84">
+      <c r="J15" s="81">
         <f>IFERROR((B15/100) * VLOOKUP(A15, Ingrediensdatabase!A:J, 9, FALSE), "")</f>
         <v>19.8</v>
       </c>
-      <c r="K15" s="84">
+      <c r="K15" s="81">
         <f>IFERROR((B15/100) * VLOOKUP(A15, Ingrediensdatabase!A:K, 10, FALSE), "")</f>
         <v>0</v>
       </c>
       <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12" ht="14.25">
-      <c r="A16" s="83" t="s">
+      <c r="A16" s="80" t="s">
         <v>151</v>
       </c>
-      <c r="B16" s="84">
+      <c r="B16" s="81">
         <v>5</v>
       </c>
-      <c r="C16" s="84">
+      <c r="C16" s="81">
         <f>IFERROR((B16/100) * VLOOKUP(A16, Ingrediensdatabase!A:J, 2, FALSE), "")</f>
         <v>14.8</v>
       </c>
-      <c r="D16" s="84">
+      <c r="D16" s="81">
         <f>IFERROR((B16/100) * VLOOKUP(A16, Ingrediensdatabase!A:J, 3, FALSE), "")</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E16" s="84">
+      <c r="E16" s="81">
         <f>IFERROR((B16/100) * VLOOKUP(A16, Ingrediensdatabase!A:J, 4, FALSE), "")</f>
         <v>3.7</v>
       </c>
-      <c r="F16" s="84">
+      <c r="F16" s="81">
         <f>IFERROR((B16/100) * VLOOKUP(A16, Ingrediensdatabase!A:J, 5, FALSE), "")</f>
         <v>3.6</v>
       </c>
-      <c r="G16" s="84">
+      <c r="G16" s="81">
         <f>IFERROR((B16/100) * VLOOKUP(A16, Ingrediensdatabase!A:J, 6, FALSE), "")</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="H16" s="84">
+      <c r="H16" s="81">
         <f>IFERROR((B16/100) * VLOOKUP(A16, Ingrediensdatabase!A:J, 7, FALSE), "")</f>
         <v>1E-3</v>
       </c>
-      <c r="I16" s="84">
+      <c r="I16" s="81">
         <f>IFERROR((B16/100) * VLOOKUP(A16, Ingrediensdatabase!A:J, 8, FALSE), "")</f>
         <v>4.68</v>
       </c>
-      <c r="J16" s="84">
+      <c r="J16" s="81">
         <f>IFERROR((B16/100) * VLOOKUP(A16, Ingrediensdatabase!A:J, 9, FALSE), "")</f>
         <v>3.7250000000000001</v>
       </c>
-      <c r="K16" s="84">
+      <c r="K16" s="81">
         <f>IFERROR((B16/100) * VLOOKUP(A16, Ingrediensdatabase!A:K, 10, FALSE), "")</f>
         <v>0</v>
       </c>
       <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12" ht="14.25">
-      <c r="A17" s="83"/>
-      <c r="B17" s="84"/>
-      <c r="C17" s="84" t="str">
+      <c r="A17" s="80"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="81" t="str">
         <f>IFERROR((B17/100) * VLOOKUP(A17, Ingrediensdatabase!A:J, 2, FALSE), "")</f>
         <v/>
       </c>
-      <c r="D17" s="84" t="str">
+      <c r="D17" s="81" t="str">
         <f>IFERROR((B17/100) * VLOOKUP(A17, Ingrediensdatabase!A:J, 3, FALSE), "")</f>
         <v/>
       </c>
-      <c r="E17" s="84" t="str">
+      <c r="E17" s="81" t="str">
         <f>IFERROR((B17/100) * VLOOKUP(A17, Ingrediensdatabase!A:J, 4, FALSE), "")</f>
         <v/>
       </c>
-      <c r="F17" s="84" t="str">
+      <c r="F17" s="81" t="str">
         <f>IFERROR((B17/100) * VLOOKUP(A17, Ingrediensdatabase!A:J, 5, FALSE), "")</f>
         <v/>
       </c>
-      <c r="G17" s="84" t="str">
+      <c r="G17" s="81" t="str">
         <f>IFERROR((B17/100) * VLOOKUP(A17, Ingrediensdatabase!A:J, 6, FALSE), "")</f>
         <v/>
       </c>
-      <c r="H17" s="84" t="str">
+      <c r="H17" s="81" t="str">
         <f>IFERROR((B17/100) * VLOOKUP(A17, Ingrediensdatabase!A:J, 7, FALSE), "")</f>
         <v/>
       </c>
-      <c r="I17" s="84" t="str">
+      <c r="I17" s="81" t="str">
         <f>IFERROR((B17/100) * VLOOKUP(A17, Ingrediensdatabase!A:J, 8, FALSE), "")</f>
         <v/>
       </c>
-      <c r="J17" s="84" t="str">
+      <c r="J17" s="81" t="str">
         <f>IFERROR((B17/100) * VLOOKUP(A17, Ingrediensdatabase!A:J, 9, FALSE), "")</f>
         <v/>
       </c>
-      <c r="K17" s="84" t="str">
+      <c r="K17" s="81" t="str">
         <f>IFERROR((B17/100) * VLOOKUP(A17, Ingrediensdatabase!A:K, 10, FALSE), "")</f>
         <v/>
       </c>
       <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12" ht="14.25">
-      <c r="A18" s="83"/>
-      <c r="B18" s="84"/>
-      <c r="C18" s="84" t="str">
+      <c r="A18" s="80"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="81" t="str">
         <f>IFERROR((B18/100) * VLOOKUP(A18, Ingrediensdatabase!A:J, 2, FALSE), "")</f>
         <v/>
       </c>
-      <c r="D18" s="84" t="str">
+      <c r="D18" s="81" t="str">
         <f>IFERROR((B18/100) * VLOOKUP(A18, Ingrediensdatabase!A:J, 3, FALSE), "")</f>
         <v/>
       </c>
-      <c r="E18" s="84" t="str">
+      <c r="E18" s="81" t="str">
         <f>IFERROR((B18/100) * VLOOKUP(A18, Ingrediensdatabase!A:J, 4, FALSE), "")</f>
         <v/>
       </c>
-      <c r="F18" s="84" t="str">
+      <c r="F18" s="81" t="str">
         <f>IFERROR((B18/100) * VLOOKUP(A18, Ingrediensdatabase!A:J, 5, FALSE), "")</f>
         <v/>
       </c>
-      <c r="G18" s="84" t="str">
+      <c r="G18" s="81" t="str">
         <f>IFERROR((B18/100) * VLOOKUP(A18, Ingrediensdatabase!A:J, 6, FALSE), "")</f>
         <v/>
       </c>
-      <c r="H18" s="84" t="str">
+      <c r="H18" s="81" t="str">
         <f>IFERROR((B18/100) * VLOOKUP(A18, Ingrediensdatabase!A:J, 7, FALSE), "")</f>
         <v/>
       </c>
-      <c r="I18" s="84" t="str">
+      <c r="I18" s="81" t="str">
         <f>IFERROR((B18/100) * VLOOKUP(A18, Ingrediensdatabase!A:J, 8, FALSE), "")</f>
         <v/>
       </c>
-      <c r="J18" s="84" t="str">
+      <c r="J18" s="81" t="str">
         <f>IFERROR((B18/100) * VLOOKUP(A18, Ingrediensdatabase!A:J, 9, FALSE), "")</f>
         <v/>
       </c>
-      <c r="K18" s="84" t="str">
+      <c r="K18" s="81" t="str">
         <f>IFERROR((B18/100) * VLOOKUP(A18, Ingrediensdatabase!A:K, 10, FALSE), "")</f>
         <v/>
       </c>
       <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:12" ht="14.25">
-      <c r="A19" s="83"/>
-      <c r="B19" s="84"/>
-      <c r="C19" s="84" t="str">
+      <c r="A19" s="80"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="81" t="str">
         <f>IFERROR((B19/100) * VLOOKUP(A19, Ingrediensdatabase!A:J, 2, FALSE), "")</f>
         <v/>
       </c>
-      <c r="D19" s="84" t="str">
+      <c r="D19" s="81" t="str">
         <f>IFERROR((B19/100) * VLOOKUP(A19, Ingrediensdatabase!A:J, 3, FALSE), "")</f>
         <v/>
       </c>
-      <c r="E19" s="84" t="str">
+      <c r="E19" s="81" t="str">
         <f>IFERROR((B19/100) * VLOOKUP(A19, Ingrediensdatabase!A:J, 4, FALSE), "")</f>
         <v/>
       </c>
-      <c r="F19" s="84" t="str">
+      <c r="F19" s="81" t="str">
         <f>IFERROR((B19/100) * VLOOKUP(A19, Ingrediensdatabase!A:J, 5, FALSE), "")</f>
         <v/>
       </c>
-      <c r="G19" s="84" t="str">
+      <c r="G19" s="81" t="str">
         <f>IFERROR((B19/100) * VLOOKUP(A19, Ingrediensdatabase!A:J, 6, FALSE), "")</f>
         <v/>
       </c>
-      <c r="H19" s="84" t="str">
+      <c r="H19" s="81" t="str">
         <f>IFERROR((B19/100) * VLOOKUP(A19, Ingrediensdatabase!A:J, 7, FALSE), "")</f>
         <v/>
       </c>
-      <c r="I19" s="84" t="str">
+      <c r="I19" s="81" t="str">
         <f>IFERROR((B19/100) * VLOOKUP(A19, Ingrediensdatabase!A:J, 8, FALSE), "")</f>
         <v/>
       </c>
-      <c r="J19" s="84" t="str">
+      <c r="J19" s="81" t="str">
         <f>IFERROR((B19/100) * VLOOKUP(A19, Ingrediensdatabase!A:J, 9, FALSE), "")</f>
         <v/>
       </c>
-      <c r="K19" s="84" t="str">
+      <c r="K19" s="81" t="str">
         <f>IFERROR((B19/100) * VLOOKUP(A19, Ingrediensdatabase!A:K, 10, FALSE), "")</f>
         <v/>
       </c>
       <c r="L19" s="4"/>
     </row>
     <row r="20" spans="1:12" ht="14.25">
-      <c r="A20" s="83"/>
-      <c r="B20" s="84"/>
-      <c r="C20" s="84" t="str">
+      <c r="A20" s="80"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="81" t="str">
         <f>IFERROR((B20/100) * VLOOKUP(A20, Ingrediensdatabase!A:J, 2, FALSE), "")</f>
         <v/>
       </c>
-      <c r="D20" s="84" t="str">
+      <c r="D20" s="81" t="str">
         <f>IFERROR((B20/100) * VLOOKUP(A20, Ingrediensdatabase!A:J, 3, FALSE), "")</f>
         <v/>
       </c>
-      <c r="E20" s="84" t="str">
+      <c r="E20" s="81" t="str">
         <f>IFERROR((B20/100) * VLOOKUP(A20, Ingrediensdatabase!A:J, 4, FALSE), "")</f>
         <v/>
       </c>
-      <c r="F20" s="84" t="str">
+      <c r="F20" s="81" t="str">
         <f>IFERROR((B20/100) * VLOOKUP(A20, Ingrediensdatabase!A:J, 5, FALSE), "")</f>
         <v/>
       </c>
-      <c r="G20" s="84" t="str">
+      <c r="G20" s="81" t="str">
         <f>IFERROR((B20/100) * VLOOKUP(A20, Ingrediensdatabase!A:J, 6, FALSE), "")</f>
         <v/>
       </c>
-      <c r="H20" s="84" t="str">
+      <c r="H20" s="81" t="str">
         <f>IFERROR((B20/100) * VLOOKUP(A20, Ingrediensdatabase!A:J, 7, FALSE), "")</f>
         <v/>
       </c>
-      <c r="I20" s="84" t="str">
+      <c r="I20" s="81" t="str">
         <f>IFERROR((B20/100) * VLOOKUP(A20, Ingrediensdatabase!A:J, 8, FALSE), "")</f>
         <v/>
       </c>
-      <c r="J20" s="84" t="str">
+      <c r="J20" s="81" t="str">
         <f>IFERROR((B20/100) * VLOOKUP(A20, Ingrediensdatabase!A:J, 9, FALSE), "")</f>
         <v/>
       </c>
-      <c r="K20" s="84" t="str">
+      <c r="K20" s="81" t="str">
         <f>IFERROR((B20/100) * VLOOKUP(A20, Ingrediensdatabase!A:K, 10, FALSE), "")</f>
         <v/>
       </c>
       <c r="L20" s="4"/>
     </row>
     <row r="21" spans="1:12" ht="14.25">
-      <c r="A21" s="83"/>
-      <c r="B21" s="84"/>
-      <c r="C21" s="84" t="str">
+      <c r="A21" s="80"/>
+      <c r="B21" s="81"/>
+      <c r="C21" s="81" t="str">
         <f>IFERROR((B21/100) * VLOOKUP(A21, Ingrediensdatabase!A:J, 2, FALSE), "")</f>
         <v/>
       </c>
-      <c r="D21" s="84" t="str">
+      <c r="D21" s="81" t="str">
         <f>IFERROR((B21/100) * VLOOKUP(A21, Ingrediensdatabase!A:J, 3, FALSE), "")</f>
         <v/>
       </c>
-      <c r="E21" s="84" t="str">
+      <c r="E21" s="81" t="str">
         <f>IFERROR((B21/100) * VLOOKUP(A21, Ingrediensdatabase!A:J, 4, FALSE), "")</f>
         <v/>
       </c>
-      <c r="F21" s="84" t="str">
+      <c r="F21" s="81" t="str">
         <f>IFERROR((B21/100) * VLOOKUP(A21, Ingrediensdatabase!A:J, 5, FALSE), "")</f>
         <v/>
       </c>
-      <c r="G21" s="84" t="str">
+      <c r="G21" s="81" t="str">
         <f>IFERROR((B21/100) * VLOOKUP(A21, Ingrediensdatabase!A:J, 6, FALSE), "")</f>
         <v/>
       </c>
-      <c r="H21" s="84" t="str">
+      <c r="H21" s="81" t="str">
         <f>IFERROR((B21/100) * VLOOKUP(A21, Ingrediensdatabase!A:J, 7, FALSE), "")</f>
         <v/>
       </c>
-      <c r="I21" s="84" t="str">
+      <c r="I21" s="81" t="str">
         <f>IFERROR((B21/100) * VLOOKUP(A21, Ingrediensdatabase!A:J, 8, FALSE), "")</f>
         <v/>
       </c>
-      <c r="J21" s="84" t="str">
+      <c r="J21" s="81" t="str">
         <f>IFERROR((B21/100) * VLOOKUP(A21, Ingrediensdatabase!A:J, 9, FALSE), "")</f>
         <v/>
       </c>
-      <c r="K21" s="84" t="str">
+      <c r="K21" s="81" t="str">
         <f>IFERROR((B21/100) * VLOOKUP(A21, Ingrediensdatabase!A:K, 10, FALSE), "")</f>
         <v/>
       </c>
       <c r="L21" s="4"/>
     </row>
     <row r="22" spans="1:12" ht="14.25">
-      <c r="A22" s="83"/>
-      <c r="B22" s="84"/>
-      <c r="C22" s="84" t="str">
+      <c r="A22" s="80"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="81" t="str">
         <f>IFERROR((B22/100) * VLOOKUP(A22, Ingrediensdatabase!A:J, 2, FALSE), "")</f>
         <v/>
       </c>
-      <c r="D22" s="84" t="str">
+      <c r="D22" s="81" t="str">
         <f>IFERROR((B22/100) * VLOOKUP(A22, Ingrediensdatabase!A:J, 3, FALSE), "")</f>
         <v/>
       </c>
-      <c r="E22" s="84" t="str">
+      <c r="E22" s="81" t="str">
         <f>IFERROR((B22/100) * VLOOKUP(A22, Ingrediensdatabase!A:J, 4, FALSE), "")</f>
         <v/>
       </c>
-      <c r="F22" s="84" t="str">
+      <c r="F22" s="81" t="str">
         <f>IFERROR((B22/100) * VLOOKUP(A22, Ingrediensdatabase!A:J, 5, FALSE), "")</f>
         <v/>
       </c>
-      <c r="G22" s="84" t="str">
+      <c r="G22" s="81" t="str">
         <f>IFERROR((B22/100) * VLOOKUP(A22, Ingrediensdatabase!A:J, 6, FALSE), "")</f>
         <v/>
       </c>
-      <c r="H22" s="84" t="str">
+      <c r="H22" s="81" t="str">
         <f>IFERROR((B22/100) * VLOOKUP(A22, Ingrediensdatabase!A:J, 7, FALSE), "")</f>
         <v/>
       </c>
-      <c r="I22" s="84" t="str">
+      <c r="I22" s="81" t="str">
         <f>IFERROR((B22/100) * VLOOKUP(A22, Ingrediensdatabase!A:J, 8, FALSE), "")</f>
         <v/>
       </c>
-      <c r="J22" s="84" t="str">
+      <c r="J22" s="81" t="str">
         <f>IFERROR((B22/100) * VLOOKUP(A22, Ingrediensdatabase!A:J, 9, FALSE), "")</f>
         <v/>
       </c>
-      <c r="K22" s="84" t="str">
+      <c r="K22" s="81" t="str">
         <f>IFERROR((B22/100) * VLOOKUP(A22, Ingrediensdatabase!A:K, 10, FALSE), "")</f>
         <v/>
       </c>
       <c r="L22" s="4"/>
     </row>
     <row r="23" spans="1:12" ht="14.25">
-      <c r="A23" s="83"/>
-      <c r="B23" s="84"/>
-      <c r="C23" s="84" t="str">
+      <c r="A23" s="80"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="81" t="str">
         <f>IFERROR((B23/100) * VLOOKUP(A23, Ingrediensdatabase!A:J, 2, FALSE), "")</f>
         <v/>
       </c>
-      <c r="D23" s="84" t="str">
+      <c r="D23" s="81" t="str">
         <f>IFERROR((B23/100) * VLOOKUP(A23, Ingrediensdatabase!A:J, 3, FALSE), "")</f>
         <v/>
       </c>
-      <c r="E23" s="84" t="str">
+      <c r="E23" s="81" t="str">
         <f>IFERROR((B23/100) * VLOOKUP(A23, Ingrediensdatabase!A:J, 4, FALSE), "")</f>
         <v/>
       </c>
-      <c r="F23" s="84" t="str">
+      <c r="F23" s="81" t="str">
         <f>IFERROR((B23/100) * VLOOKUP(A23, Ingrediensdatabase!A:J, 5, FALSE), "")</f>
         <v/>
       </c>
-      <c r="G23" s="84" t="str">
+      <c r="G23" s="81" t="str">
         <f>IFERROR((B23/100) * VLOOKUP(A23, Ingrediensdatabase!A:J, 6, FALSE), "")</f>
         <v/>
       </c>
-      <c r="H23" s="84" t="str">
+      <c r="H23" s="81" t="str">
         <f>IFERROR((B23/100) * VLOOKUP(A23, Ingrediensdatabase!A:J, 7, FALSE), "")</f>
         <v/>
       </c>
-      <c r="I23" s="84" t="str">
+      <c r="I23" s="81" t="str">
         <f>IFERROR((B23/100) * VLOOKUP(A23, Ingrediensdatabase!A:J, 8, FALSE), "")</f>
         <v/>
       </c>
-      <c r="J23" s="84" t="str">
+      <c r="J23" s="81" t="str">
         <f>IFERROR((B23/100) * VLOOKUP(A23, Ingrediensdatabase!A:J, 9, FALSE), "")</f>
         <v/>
       </c>
-      <c r="K23" s="84" t="str">
+      <c r="K23" s="81" t="str">
         <f>IFERROR((B23/100) * VLOOKUP(A23, Ingrediensdatabase!A:K, 10, FALSE), "")</f>
         <v/>
       </c>
       <c r="L23" s="4"/>
     </row>
     <row r="24" spans="1:12" ht="14.25">
-      <c r="A24" s="83"/>
-      <c r="B24" s="84"/>
-      <c r="C24" s="84" t="str">
+      <c r="A24" s="80"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="81" t="str">
         <f>IFERROR((B24/100) * VLOOKUP(A24, Ingrediensdatabase!A:J, 2, FALSE), "")</f>
         <v/>
       </c>
-      <c r="D24" s="84" t="str">
+      <c r="D24" s="81" t="str">
         <f>IFERROR((B24/100) * VLOOKUP(A24, Ingrediensdatabase!A:J, 3, FALSE), "")</f>
         <v/>
       </c>
-      <c r="E24" s="84" t="str">
+      <c r="E24" s="81" t="str">
         <f>IFERROR((B24/100) * VLOOKUP(A24, Ingrediensdatabase!A:J, 4, FALSE), "")</f>
         <v/>
       </c>
-      <c r="F24" s="84" t="str">
+      <c r="F24" s="81" t="str">
         <f>IFERROR((B24/100) * VLOOKUP(A24, Ingrediensdatabase!A:J, 5, FALSE), "")</f>
         <v/>
       </c>
-      <c r="G24" s="84" t="str">
+      <c r="G24" s="81" t="str">
         <f>IFERROR((B24/100) * VLOOKUP(A24, Ingrediensdatabase!A:J, 6, FALSE), "")</f>
         <v/>
       </c>
-      <c r="H24" s="84" t="str">
+      <c r="H24" s="81" t="str">
         <f>IFERROR((B24/100) * VLOOKUP(A24, Ingrediensdatabase!A:J, 7, FALSE), "")</f>
         <v/>
       </c>
-      <c r="I24" s="84" t="str">
+      <c r="I24" s="81" t="str">
         <f>IFERROR((B24/100) * VLOOKUP(A24, Ingrediensdatabase!A:J, 8, FALSE), "")</f>
         <v/>
       </c>
-      <c r="J24" s="84" t="str">
+      <c r="J24" s="81" t="str">
         <f>IFERROR((B24/100) * VLOOKUP(A24, Ingrediensdatabase!A:J, 9, FALSE), "")</f>
         <v/>
       </c>
-      <c r="K24" s="84" t="str">
+      <c r="K24" s="81" t="str">
         <f>IFERROR((B24/100) * VLOOKUP(A24, Ingrediensdatabase!A:K, 10, FALSE), "")</f>
         <v/>
       </c>
       <c r="L24" s="4"/>
     </row>
     <row r="25" spans="1:12" ht="14.25">
-      <c r="A25" s="83"/>
-      <c r="B25" s="84"/>
-      <c r="C25" s="84" t="str">
+      <c r="A25" s="80"/>
+      <c r="B25" s="81"/>
+      <c r="C25" s="81" t="str">
         <f>IFERROR((B25/100) * VLOOKUP(A25, Ingrediensdatabase!A:J, 2, FALSE), "")</f>
         <v/>
       </c>
-      <c r="D25" s="84" t="str">
+      <c r="D25" s="81" t="str">
         <f>IFERROR((B25/100) * VLOOKUP(A25, Ingrediensdatabase!A:J, 3, FALSE), "")</f>
         <v/>
       </c>
-      <c r="E25" s="84" t="str">
+      <c r="E25" s="81" t="str">
         <f>IFERROR((B25/100) * VLOOKUP(A25, Ingrediensdatabase!A:J, 4, FALSE), "")</f>
         <v/>
       </c>
-      <c r="F25" s="84" t="str">
+      <c r="F25" s="81" t="str">
         <f>IFERROR((B25/100) * VLOOKUP(A25, Ingrediensdatabase!A:J, 5, FALSE), "")</f>
         <v/>
       </c>
-      <c r="G25" s="84" t="str">
+      <c r="G25" s="81" t="str">
         <f>IFERROR((B25/100) * VLOOKUP(A25, Ingrediensdatabase!A:J, 6, FALSE), "")</f>
         <v/>
       </c>
-      <c r="H25" s="84" t="str">
+      <c r="H25" s="81" t="str">
         <f>IFERROR((B25/100) * VLOOKUP(A25, Ingrediensdatabase!A:J, 7, FALSE), "")</f>
         <v/>
       </c>
-      <c r="I25" s="84" t="str">
+      <c r="I25" s="81" t="str">
         <f>IFERROR((B25/100) * VLOOKUP(A25, Ingrediensdatabase!A:J, 8, FALSE), "")</f>
         <v/>
       </c>
-      <c r="J25" s="84" t="str">
+      <c r="J25" s="81" t="str">
         <f>IFERROR((B25/100) * VLOOKUP(A25, Ingrediensdatabase!A:J, 9, FALSE), "")</f>
         <v/>
       </c>
-      <c r="K25" s="84" t="str">
+      <c r="K25" s="81" t="str">
         <f>IFERROR((B25/100) * VLOOKUP(A25, Ingrediensdatabase!A:K, 10, FALSE), "")</f>
         <v/>
       </c>
       <c r="L25" s="4"/>
     </row>
     <row r="26" spans="1:12" ht="14.25">
-      <c r="A26" s="83"/>
-      <c r="B26" s="84"/>
-      <c r="C26" s="84" t="str">
+      <c r="A26" s="80"/>
+      <c r="B26" s="81"/>
+      <c r="C26" s="81" t="str">
         <f>IFERROR((B26/100) * VLOOKUP(A26, Ingrediensdatabase!A:J, 2, FALSE), "")</f>
         <v/>
       </c>
-      <c r="D26" s="84" t="str">
+      <c r="D26" s="81" t="str">
         <f>IFERROR((B26/100) * VLOOKUP(A26, Ingrediensdatabase!A:J, 3, FALSE), "")</f>
         <v/>
       </c>
-      <c r="E26" s="84" t="str">
+      <c r="E26" s="81" t="str">
         <f>IFERROR((B26/100) * VLOOKUP(A26, Ingrediensdatabase!A:J, 4, FALSE), "")</f>
         <v/>
       </c>
-      <c r="F26" s="84" t="str">
+      <c r="F26" s="81" t="str">
         <f>IFERROR((B26/100) * VLOOKUP(A26, Ingrediensdatabase!A:J, 5, FALSE), "")</f>
         <v/>
       </c>
-      <c r="G26" s="84" t="str">
+      <c r="G26" s="81" t="str">
         <f>IFERROR((B26/100) * VLOOKUP(A26, Ingrediensdatabase!A:J, 6, FALSE), "")</f>
         <v/>
       </c>
-      <c r="H26" s="84" t="str">
+      <c r="H26" s="81" t="str">
         <f>IFERROR((B26/100) * VLOOKUP(A26, Ingrediensdatabase!A:J, 7, FALSE), "")</f>
         <v/>
       </c>
-      <c r="I26" s="84" t="str">
+      <c r="I26" s="81" t="str">
         <f>IFERROR((B26/100) * VLOOKUP(A26, Ingrediensdatabase!A:J, 8, FALSE), "")</f>
         <v/>
       </c>
-      <c r="J26" s="84" t="str">
+      <c r="J26" s="81" t="str">
         <f>IFERROR((B26/100) * VLOOKUP(A26, Ingrediensdatabase!A:J, 9, FALSE), "")</f>
         <v/>
       </c>
-      <c r="K26" s="84" t="str">
+      <c r="K26" s="81" t="str">
         <f>IFERROR((B26/100) * VLOOKUP(A26, Ingrediensdatabase!A:K, 10, FALSE), "")</f>
         <v/>
       </c>
       <c r="L26" s="4"/>
     </row>
     <row r="27" spans="1:12" ht="27" customHeight="1">
-      <c r="A27" s="83"/>
-      <c r="B27" s="84"/>
-      <c r="C27" s="84" t="str">
+      <c r="A27" s="80"/>
+      <c r="B27" s="81"/>
+      <c r="C27" s="81" t="str">
         <f>IFERROR((B27/100) * VLOOKUP(A27, Ingrediensdatabase!A:J, 2, FALSE), "")</f>
         <v/>
       </c>
-      <c r="D27" s="84" t="str">
+      <c r="D27" s="81" t="str">
         <f>IFERROR((B27/100) * VLOOKUP(A27, Ingrediensdatabase!A:J, 3, FALSE), "")</f>
         <v/>
       </c>
-      <c r="E27" s="84" t="str">
+      <c r="E27" s="81" t="str">
         <f>IFERROR((B27/100) * VLOOKUP(A27, Ingrediensdatabase!A:J, 4, FALSE), "")</f>
         <v/>
       </c>
-      <c r="F27" s="84" t="str">
+      <c r="F27" s="81" t="str">
         <f>IFERROR((B27/100) * VLOOKUP(A27, Ingrediensdatabase!A:J, 5, FALSE), "")</f>
         <v/>
       </c>
-      <c r="G27" s="84" t="str">
+      <c r="G27" s="81" t="str">
         <f>IFERROR((B27/100) * VLOOKUP(A27, Ingrediensdatabase!A:J, 6, FALSE), "")</f>
         <v/>
       </c>
-      <c r="H27" s="84" t="str">
+      <c r="H27" s="81" t="str">
         <f>IFERROR((B27/100) * VLOOKUP(A27, Ingrediensdatabase!A:J, 7, FALSE), "")</f>
         <v/>
       </c>
-      <c r="I27" s="84" t="str">
+      <c r="I27" s="81" t="str">
         <f>IFERROR((B27/100) * VLOOKUP(A27, Ingrediensdatabase!A:J, 8, FALSE), "")</f>
         <v/>
       </c>
-      <c r="J27" s="84" t="str">
+      <c r="J27" s="81" t="str">
         <f>IFERROR((B27/100) * VLOOKUP(A27, Ingrediensdatabase!A:J, 9, FALSE), "")</f>
         <v/>
       </c>
-      <c r="K27" s="84" t="str">
+      <c r="K27" s="81" t="str">
         <f>IFERROR((B27/100) * VLOOKUP(A27, Ingrediensdatabase!A:K, 10, FALSE), "")</f>
         <v/>
       </c>
       <c r="L27" s="4"/>
     </row>
     <row r="28" spans="1:12" ht="24" customHeight="1">
-      <c r="A28" s="83"/>
-      <c r="B28" s="84"/>
-      <c r="C28" s="84" t="str">
+      <c r="A28" s="80"/>
+      <c r="B28" s="81"/>
+      <c r="C28" s="81" t="str">
         <f>IFERROR((B28/100) * VLOOKUP(A28, Ingrediensdatabase!A:J, 2, FALSE), "")</f>
         <v/>
       </c>
-      <c r="D28" s="84" t="str">
+      <c r="D28" s="81" t="str">
         <f>IFERROR((B28/100) * VLOOKUP(A28, Ingrediensdatabase!A:J, 3, FALSE), "")</f>
         <v/>
       </c>
-      <c r="E28" s="84" t="str">
+      <c r="E28" s="81" t="str">
         <f>IFERROR((B28/100) * VLOOKUP(A28, Ingrediensdatabase!A:J, 4, FALSE), "")</f>
         <v/>
       </c>
-      <c r="F28" s="84" t="str">
+      <c r="F28" s="81" t="str">
         <f>IFERROR((B28/100) * VLOOKUP(A28, Ingrediensdatabase!A:J, 5, FALSE), "")</f>
         <v/>
       </c>
-      <c r="G28" s="84" t="str">
+      <c r="G28" s="81" t="str">
         <f>IFERROR((B28/100) * VLOOKUP(A28, Ingrediensdatabase!A:J, 6, FALSE), "")</f>
         <v/>
       </c>
-      <c r="H28" s="84" t="str">
+      <c r="H28" s="81" t="str">
         <f>IFERROR((B28/100) * VLOOKUP(A28, Ingrediensdatabase!A:J, 7, FALSE), "")</f>
         <v/>
       </c>
-      <c r="I28" s="84" t="str">
+      <c r="I28" s="81" t="str">
         <f>IFERROR((B28/100) * VLOOKUP(A28, Ingrediensdatabase!A:J, 8, FALSE), "")</f>
         <v/>
       </c>
-      <c r="J28" s="84" t="str">
+      <c r="J28" s="81" t="str">
         <f>IFERROR((B28/100) * VLOOKUP(A28, Ingrediensdatabase!A:J, 9, FALSE), "")</f>
         <v/>
       </c>
-      <c r="K28" s="84" t="str">
+      <c r="K28" s="81" t="str">
         <f>IFERROR((B28/100) * VLOOKUP(A28, Ingrediensdatabase!A:K, 10, FALSE), "")</f>
         <v/>
       </c>
       <c r="L28" s="4"/>
     </row>
     <row r="29" spans="1:12" ht="24" customHeight="1">
-      <c r="A29" s="83"/>
-      <c r="B29" s="84"/>
-      <c r="C29" s="84" t="str">
+      <c r="A29" s="80"/>
+      <c r="B29" s="81"/>
+      <c r="C29" s="81" t="str">
         <f>IFERROR((B29/100) * VLOOKUP(A29, Ingrediensdatabase!A:J, 2, FALSE), "")</f>
         <v/>
       </c>
-      <c r="D29" s="84" t="str">
+      <c r="D29" s="81" t="str">
         <f>IFERROR((B29/100) * VLOOKUP(A29, Ingrediensdatabase!A:J, 3, FALSE), "")</f>
         <v/>
       </c>
-      <c r="E29" s="84" t="str">
+      <c r="E29" s="81" t="str">
         <f>IFERROR((B29/100) * VLOOKUP(A29, Ingrediensdatabase!A:J, 4, FALSE), "")</f>
         <v/>
       </c>
-      <c r="F29" s="84" t="str">
+      <c r="F29" s="81" t="str">
         <f>IFERROR((B29/100) * VLOOKUP(A29, Ingrediensdatabase!A:J, 5, FALSE), "")</f>
         <v/>
       </c>
-      <c r="G29" s="84" t="str">
+      <c r="G29" s="81" t="str">
         <f>IFERROR((B29/100) * VLOOKUP(A29, Ingrediensdatabase!A:J, 6, FALSE), "")</f>
         <v/>
       </c>
-      <c r="H29" s="84" t="str">
+      <c r="H29" s="81" t="str">
         <f>IFERROR((B29/100) * VLOOKUP(A29, Ingrediensdatabase!A:J, 7, FALSE), "")</f>
         <v/>
       </c>
-      <c r="I29" s="84" t="str">
+      <c r="I29" s="81" t="str">
         <f>IFERROR((B29/100) * VLOOKUP(A29, Ingrediensdatabase!A:J, 8, FALSE), "")</f>
         <v/>
       </c>
-      <c r="J29" s="84" t="str">
+      <c r="J29" s="81" t="str">
         <f>IFERROR((B29/100) * VLOOKUP(A29, Ingrediensdatabase!A:J, 9, FALSE), "")</f>
         <v/>
       </c>
-      <c r="K29" s="84" t="str">
+      <c r="K29" s="81" t="str">
         <f>IFERROR((B29/100) * VLOOKUP(A29, Ingrediensdatabase!A:K, 10, FALSE), "")</f>
         <v/>
       </c>
       <c r="L29" s="4"/>
     </row>
     <row r="30" spans="1:12" ht="24" customHeight="1">
-      <c r="A30" s="83"/>
-      <c r="B30" s="84"/>
-      <c r="C30" s="84" t="str">
+      <c r="A30" s="80"/>
+      <c r="B30" s="81"/>
+      <c r="C30" s="81" t="str">
         <f>IFERROR((B30/100) * VLOOKUP(A30, Ingrediensdatabase!A:J, 2, FALSE), "")</f>
         <v/>
       </c>
-      <c r="D30" s="84" t="str">
+      <c r="D30" s="81" t="str">
         <f>IFERROR((B30/100) * VLOOKUP(A30, Ingrediensdatabase!A:J, 3, FALSE), "")</f>
         <v/>
       </c>
-      <c r="E30" s="84" t="str">
+      <c r="E30" s="81" t="str">
         <f>IFERROR((B30/100) * VLOOKUP(A30, Ingrediensdatabase!A:J, 4, FALSE), "")</f>
         <v/>
       </c>
-      <c r="F30" s="84" t="str">
+      <c r="F30" s="81" t="str">
         <f>IFERROR((B30/100) * VLOOKUP(A30, Ingrediensdatabase!A:J, 5, FALSE), "")</f>
         <v/>
       </c>
-      <c r="G30" s="84" t="str">
+      <c r="G30" s="81" t="str">
         <f>IFERROR((B30/100) * VLOOKUP(A30, Ingrediensdatabase!A:J, 6, FALSE), "")</f>
         <v/>
       </c>
-      <c r="H30" s="84" t="str">
+      <c r="H30" s="81" t="str">
         <f>IFERROR((B30/100) * VLOOKUP(A30, Ingrediensdatabase!A:J, 7, FALSE), "")</f>
         <v/>
       </c>
-      <c r="I30" s="84" t="str">
+      <c r="I30" s="81" t="str">
         <f>IFERROR((B30/100) * VLOOKUP(A30, Ingrediensdatabase!A:J, 8, FALSE), "")</f>
         <v/>
       </c>
-      <c r="J30" s="84" t="str">
+      <c r="J30" s="81" t="str">
         <f>IFERROR((B30/100) * VLOOKUP(A30, Ingrediensdatabase!A:J, 9, FALSE), "")</f>
         <v/>
       </c>
-      <c r="K30" s="84" t="str">
+      <c r="K30" s="81" t="str">
         <f>IFERROR((B30/100) * VLOOKUP(A30, Ingrediensdatabase!A:K, 10, FALSE), "")</f>
         <v/>
       </c>
@@ -21020,120 +21057,120 @@
     </row>
     <row r="31" spans="1:12" ht="24" customHeight="1">
       <c r="A31" s="19"/>
-      <c r="B31" s="85" t="s">
+      <c r="B31" s="82" t="s">
+        <v>637</v>
+      </c>
+      <c r="C31" s="82" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="82" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" s="82" t="s">
+        <v>61</v>
+      </c>
+      <c r="F31" s="82" t="s">
+        <v>62</v>
+      </c>
+      <c r="G31" s="82" t="s">
+        <v>63</v>
+      </c>
+      <c r="H31" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="I31" s="82" t="s">
         <v>638</v>
       </c>
-      <c r="C31" s="85" t="s">
-        <v>59</v>
-      </c>
-      <c r="D31" s="85" t="s">
-        <v>60</v>
-      </c>
-      <c r="E31" s="85" t="s">
-        <v>61</v>
-      </c>
-      <c r="F31" s="85" t="s">
-        <v>62</v>
-      </c>
-      <c r="G31" s="85" t="s">
-        <v>63</v>
-      </c>
-      <c r="H31" s="85" t="s">
-        <v>64</v>
-      </c>
-      <c r="I31" s="85" t="s">
+      <c r="J31" s="82" t="s">
         <v>639</v>
       </c>
-      <c r="J31" s="85" t="s">
+      <c r="K31" s="82" t="s">
         <v>640</v>
       </c>
-      <c r="K31" s="85" t="s">
+      <c r="L31" s="4"/>
+    </row>
+    <row r="32" spans="1:12" ht="24" customHeight="1">
+      <c r="A32" s="83" t="s">
         <v>641</v>
       </c>
-      <c r="L31" s="4"/>
-    </row>
-    <row r="32" spans="1:12" ht="24" customHeight="1">
-      <c r="A32" s="86" t="s">
-        <v>642</v>
-      </c>
-      <c r="B32" s="87">
+      <c r="B32" s="84">
         <f t="shared" ref="B32:K32" si="0">SUM(B11:B31)</f>
         <v>705</v>
       </c>
-      <c r="C32" s="87">
+      <c r="C32" s="84">
         <f t="shared" si="0"/>
         <v>642.09999999999991</v>
       </c>
-      <c r="D32" s="87">
+      <c r="D32" s="84">
         <f t="shared" si="0"/>
         <v>17.274999999999999</v>
       </c>
-      <c r="E32" s="87">
+      <c r="E32" s="84">
         <f t="shared" si="0"/>
         <v>111.82000000000001</v>
       </c>
-      <c r="F32" s="87">
+      <c r="F32" s="84">
         <f t="shared" si="0"/>
         <v>65.16</v>
       </c>
-      <c r="G32" s="87">
+      <c r="G32" s="84">
         <f t="shared" si="0"/>
         <v>28.455000000000002</v>
       </c>
-      <c r="H32" s="87">
+      <c r="H32" s="84">
         <f t="shared" si="0"/>
         <v>1.5309999999999999</v>
       </c>
-      <c r="I32" s="87">
+      <c r="I32" s="84">
         <f t="shared" si="0"/>
         <v>192.87</v>
       </c>
-      <c r="J32" s="87">
+      <c r="J32" s="84">
         <f t="shared" si="0"/>
         <v>140.27500000000001</v>
       </c>
-      <c r="K32" s="87">
+      <c r="K32" s="84">
         <f t="shared" si="0"/>
         <v>15.6</v>
       </c>
       <c r="L32" s="4"/>
     </row>
     <row r="33" spans="1:12" ht="24" customHeight="1">
-      <c r="A33" s="88" t="s">
-        <v>643</v>
-      </c>
-      <c r="B33" s="89">
+      <c r="A33" s="85" t="s">
+        <v>642</v>
+      </c>
+      <c r="B33" s="86">
         <f>IFERROR(((I32-K32)/B32)*100, "Indtast Opskrift")</f>
         <v>25.144680851063832</v>
       </c>
-      <c r="C33" s="89"/>
-      <c r="D33" s="89"/>
-      <c r="E33" s="89"/>
-      <c r="F33" s="89"/>
-      <c r="G33" s="89"/>
-      <c r="H33" s="89"/>
-      <c r="I33" s="89"/>
-      <c r="J33" s="89"/>
-      <c r="K33" s="89"/>
+      <c r="C33" s="86"/>
+      <c r="D33" s="86"/>
+      <c r="E33" s="86"/>
+      <c r="F33" s="86"/>
+      <c r="G33" s="86"/>
+      <c r="H33" s="86"/>
+      <c r="I33" s="86"/>
+      <c r="J33" s="86"/>
+      <c r="K33" s="86"/>
       <c r="L33" s="4"/>
     </row>
     <row r="34" spans="1:12" ht="24" customHeight="1">
-      <c r="A34" s="90" t="s">
-        <v>644</v>
-      </c>
-      <c r="B34" s="84">
+      <c r="A34" s="87" t="s">
+        <v>643</v>
+      </c>
+      <c r="B34" s="81">
         <f>IFERROR((J32/B32)*100, "")</f>
         <v>19.897163120567377</v>
       </c>
-      <c r="C34" s="91"/>
-      <c r="D34" s="91"/>
-      <c r="E34" s="91"/>
-      <c r="F34" s="91"/>
-      <c r="G34" s="91"/>
-      <c r="H34" s="91"/>
-      <c r="I34" s="91"/>
-      <c r="J34" s="91"/>
-      <c r="K34" s="91"/>
+      <c r="C34" s="88"/>
+      <c r="D34" s="88"/>
+      <c r="E34" s="88"/>
+      <c r="F34" s="88"/>
+      <c r="G34" s="88"/>
+      <c r="H34" s="88"/>
+      <c r="I34" s="88"/>
+      <c r="J34" s="88"/>
+      <c r="K34" s="88"/>
       <c r="L34" s="4"/>
     </row>
     <row r="35" spans="1:12" ht="24" customHeight="1">
@@ -21188,18 +21225,18 @@
       <c r="B1" s="128"/>
       <c r="C1" s="128"/>
       <c r="D1" s="128"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="93"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="90"/>
     </row>
     <row r="2" spans="1:12" ht="12.75">
       <c r="A2" s="133" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B2" s="128"/>
       <c r="C2" s="128"/>
@@ -21208,44 +21245,44 @@
       <c r="F2" s="128"/>
       <c r="G2" s="128"/>
       <c r="H2" s="128"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="93"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="90"/>
     </row>
     <row r="3" spans="1:12" ht="12.75">
-      <c r="A3" s="92"/>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="93"/>
+      <c r="A3" s="89"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="90"/>
     </row>
     <row r="4" spans="1:12" ht="28.5">
       <c r="A4" s="135" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B4" s="128"/>
       <c r="C4" s="128"/>
       <c r="D4" s="128"/>
       <c r="E4" s="128"/>
       <c r="F4" s="128"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="93"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="90"/>
     </row>
     <row r="5" spans="1:12" ht="12.75">
       <c r="A5" s="133" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B5" s="128"/>
       <c r="C5" s="128"/>
@@ -21254,14 +21291,14 @@
       <c r="F5" s="128"/>
       <c r="G5" s="128"/>
       <c r="H5" s="128"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="92"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="93"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="90"/>
     </row>
     <row r="6" spans="1:12" ht="14.25">
       <c r="A6" s="136" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B6" s="128"/>
       <c r="C6" s="128"/>
@@ -21270,44 +21307,44 @@
       <c r="F6" s="128"/>
       <c r="G6" s="128"/>
       <c r="H6" s="128"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="93"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="90"/>
     </row>
     <row r="7" spans="1:12" ht="12.75">
-      <c r="A7" s="92"/>
-      <c r="B7" s="92"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="92"/>
-      <c r="L7" s="93"/>
+      <c r="A7" s="89"/>
+      <c r="B7" s="89"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="89"/>
+      <c r="L7" s="90"/>
     </row>
     <row r="8" spans="1:12" ht="28.5">
       <c r="A8" s="135" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B8" s="128"/>
-      <c r="C8" s="92"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="92"/>
-      <c r="I8" s="92"/>
-      <c r="J8" s="92"/>
-      <c r="K8" s="92"/>
-      <c r="L8" s="93"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="90"/>
     </row>
     <row r="9" spans="1:12" ht="12.75">
       <c r="A9" s="133" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B9" s="128"/>
       <c r="C9" s="128"/>
@@ -21316,14 +21353,14 @@
       <c r="F9" s="128"/>
       <c r="G9" s="128"/>
       <c r="H9" s="128"/>
-      <c r="I9" s="92"/>
-      <c r="J9" s="92"/>
-      <c r="K9" s="92"/>
-      <c r="L9" s="93"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="90"/>
     </row>
     <row r="10" spans="1:12" ht="12.75">
       <c r="A10" s="133" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B10" s="128"/>
       <c r="C10" s="128"/>
@@ -21332,14 +21369,14 @@
       <c r="F10" s="128"/>
       <c r="G10" s="128"/>
       <c r="H10" s="128"/>
-      <c r="I10" s="92"/>
-      <c r="J10" s="92"/>
-      <c r="K10" s="92"/>
-      <c r="L10" s="93"/>
+      <c r="I10" s="89"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="89"/>
+      <c r="L10" s="90"/>
     </row>
     <row r="11" spans="1:12" ht="12.75">
       <c r="A11" s="133" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B11" s="128"/>
       <c r="C11" s="128"/>
@@ -21348,44 +21385,44 @@
       <c r="F11" s="128"/>
       <c r="G11" s="128"/>
       <c r="H11" s="128"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="92"/>
-      <c r="L11" s="93"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="89"/>
+      <c r="L11" s="90"/>
     </row>
     <row r="12" spans="1:12" ht="12.75">
-      <c r="A12" s="92"/>
-      <c r="B12" s="92"/>
-      <c r="C12" s="92"/>
-      <c r="D12" s="92"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="92"/>
-      <c r="G12" s="92"/>
-      <c r="H12" s="95"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="95"/>
-      <c r="K12" s="95"/>
-      <c r="L12" s="96"/>
+      <c r="A12" s="89"/>
+      <c r="B12" s="89"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="89"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="92"/>
+      <c r="J12" s="92"/>
+      <c r="K12" s="92"/>
+      <c r="L12" s="93"/>
     </row>
     <row r="13" spans="1:12" ht="28.5">
       <c r="A13" s="135" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B13" s="128"/>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="97"/>
-      <c r="I13" s="97"/>
-      <c r="J13" s="97"/>
-      <c r="K13" s="97"/>
-      <c r="L13" s="98"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="94"/>
+      <c r="L13" s="95"/>
     </row>
     <row r="14" spans="1:12" ht="12.75">
       <c r="A14" s="133" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B14" s="128"/>
       <c r="C14" s="128"/>
@@ -21394,44 +21431,44 @@
       <c r="F14" s="128"/>
       <c r="G14" s="128"/>
       <c r="H14" s="128"/>
-      <c r="I14" s="92"/>
-      <c r="J14" s="92"/>
-      <c r="K14" s="92"/>
-      <c r="L14" s="93"/>
+      <c r="I14" s="89"/>
+      <c r="J14" s="89"/>
+      <c r="K14" s="89"/>
+      <c r="L14" s="90"/>
     </row>
     <row r="15" spans="1:12" ht="12.75">
-      <c r="A15" s="92"/>
-      <c r="B15" s="92"/>
-      <c r="C15" s="92"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="92"/>
-      <c r="J15" s="92"/>
-      <c r="K15" s="92"/>
-      <c r="L15" s="93"/>
+      <c r="A15" s="89"/>
+      <c r="B15" s="89"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="89"/>
+      <c r="H15" s="89"/>
+      <c r="I15" s="89"/>
+      <c r="J15" s="89"/>
+      <c r="K15" s="89"/>
+      <c r="L15" s="90"/>
     </row>
     <row r="16" spans="1:12" ht="28.5">
       <c r="A16" s="135" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B16" s="128"/>
       <c r="C16" s="128"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="92"/>
-      <c r="J16" s="92"/>
-      <c r="K16" s="92"/>
-      <c r="L16" s="93"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="89"/>
+      <c r="J16" s="89"/>
+      <c r="K16" s="89"/>
+      <c r="L16" s="90"/>
     </row>
     <row r="17" spans="1:12" ht="12.75">
       <c r="A17" s="133" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B17" s="128"/>
       <c r="C17" s="128"/>
@@ -21440,28 +21477,28 @@
       <c r="F17" s="128"/>
       <c r="G17" s="128"/>
       <c r="H17" s="128"/>
-      <c r="I17" s="92"/>
-      <c r="J17" s="92"/>
-      <c r="K17" s="92"/>
-      <c r="L17" s="93"/>
+      <c r="I17" s="89"/>
+      <c r="J17" s="89"/>
+      <c r="K17" s="89"/>
+      <c r="L17" s="90"/>
     </row>
     <row r="18" spans="1:12" ht="14.25">
-      <c r="A18" s="94"/>
-      <c r="B18" s="94"/>
-      <c r="C18" s="94"/>
-      <c r="D18" s="94"/>
-      <c r="E18" s="94"/>
-      <c r="F18" s="94"/>
-      <c r="G18" s="92"/>
-      <c r="H18" s="92"/>
-      <c r="I18" s="92"/>
-      <c r="J18" s="92"/>
-      <c r="K18" s="92"/>
-      <c r="L18" s="93"/>
+      <c r="A18" s="91"/>
+      <c r="B18" s="91"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="89"/>
+      <c r="J18" s="89"/>
+      <c r="K18" s="89"/>
+      <c r="L18" s="90"/>
     </row>
     <row r="19" spans="1:12" ht="12.75">
       <c r="A19" s="133" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B19" s="128"/>
       <c r="C19" s="128"/>
@@ -21470,10 +21507,10 @@
       <c r="F19" s="128"/>
       <c r="G19" s="128"/>
       <c r="H19" s="128"/>
-      <c r="I19" s="92"/>
-      <c r="J19" s="92"/>
-      <c r="K19" s="92"/>
-      <c r="L19" s="93"/>
+      <c r="I19" s="89"/>
+      <c r="J19" s="89"/>
+      <c r="K19" s="89"/>
+      <c r="L19" s="90"/>
     </row>
     <row r="20" spans="1:12" ht="14.25">
       <c r="A20" s="3"/>
@@ -21490,382 +21527,382 @@
       <c r="L20" s="4"/>
     </row>
     <row r="21" spans="1:12" ht="12.75">
-      <c r="A21" s="99" t="s">
+      <c r="A21" s="96" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="99" t="s">
+      <c r="B21" s="96" t="s">
+        <v>637</v>
+      </c>
+      <c r="C21" s="96" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="96" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="96" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="96" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="96" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="96" t="s">
+        <v>64</v>
+      </c>
+      <c r="I21" s="96" t="s">
         <v>638</v>
       </c>
-      <c r="C21" s="99" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="99" t="s">
-        <v>60</v>
-      </c>
-      <c r="E21" s="99" t="s">
-        <v>61</v>
-      </c>
-      <c r="F21" s="99" t="s">
-        <v>62</v>
-      </c>
-      <c r="G21" s="99" t="s">
-        <v>63</v>
-      </c>
-      <c r="H21" s="99" t="s">
-        <v>64</v>
-      </c>
-      <c r="I21" s="99" t="s">
+      <c r="J21" s="96" t="s">
         <v>639</v>
       </c>
-      <c r="J21" s="99" t="s">
+      <c r="K21" s="96" t="s">
         <v>640</v>
       </c>
-      <c r="K21" s="99" t="s">
-        <v>641</v>
-      </c>
       <c r="L21" s="4"/>
     </row>
     <row r="22" spans="1:12" ht="12.75">
-      <c r="A22" s="100" t="s">
+      <c r="A22" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="101">
+      <c r="B22" s="98">
         <v>100</v>
       </c>
-      <c r="C22" s="101">
+      <c r="C22" s="98">
         <f>IFERROR((B22/100) * VLOOKUP(A22, Ingrediensdatabase!A:J, 2, FALSE), "")</f>
         <v>0</v>
       </c>
-      <c r="D22" s="101">
+      <c r="D22" s="98">
         <f>IFERROR((B22/100) * VLOOKUP(A22, Ingrediensdatabase!A:J, 3, FALSE), "")</f>
         <v>0</v>
       </c>
-      <c r="E22" s="101">
+      <c r="E22" s="98">
         <f>IFERROR((B22/100) * VLOOKUP(A22, Ingrediensdatabase!A:J, 4, FALSE), "")</f>
         <v>100</v>
       </c>
-      <c r="F22" s="101">
+      <c r="F22" s="98">
         <f>IFERROR((B22/100) * VLOOKUP(A22, Ingrediensdatabase!A:J, 5, FALSE), "")</f>
         <v>0</v>
       </c>
-      <c r="G22" s="101">
+      <c r="G22" s="98">
         <f>IFERROR((B22/100) * VLOOKUP(A22, Ingrediensdatabase!A:J, 6, FALSE), "")</f>
         <v>0</v>
       </c>
-      <c r="H22" s="101">
+      <c r="H22" s="98">
         <f>IFERROR((B22/100) * VLOOKUP(A22, Ingrediensdatabase!A:J, 7, FALSE), "")</f>
         <v>0</v>
       </c>
-      <c r="I22" s="101">
+      <c r="I22" s="98">
         <f>IFERROR((B22/100) * VLOOKUP(A22, Ingrediensdatabase!A:J, 8, FALSE), "")</f>
         <v>280</v>
       </c>
-      <c r="J22" s="101">
+      <c r="J22" s="98">
         <f>IFERROR((B22/100) * VLOOKUP(A22, Ingrediensdatabase!A:J, 9, FALSE), "")</f>
         <v>100</v>
       </c>
-      <c r="K22" s="102">
+      <c r="K22" s="99">
         <f>IFERROR((B22/100) * VLOOKUP(A22, Ingrediensdatabase!A:J, 10, FALSE), "")</f>
         <v>0</v>
       </c>
       <c r="L22" s="4"/>
     </row>
     <row r="23" spans="1:12" ht="12.75">
-      <c r="A23" s="100" t="s">
+      <c r="A23" s="97" t="s">
         <v>94</v>
       </c>
-      <c r="B23" s="101">
+      <c r="B23" s="98">
         <v>100</v>
       </c>
-      <c r="C23" s="101">
+      <c r="C23" s="98">
         <f>IFERROR((B23/100) * VLOOKUP(A23, Ingrediensdatabase!A:J, 2, FALSE), "")</f>
         <v>200</v>
       </c>
-      <c r="D23" s="101">
+      <c r="D23" s="98">
         <f>IFERROR((B23/100) * VLOOKUP(A23, Ingrediensdatabase!A:J, 3, FALSE), "")</f>
         <v>0</v>
       </c>
-      <c r="E23" s="101">
+      <c r="E23" s="98">
         <f>IFERROR((B23/100) * VLOOKUP(A23, Ingrediensdatabase!A:J, 4, FALSE), "")</f>
         <v>95</v>
       </c>
-      <c r="F23" s="101">
+      <c r="F23" s="98">
         <f>IFERROR((B23/100) * VLOOKUP(A23, Ingrediensdatabase!A:J, 5, FALSE), "")</f>
         <v>8</v>
       </c>
-      <c r="G23" s="101">
+      <c r="G23" s="98">
         <f>IFERROR((B23/100) * VLOOKUP(A23, Ingrediensdatabase!A:J, 6, FALSE), "")</f>
         <v>0</v>
       </c>
-      <c r="H23" s="101">
+      <c r="H23" s="98">
         <f>IFERROR((B23/100) * VLOOKUP(A23, Ingrediensdatabase!A:J, 7, FALSE), "")</f>
         <v>0</v>
       </c>
-      <c r="I23" s="101">
+      <c r="I23" s="98">
         <f>IFERROR((B23/100) * VLOOKUP(A23, Ingrediensdatabase!A:J, 8, FALSE), "")</f>
         <v>0.8</v>
       </c>
-      <c r="J23" s="101">
+      <c r="J23" s="98">
         <f>IFERROR((B23/100) * VLOOKUP(A23, Ingrediensdatabase!A:J, 9, FALSE), "")</f>
         <v>95</v>
       </c>
-      <c r="K23" s="102">
+      <c r="K23" s="99">
         <f>IFERROR((B23/100) * VLOOKUP(A23, Ingrediensdatabase!A:J, 10, FALSE), "")</f>
         <v>0</v>
       </c>
       <c r="L23" s="4"/>
     </row>
     <row r="24" spans="1:12" ht="12.75">
-      <c r="A24" s="100" t="s">
+      <c r="A24" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="B24" s="101">
+      <c r="B24" s="98">
         <v>10</v>
       </c>
-      <c r="C24" s="101">
+      <c r="C24" s="98">
         <f>IFERROR((B24/100) * VLOOKUP(A24, Ingrediensdatabase!A:J, 2, FALSE), "")</f>
         <v>33.300000000000004</v>
       </c>
-      <c r="D24" s="101">
+      <c r="D24" s="98">
         <f>IFERROR((B24/100) * VLOOKUP(A24, Ingrediensdatabase!A:J, 3, FALSE), "")</f>
         <v>0</v>
       </c>
-      <c r="E24" s="103">
+      <c r="E24" s="100">
         <f>IFERROR((B24/100) * VLOOKUP(A24, Ingrediensdatabase!A:J, 4, FALSE), "")</f>
         <v>6.6700000000000008</v>
       </c>
-      <c r="F24" s="101">
+      <c r="F24" s="98">
         <f>IFERROR((B24/100) * VLOOKUP(A24, Ingrediensdatabase!A:J, 5, FALSE), "")</f>
         <v>0</v>
       </c>
-      <c r="G24" s="101">
+      <c r="G24" s="98">
         <f>IFERROR((B24/100) * VLOOKUP(A24, Ingrediensdatabase!A:J, 6, FALSE), "")</f>
         <v>0</v>
       </c>
-      <c r="H24" s="101">
+      <c r="H24" s="98">
         <f>IFERROR((B24/100) * VLOOKUP(A24, Ingrediensdatabase!A:J, 7, FALSE), "")</f>
         <v>2</v>
       </c>
-      <c r="I24" s="101">
+      <c r="I24" s="98">
         <f>IFERROR((B24/100) * VLOOKUP(A24, Ingrediensdatabase!A:J, 8, FALSE), "")</f>
         <v>0</v>
       </c>
-      <c r="J24" s="103">
+      <c r="J24" s="100">
         <f>IFERROR((B24/100) * VLOOKUP(A24, Ingrediensdatabase!A:J, 9, FALSE), "")</f>
         <v>6.6700000000000008</v>
       </c>
-      <c r="K24" s="102">
+      <c r="K24" s="99">
         <f>IFERROR((B24/100) * VLOOKUP(A24, Ingrediensdatabase!A:J, 10, FALSE), "")</f>
         <v>0</v>
       </c>
       <c r="L24" s="4"/>
     </row>
     <row r="25" spans="1:12" ht="12.75">
-      <c r="A25" s="100" t="s">
+      <c r="A25" s="97" t="s">
         <v>95</v>
       </c>
-      <c r="B25" s="101">
+      <c r="B25" s="98">
         <v>3.5</v>
       </c>
-      <c r="C25" s="103">
+      <c r="C25" s="100">
         <f>IFERROR((B25/100) * VLOOKUP(A25, Ingrediensdatabase!A:J, 2, FALSE), "")</f>
         <v>6.6850000000000005</v>
       </c>
-      <c r="D25" s="104">
+      <c r="D25" s="101">
         <f>IFERROR((B25/100) * VLOOKUP(A25, Ingrediensdatabase!A:J, 3, FALSE), "")</f>
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="E25" s="104">
+      <c r="E25" s="101">
         <f>IFERROR((B25/100) * VLOOKUP(A25, Ingrediensdatabase!A:J, 4, FALSE), "")</f>
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="F25" s="104">
+      <c r="F25" s="101">
         <f>IFERROR((B25/100) * VLOOKUP(A25, Ingrediensdatabase!A:J, 5, FALSE), "")</f>
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G25" s="103">
+      <c r="G25" s="100">
         <f>IFERROR((B25/100) * VLOOKUP(A25, Ingrediensdatabase!A:J, 6, FALSE), "")</f>
         <v>0.14000000000000001</v>
       </c>
-      <c r="H25" s="101">
+      <c r="H25" s="98">
         <f>IFERROR((B25/100) * VLOOKUP(A25, Ingrediensdatabase!A:J, 7, FALSE), "")</f>
         <v>0</v>
       </c>
-      <c r="I25" s="104">
+      <c r="I25" s="101">
         <f>IFERROR((B25/100) * VLOOKUP(A25, Ingrediensdatabase!A:J, 8, FALSE), "")</f>
         <v>3.5000000000000005E-4</v>
       </c>
-      <c r="J25" s="103">
+      <c r="J25" s="100">
         <f>IFERROR((B25/100) * VLOOKUP(A25, Ingrediensdatabase!A:J, 9, FALSE), "")</f>
         <v>0.17500000000000002</v>
       </c>
-      <c r="K25" s="102">
+      <c r="K25" s="99">
         <f>IFERROR((B25/100) * VLOOKUP(A25, Ingrediensdatabase!A:J, 10, FALSE), "")</f>
         <v>0</v>
       </c>
       <c r="L25" s="4"/>
     </row>
     <row r="26" spans="1:12" ht="12.75">
-      <c r="A26" s="100" t="s">
+      <c r="A26" s="97" t="s">
         <v>97</v>
       </c>
-      <c r="B26" s="101">
+      <c r="B26" s="98">
         <v>1</v>
       </c>
-      <c r="C26" s="101">
+      <c r="C26" s="98">
         <f>IFERROR((B26/100) * VLOOKUP(A26, Ingrediensdatabase!A:J, 2, FALSE), "")</f>
         <v>1.8</v>
       </c>
-      <c r="D26" s="101">
+      <c r="D26" s="98">
         <f>IFERROR((B26/100) * VLOOKUP(A26, Ingrediensdatabase!A:J, 3, FALSE), "")</f>
         <v>0</v>
       </c>
-      <c r="E26" s="101">
+      <c r="E26" s="98">
         <f>IFERROR((B26/100) * VLOOKUP(A26, Ingrediensdatabase!A:J, 4, FALSE), "")</f>
         <v>0.8</v>
       </c>
-      <c r="F26" s="101">
+      <c r="F26" s="98">
         <f>IFERROR((B26/100) * VLOOKUP(A26, Ingrediensdatabase!A:J, 5, FALSE), "")</f>
         <v>0</v>
       </c>
-      <c r="G26" s="103">
+      <c r="G26" s="100">
         <f>IFERROR((B26/100) * VLOOKUP(A26, Ingrediensdatabase!A:J, 6, FALSE), "")</f>
         <v>0.05</v>
       </c>
-      <c r="H26" s="101">
+      <c r="H26" s="98">
         <f>IFERROR((B26/100) * VLOOKUP(A26, Ingrediensdatabase!A:J, 7, FALSE), "")</f>
         <v>0</v>
       </c>
-      <c r="I26" s="101">
+      <c r="I26" s="98">
         <f>IFERROR((B26/100) * VLOOKUP(A26, Ingrediensdatabase!A:J, 8, FALSE), "")</f>
         <v>0</v>
       </c>
-      <c r="J26" s="103">
+      <c r="J26" s="100">
         <f>IFERROR((B26/100) * VLOOKUP(A26, Ingrediensdatabase!A:J, 9, FALSE), "")</f>
         <v>0.85</v>
       </c>
-      <c r="K26" s="102">
+      <c r="K26" s="99">
         <f>IFERROR((B26/100) * VLOOKUP(A26, Ingrediensdatabase!A:J, 10, FALSE), "")</f>
         <v>0</v>
       </c>
       <c r="L26" s="4"/>
     </row>
     <row r="27" spans="1:12" ht="12.75">
-      <c r="A27" s="100" t="s">
+      <c r="A27" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="B27" s="101">
+      <c r="B27" s="98">
         <v>3.5</v>
       </c>
-      <c r="C27" s="101">
+      <c r="C27" s="98">
         <f>IFERROR((B27/100) * VLOOKUP(A27, Ingrediensdatabase!A:J, 2, FALSE), "")</f>
         <v>0</v>
       </c>
-      <c r="D27" s="101">
+      <c r="D27" s="98">
         <f>IFERROR((B27/100) * VLOOKUP(A27, Ingrediensdatabase!A:J, 3, FALSE), "")</f>
         <v>0</v>
       </c>
-      <c r="E27" s="101">
+      <c r="E27" s="98">
         <f>IFERROR((B27/100) * VLOOKUP(A27, Ingrediensdatabase!A:J, 4, FALSE), "")</f>
         <v>0</v>
       </c>
-      <c r="F27" s="101">
+      <c r="F27" s="98">
         <f>IFERROR((B27/100) * VLOOKUP(A27, Ingrediensdatabase!A:J, 5, FALSE), "")</f>
         <v>0</v>
       </c>
-      <c r="G27" s="101">
+      <c r="G27" s="98">
         <f>IFERROR((B27/100) * VLOOKUP(A27, Ingrediensdatabase!A:J, 6, FALSE), "")</f>
         <v>0</v>
       </c>
-      <c r="H27" s="101">
+      <c r="H27" s="98">
         <f>IFERROR((B27/100) * VLOOKUP(A27, Ingrediensdatabase!A:J, 7, FALSE), "")</f>
         <v>3.5000000000000004</v>
       </c>
-      <c r="I27" s="103">
+      <c r="I27" s="100">
         <f>IFERROR((B27/100) * VLOOKUP(A27, Ingrediensdatabase!A:J, 8, FALSE), "")</f>
         <v>20.650000000000002</v>
       </c>
-      <c r="J27" s="101">
+      <c r="J27" s="98">
         <f>IFERROR((B27/100) * VLOOKUP(A27, Ingrediensdatabase!A:J, 9, FALSE), "")</f>
         <v>0</v>
       </c>
-      <c r="K27" s="102">
+      <c r="K27" s="99">
         <f>IFERROR((B27/100) * VLOOKUP(A27, Ingrediensdatabase!A:J, 10, FALSE), "")</f>
         <v>0</v>
       </c>
       <c r="L27" s="4"/>
     </row>
     <row r="28" spans="1:12" ht="12.75">
-      <c r="A28" s="105"/>
-      <c r="B28" s="105"/>
-      <c r="C28" s="105"/>
-      <c r="D28" s="105"/>
-      <c r="E28" s="105"/>
-      <c r="F28" s="105"/>
-      <c r="G28" s="105"/>
-      <c r="H28" s="105"/>
-      <c r="I28" s="105"/>
-      <c r="J28" s="105"/>
-      <c r="K28" s="105"/>
+      <c r="A28" s="102"/>
+      <c r="B28" s="102"/>
+      <c r="C28" s="102"/>
+      <c r="D28" s="102"/>
+      <c r="E28" s="102"/>
+      <c r="F28" s="102"/>
+      <c r="G28" s="102"/>
+      <c r="H28" s="102"/>
+      <c r="I28" s="102"/>
+      <c r="J28" s="102"/>
+      <c r="K28" s="102"/>
       <c r="L28" s="4"/>
     </row>
     <row r="29" spans="1:12" ht="12.75">
-      <c r="A29" s="106" t="s">
-        <v>658</v>
-      </c>
-      <c r="B29" s="101">
+      <c r="A29" s="103" t="s">
+        <v>657</v>
+      </c>
+      <c r="B29" s="98">
         <f t="shared" ref="B29:K29" si="0">SUM(B22:B27)</f>
         <v>218</v>
       </c>
-      <c r="C29" s="103">
+      <c r="C29" s="100">
         <f t="shared" si="0"/>
         <v>241.78500000000003</v>
       </c>
-      <c r="D29" s="104">
+      <c r="D29" s="101">
         <f t="shared" si="0"/>
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="E29" s="103">
+      <c r="E29" s="100">
         <f t="shared" si="0"/>
         <v>202.505</v>
       </c>
-      <c r="F29" s="104">
+      <c r="F29" s="101">
         <f t="shared" si="0"/>
         <v>8.0350000000000001</v>
       </c>
-      <c r="G29" s="103">
+      <c r="G29" s="100">
         <f t="shared" si="0"/>
         <v>0.19</v>
       </c>
-      <c r="H29" s="103">
+      <c r="H29" s="100">
         <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
-      <c r="I29" s="103">
+      <c r="I29" s="100">
         <f t="shared" si="0"/>
         <v>301.45035000000001</v>
       </c>
-      <c r="J29" s="103">
+      <c r="J29" s="100">
         <f t="shared" si="0"/>
         <v>202.69499999999999</v>
       </c>
-      <c r="K29" s="107">
+      <c r="K29" s="104">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L29" s="4"/>
     </row>
     <row r="30" spans="1:12" ht="12.75">
-      <c r="A30" s="108"/>
-      <c r="B30" s="109"/>
-      <c r="C30" s="109"/>
-      <c r="D30" s="109"/>
-      <c r="E30" s="109"/>
-      <c r="F30" s="109"/>
-      <c r="G30" s="109"/>
-      <c r="H30" s="109"/>
-      <c r="I30" s="109"/>
-      <c r="J30" s="109"/>
+      <c r="A30" s="105"/>
+      <c r="B30" s="106"/>
+      <c r="C30" s="106"/>
+      <c r="D30" s="106"/>
+      <c r="E30" s="106"/>
+      <c r="F30" s="106"/>
+      <c r="G30" s="106"/>
+      <c r="H30" s="106"/>
+      <c r="I30" s="106"/>
+      <c r="J30" s="106"/>
       <c r="K30" s="7"/>
       <c r="L30" s="8"/>
     </row>
